--- a/Uploads/bitcoin_close_15min.xlsx
+++ b/Uploads/bitcoin_close_15min.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84174.42999999999</v>
+        <v>84177.5</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>84231.3</v>
+        <v>84229.66</v>
       </c>
     </row>
     <row r="18">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84274.3</v>
+        <v>84286.89</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>84296.05</v>
+        <v>84287.46000000001</v>
       </c>
     </row>
     <row r="30">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>84359.67</v>
+        <v>84364.16</v>
       </c>
     </row>
     <row r="44">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>84106.12</v>
+        <v>84110.81</v>
       </c>
     </row>
     <row r="68">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>84128.85000000001</v>
+        <v>84132.23</v>
       </c>
     </row>
     <row r="70">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>84001.81</v>
+        <v>83996.59</v>
       </c>
     </row>
     <row r="102">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>85016.38</v>
+        <v>85014.39</v>
       </c>
     </row>
     <row r="178">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>86008.27</v>
+        <v>86129.77</v>
       </c>
     </row>
     <row r="198">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>85956.24000000001</v>
+        <v>85920.72</v>
       </c>
     </row>
     <row r="206">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>87699.48</v>
+        <v>87684.48</v>
       </c>
     </row>
     <row r="242">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>87437.28999999999</v>
+        <v>87421.7</v>
       </c>
     </row>
     <row r="249">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>87398.42999999999</v>
+        <v>87392.25</v>
       </c>
     </row>
     <row r="286">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>86430.03999999999</v>
+        <v>86519.59</v>
       </c>
     </row>
     <row r="311">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>86696.52</v>
+        <v>86741.47</v>
       </c>
     </row>
     <row r="314">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>86524.66</v>
+        <v>86512.3</v>
       </c>
     </row>
     <row r="323">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>87625.77</v>
+        <v>87660.52</v>
       </c>
     </row>
     <row r="346">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>88192.13</v>
+        <v>88245.42999999999</v>
       </c>
     </row>
     <row r="359">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>87600.23</v>
+        <v>87562.03</v>
       </c>
     </row>
     <row r="381">
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>87597.96000000001</v>
+        <v>87611.24000000001</v>
       </c>
     </row>
     <row r="388">
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>87677.73</v>
+        <v>87686.05</v>
       </c>
     </row>
     <row r="390">
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="B413" t="n">
-        <v>87921.60000000001</v>
+        <v>87915.58</v>
       </c>
     </row>
     <row r="414">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>87992.78</v>
+        <v>87957.48</v>
       </c>
     </row>
     <row r="422">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>87939.42999999999</v>
+        <v>87942</v>
       </c>
     </row>
     <row r="423">
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>87997.11</v>
+        <v>87988.7</v>
       </c>
     </row>
     <row r="424">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>88143.77</v>
+        <v>88184.14</v>
       </c>
     </row>
     <row r="429">
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="B445" t="n">
-        <v>86828.59</v>
+        <v>86772.38</v>
       </c>
     </row>
     <row r="446">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>86731.3</v>
+        <v>86803.12</v>
       </c>
     </row>
     <row r="457">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>87163.55</v>
+        <v>87131.3</v>
       </c>
     </row>
     <row r="485">
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="B503" t="n">
-        <v>87433.00999999999</v>
+        <v>87421.8</v>
       </c>
     </row>
     <row r="504">
@@ -5582,7 +5582,7 @@
         </is>
       </c>
       <c r="B515" t="n">
-        <v>87408.37</v>
+        <v>87395.34</v>
       </c>
     </row>
     <row r="516">
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="B517" t="n">
-        <v>87444.66</v>
+        <v>87443.08</v>
       </c>
     </row>
     <row r="518">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="B538" t="n">
-        <v>86413.49000000001</v>
+        <v>86258.10000000001</v>
       </c>
     </row>
     <row r="539">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="B564" t="n">
-        <v>87299.33</v>
+        <v>87292.57000000001</v>
       </c>
     </row>
     <row r="565">
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="B595" t="n">
-        <v>86730.03</v>
+        <v>86747.02</v>
       </c>
     </row>
     <row r="596">
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="B613" t="n">
-        <v>85212.05</v>
+        <v>85208.87</v>
       </c>
     </row>
     <row r="614">
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="B632" t="n">
-        <v>85349.84</v>
+        <v>85438.22</v>
       </c>
     </row>
     <row r="633">
@@ -7422,7 +7422,7 @@
         </is>
       </c>
       <c r="B699" t="n">
-        <v>83668.3</v>
+        <v>83688.98</v>
       </c>
     </row>
     <row r="700">
@@ -7742,7 +7742,7 @@
         </is>
       </c>
       <c r="B731" t="n">
-        <v>82479.49000000001</v>
+        <v>82508.16</v>
       </c>
     </row>
     <row r="732">
@@ -8062,7 +8062,7 @@
         </is>
       </c>
       <c r="B763" t="n">
-        <v>82395.05</v>
+        <v>82394.21000000001</v>
       </c>
     </row>
     <row r="764">
@@ -8102,7 +8102,7 @@
         </is>
       </c>
       <c r="B767" t="n">
-        <v>82441.77</v>
+        <v>82455.46000000001</v>
       </c>
     </row>
     <row r="768">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="B768" t="n">
-        <v>82469.07000000001</v>
+        <v>82444.55</v>
       </c>
     </row>
     <row r="769">
@@ -8342,7 +8342,7 @@
         </is>
       </c>
       <c r="B791" t="n">
-        <v>83164.94</v>
+        <v>83161.28</v>
       </c>
     </row>
     <row r="792">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="B816" t="n">
-        <v>83027.62</v>
+        <v>83017.53999999999</v>
       </c>
     </row>
     <row r="817">
@@ -8922,7 +8922,7 @@
         </is>
       </c>
       <c r="B849" t="n">
-        <v>82528.14</v>
+        <v>82551.71000000001</v>
       </c>
     </row>
     <row r="850">
@@ -9302,7 +9302,7 @@
         </is>
       </c>
       <c r="B887" t="n">
-        <v>82247.3</v>
+        <v>82234.74000000001</v>
       </c>
     </row>
     <row r="888">
@@ -9412,7 +9412,7 @@
         </is>
       </c>
       <c r="B898" t="n">
-        <v>82185.55</v>
+        <v>82165.45</v>
       </c>
     </row>
     <row r="899">
@@ -9532,7 +9532,7 @@
         </is>
       </c>
       <c r="B910" t="n">
-        <v>82116.77</v>
+        <v>82090.91</v>
       </c>
     </row>
     <row r="911">
@@ -9632,7 +9632,7 @@
         </is>
       </c>
       <c r="B920" t="n">
-        <v>82018.11</v>
+        <v>82088.67999999999</v>
       </c>
     </row>
     <row r="921">
@@ -9702,7 +9702,7 @@
         </is>
       </c>
       <c r="B927" t="n">
-        <v>83719.77</v>
+        <v>83729.82000000001</v>
       </c>
     </row>
     <row r="928">
@@ -10062,7 +10062,7 @@
         </is>
       </c>
       <c r="B963" t="n">
-        <v>82683.5</v>
+        <v>82729.67</v>
       </c>
     </row>
     <row r="964">
@@ -11072,7 +11072,7 @@
         </is>
       </c>
       <c r="B1064" t="n">
-        <v>85181.22</v>
+        <v>85196.09</v>
       </c>
     </row>
     <row r="1065">
@@ -11082,7 +11082,7 @@
         </is>
       </c>
       <c r="B1065" t="n">
-        <v>85159.95</v>
+        <v>85109.87</v>
       </c>
     </row>
     <row r="1066">
@@ -11322,7 +11322,7 @@
         </is>
       </c>
       <c r="B1089" t="n">
-        <v>84431.3</v>
+        <v>84376.06</v>
       </c>
     </row>
     <row r="1090">
@@ -11482,7 +11482,7 @@
         </is>
       </c>
       <c r="B1105" t="n">
-        <v>84545.71000000001</v>
+        <v>84554.09</v>
       </c>
     </row>
     <row r="1106">
@@ -11502,7 +11502,7 @@
         </is>
       </c>
       <c r="B1107" t="n">
-        <v>84659.00999999999</v>
+        <v>84696.41</v>
       </c>
     </row>
     <row r="1108">
@@ -11832,7 +11832,7 @@
         </is>
       </c>
       <c r="B1140" t="n">
-        <v>85314.48</v>
+        <v>85464.2</v>
       </c>
     </row>
     <row r="1141">
@@ -11862,7 +11862,7 @@
         </is>
       </c>
       <c r="B1143" t="n">
-        <v>84669.32000000001</v>
+        <v>84703.53</v>
       </c>
     </row>
     <row r="1144">
@@ -11932,7 +11932,7 @@
         </is>
       </c>
       <c r="B1150" t="n">
-        <v>82601.56</v>
+        <v>82510.16</v>
       </c>
     </row>
     <row r="1151">
@@ -12012,7 +12012,7 @@
         </is>
       </c>
       <c r="B1158" t="n">
-        <v>83321.75999999999</v>
+        <v>83300.98</v>
       </c>
     </row>
     <row r="1159">
@@ -12032,7 +12032,7 @@
         </is>
       </c>
       <c r="B1160" t="n">
-        <v>83667.98</v>
+        <v>83629.95</v>
       </c>
     </row>
     <row r="1161">
@@ -12082,7 +12082,7 @@
         </is>
       </c>
       <c r="B1165" t="n">
-        <v>83729.32000000001</v>
+        <v>83737.62</v>
       </c>
     </row>
     <row r="1166">
@@ -12102,7 +12102,7 @@
         </is>
       </c>
       <c r="B1167" t="n">
-        <v>83599.56</v>
+        <v>83581.59</v>
       </c>
     </row>
     <row r="1168">
@@ -12202,7 +12202,7 @@
         </is>
       </c>
       <c r="B1177" t="n">
-        <v>83401.62</v>
+        <v>83386.55</v>
       </c>
     </row>
     <row r="1178">
@@ -12242,7 +12242,7 @@
         </is>
       </c>
       <c r="B1181" t="n">
-        <v>83014.34</v>
+        <v>83038.41</v>
       </c>
     </row>
     <row r="1182">
@@ -12352,7 +12352,7 @@
         </is>
       </c>
       <c r="B1192" t="n">
-        <v>83726.82000000001</v>
+        <v>83716.24000000001</v>
       </c>
     </row>
     <row r="1193">
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="B1205" t="n">
-        <v>82035.78</v>
+        <v>81986.05</v>
       </c>
     </row>
     <row r="1206">
@@ -12512,7 +12512,7 @@
         </is>
       </c>
       <c r="B1208" t="n">
-        <v>82296.19</v>
+        <v>82501.62</v>
       </c>
     </row>
     <row r="1209">
@@ -12672,7 +12672,7 @@
         </is>
       </c>
       <c r="B1224" t="n">
-        <v>82067.69</v>
+        <v>82020.53999999999</v>
       </c>
     </row>
     <row r="1225">
@@ -12882,7 +12882,7 @@
         </is>
       </c>
       <c r="B1245" t="n">
-        <v>82674.91</v>
+        <v>82658.25</v>
       </c>
     </row>
     <row r="1246">
@@ -12952,7 +12952,7 @@
         </is>
       </c>
       <c r="B1252" t="n">
-        <v>83254.44</v>
+        <v>83293.25999999999</v>
       </c>
     </row>
     <row r="1253">
@@ -12982,7 +12982,7 @@
         </is>
       </c>
       <c r="B1255" t="n">
-        <v>83057.17</v>
+        <v>83069.75</v>
       </c>
     </row>
     <row r="1256">
@@ -13002,7 +13002,7 @@
         </is>
       </c>
       <c r="B1257" t="n">
-        <v>82590.45</v>
+        <v>82575.49000000001</v>
       </c>
     </row>
     <row r="1258">
@@ -13082,7 +13082,7 @@
         </is>
       </c>
       <c r="B1265" t="n">
-        <v>82782.63</v>
+        <v>82766.91</v>
       </c>
     </row>
     <row r="1266">
@@ -13092,7 +13092,7 @@
         </is>
       </c>
       <c r="B1266" t="n">
-        <v>82671.07000000001</v>
+        <v>82683.35000000001</v>
       </c>
     </row>
     <row r="1267">
@@ -13162,7 +13162,7 @@
         </is>
       </c>
       <c r="B1273" t="n">
-        <v>83173.12</v>
+        <v>83166.5</v>
       </c>
     </row>
     <row r="1274">
@@ -13232,7 +13232,7 @@
         </is>
       </c>
       <c r="B1280" t="n">
-        <v>83665.83</v>
+        <v>83676.62</v>
       </c>
     </row>
     <row r="1281">
@@ -13292,7 +13292,7 @@
         </is>
       </c>
       <c r="B1286" t="n">
-        <v>84332.86</v>
+        <v>84319.98</v>
       </c>
     </row>
     <row r="1287">
@@ -13352,7 +13352,7 @@
         </is>
       </c>
       <c r="B1292" t="n">
-        <v>82886.05</v>
+        <v>83010.2</v>
       </c>
     </row>
     <row r="1293">
@@ -13412,7 +13412,7 @@
         </is>
       </c>
       <c r="B1298" t="n">
-        <v>82350.82000000001</v>
+        <v>82294.46000000001</v>
       </c>
     </row>
     <row r="1299">
@@ -13432,7 +13432,7 @@
         </is>
       </c>
       <c r="B1300" t="n">
-        <v>82645.59</v>
+        <v>82660.05</v>
       </c>
     </row>
     <row r="1301">
@@ -13442,7 +13442,7 @@
         </is>
       </c>
       <c r="B1301" t="n">
-        <v>82783.46000000001</v>
+        <v>82819.55</v>
       </c>
     </row>
     <row r="1302">
@@ -13522,7 +13522,7 @@
         </is>
       </c>
       <c r="B1309" t="n">
-        <v>82693.91</v>
+        <v>82576.74000000001</v>
       </c>
     </row>
     <row r="1310">
@@ -13542,7 +13542,7 @@
         </is>
       </c>
       <c r="B1311" t="n">
-        <v>83237.77</v>
+        <v>83222.78999999999</v>
       </c>
     </row>
     <row r="1312">
@@ -13772,7 +13772,7 @@
         </is>
       </c>
       <c r="B1334" t="n">
-        <v>84163.99000000001</v>
+        <v>84197.64</v>
       </c>
     </row>
     <row r="1335">
@@ -13802,7 +13802,7 @@
         </is>
       </c>
       <c r="B1337" t="n">
-        <v>84184.05</v>
+        <v>84215.49000000001</v>
       </c>
     </row>
     <row r="1338">
@@ -13842,7 +13842,7 @@
         </is>
       </c>
       <c r="B1341" t="n">
-        <v>84029.25</v>
+        <v>84027.66</v>
       </c>
     </row>
     <row r="1342">
@@ -13892,7 +13892,7 @@
         </is>
       </c>
       <c r="B1346" t="n">
-        <v>83695.5</v>
+        <v>83674.03999999999</v>
       </c>
     </row>
     <row r="1347">
@@ -13962,7 +13962,7 @@
         </is>
       </c>
       <c r="B1353" t="n">
-        <v>83950.75</v>
+        <v>83954.17999999999</v>
       </c>
     </row>
     <row r="1354">
@@ -14002,7 +14002,7 @@
         </is>
       </c>
       <c r="B1357" t="n">
-        <v>83937.61</v>
+        <v>83923.27</v>
       </c>
     </row>
     <row r="1358">
@@ -14102,7 +14102,7 @@
         </is>
       </c>
       <c r="B1367" t="n">
-        <v>83813.21000000001</v>
+        <v>83808.34</v>
       </c>
     </row>
     <row r="1368">
@@ -14162,7 +14162,7 @@
         </is>
       </c>
       <c r="B1373" t="n">
-        <v>83446.75999999999</v>
+        <v>83412.44</v>
       </c>
     </row>
     <row r="1374">
@@ -14172,7 +14172,7 @@
         </is>
       </c>
       <c r="B1374" t="n">
-        <v>83385.02</v>
+        <v>83412.63</v>
       </c>
     </row>
     <row r="1375">
@@ -14222,7 +14222,7 @@
         </is>
       </c>
       <c r="B1379" t="n">
-        <v>83369.03999999999</v>
+        <v>83370.27</v>
       </c>
     </row>
     <row r="1380">
@@ -14262,7 +14262,7 @@
         </is>
       </c>
       <c r="B1383" t="n">
-        <v>83675.25</v>
+        <v>83688.32000000001</v>
       </c>
     </row>
     <row r="1384">
@@ -14272,7 +14272,7 @@
         </is>
       </c>
       <c r="B1384" t="n">
-        <v>83697.89</v>
+        <v>83677.2</v>
       </c>
     </row>
     <row r="1385">
@@ -14412,7 +14412,7 @@
         </is>
       </c>
       <c r="B1398" t="n">
-        <v>83153.98</v>
+        <v>83150.89999999999</v>
       </c>
     </row>
     <row r="1399">
@@ -14462,7 +14462,7 @@
         </is>
       </c>
       <c r="B1403" t="n">
-        <v>82853.05</v>
+        <v>82852.5</v>
       </c>
     </row>
     <row r="1404">
@@ -14522,7 +14522,7 @@
         </is>
       </c>
       <c r="B1409" t="n">
-        <v>82566.14</v>
+        <v>82565.72</v>
       </c>
     </row>
     <row r="1410">
@@ -14682,7 +14682,7 @@
         </is>
       </c>
       <c r="B1425" t="n">
-        <v>82787</v>
+        <v>82776.66</v>
       </c>
     </row>
     <row r="1426">
@@ -14792,7 +14792,7 @@
         </is>
       </c>
       <c r="B1436" t="n">
-        <v>83039.53999999999</v>
+        <v>83017.66</v>
       </c>
     </row>
     <row r="1437">
@@ -14802,7 +14802,7 @@
         </is>
       </c>
       <c r="B1437" t="n">
-        <v>83149.06</v>
+        <v>83135.7</v>
       </c>
     </row>
     <row r="1438">
@@ -14862,7 +14862,7 @@
         </is>
       </c>
       <c r="B1443" t="n">
-        <v>83506.89999999999</v>
+        <v>83511.62</v>
       </c>
     </row>
     <row r="1444">
@@ -14902,7 +14902,7 @@
         </is>
       </c>
       <c r="B1447" t="n">
-        <v>83565.52</v>
+        <v>83600.39999999999</v>
       </c>
     </row>
     <row r="1448">
@@ -14922,7 +14922,7 @@
         </is>
       </c>
       <c r="B1449" t="n">
-        <v>83411.13</v>
+        <v>83415.25</v>
       </c>
     </row>
     <row r="1450">
@@ -14972,7 +14972,7 @@
         </is>
       </c>
       <c r="B1454" t="n">
-        <v>83320.47</v>
+        <v>83314.67</v>
       </c>
     </row>
     <row r="1455">
@@ -15122,7 +15122,7 @@
         </is>
       </c>
       <c r="B1469" t="n">
-        <v>83125.67</v>
+        <v>83155.45</v>
       </c>
     </row>
     <row r="1470">
@@ -15132,7 +15132,7 @@
         </is>
       </c>
       <c r="B1470" t="n">
-        <v>83142.38</v>
+        <v>83137.35000000001</v>
       </c>
     </row>
     <row r="1471">
@@ -15152,7 +15152,7 @@
         </is>
       </c>
       <c r="B1472" t="n">
-        <v>83045.7</v>
+        <v>83058.14</v>
       </c>
     </row>
     <row r="1473">
@@ -15162,7 +15162,7 @@
         </is>
       </c>
       <c r="B1473" t="n">
-        <v>82996.96000000001</v>
+        <v>83011.2</v>
       </c>
     </row>
     <row r="1474">
@@ -15262,7 +15262,7 @@
         </is>
       </c>
       <c r="B1483" t="n">
-        <v>82772.24000000001</v>
+        <v>82781.50999999999</v>
       </c>
     </row>
     <row r="1484">
@@ -15442,7 +15442,7 @@
         </is>
       </c>
       <c r="B1501" t="n">
-        <v>82555.71000000001</v>
+        <v>82512.78999999999</v>
       </c>
     </row>
     <row r="1502">
@@ -15572,7 +15572,7 @@
         </is>
       </c>
       <c r="B1514" t="n">
-        <v>80379.10000000001</v>
+        <v>80348.36</v>
       </c>
     </row>
     <row r="1515">
@@ -15602,7 +15602,7 @@
         </is>
       </c>
       <c r="B1517" t="n">
-        <v>78934.62</v>
+        <v>78977.82000000001</v>
       </c>
     </row>
     <row r="1518">
@@ -15612,7 +15612,7 @@
         </is>
       </c>
       <c r="B1518" t="n">
-        <v>79206.06</v>
+        <v>79131.22</v>
       </c>
     </row>
     <row r="1519">
@@ -15672,7 +15672,7 @@
         </is>
       </c>
       <c r="B1524" t="n">
-        <v>79255.10000000001</v>
+        <v>79435.3</v>
       </c>
     </row>
     <row r="1525">
@@ -15682,7 +15682,7 @@
         </is>
       </c>
       <c r="B1525" t="n">
-        <v>78802.14999999999</v>
+        <v>78810</v>
       </c>
     </row>
     <row r="1526">
@@ -15742,7 +15742,7 @@
         </is>
       </c>
       <c r="B1531" t="n">
-        <v>78955.62</v>
+        <v>78843.72</v>
       </c>
     </row>
     <row r="1532">
@@ -15772,7 +15772,7 @@
         </is>
       </c>
       <c r="B1534" t="n">
-        <v>77530.27</v>
+        <v>77488.77</v>
       </c>
     </row>
     <row r="1535">
@@ -15782,7 +15782,7 @@
         </is>
       </c>
       <c r="B1535" t="n">
-        <v>77483.55</v>
+        <v>77450.86</v>
       </c>
     </row>
     <row r="1536">
@@ -15852,7 +15852,7 @@
         </is>
       </c>
       <c r="B1542" t="n">
-        <v>78717.69</v>
+        <v>78678.46000000001</v>
       </c>
     </row>
     <row r="1543">
@@ -15882,7 +15882,7 @@
         </is>
       </c>
       <c r="B1545" t="n">
-        <v>79159.7</v>
+        <v>79068.2</v>
       </c>
     </row>
     <row r="1546">
@@ -15922,7 +15922,7 @@
         </is>
       </c>
       <c r="B1549" t="n">
-        <v>78381.87</v>
+        <v>78382.2</v>
       </c>
     </row>
     <row r="1550">
@@ -15962,7 +15962,7 @@
         </is>
       </c>
       <c r="B1553" t="n">
-        <v>77584.98</v>
+        <v>77577.7</v>
       </c>
     </row>
     <row r="1554">
@@ -16092,7 +16092,7 @@
         </is>
       </c>
       <c r="B1566" t="n">
-        <v>75037.25999999999</v>
+        <v>75018.22</v>
       </c>
     </row>
     <row r="1567">
@@ -16222,7 +16222,7 @@
         </is>
       </c>
       <c r="B1579" t="n">
-        <v>77073.13</v>
+        <v>77082.8</v>
       </c>
     </row>
     <row r="1580">
@@ -16402,7 +16402,7 @@
         </is>
       </c>
       <c r="B1597" t="n">
-        <v>78982.77</v>
+        <v>78970.84</v>
       </c>
     </row>
     <row r="1598">
@@ -16412,7 +16412,7 @@
         </is>
       </c>
       <c r="B1598" t="n">
-        <v>78721.23</v>
+        <v>78499.50999999999</v>
       </c>
     </row>
     <row r="1599">
@@ -16442,7 +16442,7 @@
         </is>
       </c>
       <c r="B1601" t="n">
-        <v>78540.28</v>
+        <v>78683.60000000001</v>
       </c>
     </row>
     <row r="1602">
@@ -16472,7 +16472,7 @@
         </is>
       </c>
       <c r="B1604" t="n">
-        <v>77844.7</v>
+        <v>77914.44</v>
       </c>
     </row>
     <row r="1605">
@@ -16552,7 +16552,7 @@
         </is>
       </c>
       <c r="B1612" t="n">
-        <v>78891.7</v>
+        <v>78933.71000000001</v>
       </c>
     </row>
     <row r="1613">
@@ -16572,7 +16572,7 @@
         </is>
       </c>
       <c r="B1614" t="n">
-        <v>78383.07000000001</v>
+        <v>78353.16</v>
       </c>
     </row>
     <row r="1615">
@@ -16592,7 +16592,7 @@
         </is>
       </c>
       <c r="B1616" t="n">
-        <v>78172.73</v>
+        <v>78228.16</v>
       </c>
     </row>
     <row r="1617">
@@ -16642,7 +16642,7 @@
         </is>
       </c>
       <c r="B1621" t="n">
-        <v>78801.33</v>
+        <v>78813.86</v>
       </c>
     </row>
     <row r="1622">
@@ -16802,7 +16802,7 @@
         </is>
       </c>
       <c r="B1637" t="n">
-        <v>78990.57000000001</v>
+        <v>79061.53</v>
       </c>
     </row>
     <row r="1638">
@@ -16882,7 +16882,7 @@
         </is>
       </c>
       <c r="B1645" t="n">
-        <v>79911.47</v>
+        <v>79891.25</v>
       </c>
     </row>
     <row r="1646">
@@ -16982,7 +16982,7 @@
         </is>
       </c>
       <c r="B1655" t="n">
-        <v>79598.23</v>
+        <v>79611.97</v>
       </c>
     </row>
     <row r="1656">
@@ -17002,7 +17002,7 @@
         </is>
       </c>
       <c r="B1657" t="n">
-        <v>79820.36</v>
+        <v>79817.75999999999</v>
       </c>
     </row>
     <row r="1658">
@@ -17032,7 +17032,7 @@
         </is>
       </c>
       <c r="B1660" t="n">
-        <v>79513.78999999999</v>
+        <v>79485.91</v>
       </c>
     </row>
     <row r="1661">
@@ -17102,7 +17102,7 @@
         </is>
       </c>
       <c r="B1667" t="n">
-        <v>78970.7</v>
+        <v>78971.87</v>
       </c>
     </row>
     <row r="1668">
@@ -17202,7 +17202,7 @@
         </is>
       </c>
       <c r="B1677" t="n">
-        <v>78966.89</v>
+        <v>78961.67999999999</v>
       </c>
     </row>
     <row r="1678">
@@ -17242,7 +17242,7 @@
         </is>
       </c>
       <c r="B1681" t="n">
-        <v>79980.86</v>
+        <v>79869.57000000001</v>
       </c>
     </row>
     <row r="1682">
@@ -17252,7 +17252,7 @@
         </is>
       </c>
       <c r="B1682" t="n">
-        <v>80026.05</v>
+        <v>80051.63</v>
       </c>
     </row>
     <row r="1683">
@@ -17672,7 +17672,7 @@
         </is>
       </c>
       <c r="B1724" t="n">
-        <v>76378.95</v>
+        <v>76337.92</v>
       </c>
     </row>
     <row r="1725">
@@ -17682,7 +17682,7 @@
         </is>
       </c>
       <c r="B1725" t="n">
-        <v>76697.05</v>
+        <v>76719.98</v>
       </c>
     </row>
     <row r="1726">
@@ -17872,7 +17872,7 @@
         </is>
       </c>
       <c r="B1744" t="n">
-        <v>75259.03999999999</v>
+        <v>75210.91</v>
       </c>
     </row>
     <row r="1745">
@@ -18052,7 +18052,7 @@
         </is>
       </c>
       <c r="B1762" t="n">
-        <v>77366.64999999999</v>
+        <v>77399.89999999999</v>
       </c>
     </row>
     <row r="1763">
@@ -18092,7 +18092,7 @@
         </is>
       </c>
       <c r="B1766" t="n">
-        <v>77298.36</v>
+        <v>77322.05</v>
       </c>
     </row>
     <row r="1767">
@@ -18262,7 +18262,7 @@
         </is>
       </c>
       <c r="B1783" t="n">
-        <v>76758.78999999999</v>
+        <v>76776.94</v>
       </c>
     </row>
     <row r="1784">
@@ -18302,7 +18302,7 @@
         </is>
       </c>
       <c r="B1787" t="n">
-        <v>77432.52</v>
+        <v>77421.38</v>
       </c>
     </row>
     <row r="1788">
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="B1792" t="n">
-        <v>77051.38</v>
+        <v>77022.62</v>
       </c>
     </row>
     <row r="1793">
@@ -18432,7 +18432,7 @@
         </is>
       </c>
       <c r="B1800" t="n">
-        <v>81319.71000000001</v>
+        <v>81330.07000000001</v>
       </c>
     </row>
     <row r="1801">
@@ -18492,7 +18492,7 @@
         </is>
       </c>
       <c r="B1806" t="n">
-        <v>82096.85000000001</v>
+        <v>82052.72</v>
       </c>
     </row>
     <row r="1807">
@@ -18592,7 +18592,7 @@
         </is>
       </c>
       <c r="B1816" t="n">
-        <v>82986.66</v>
+        <v>83004.05</v>
       </c>
     </row>
     <row r="1817">
@@ -18722,7 +18722,7 @@
         </is>
       </c>
       <c r="B1829" t="n">
-        <v>82318.63</v>
+        <v>82276.57000000001</v>
       </c>
     </row>
     <row r="1830">
@@ -19042,7 +19042,7 @@
         </is>
       </c>
       <c r="B1861" t="n">
-        <v>81499.44</v>
+        <v>81478.48</v>
       </c>
     </row>
     <row r="1862">
@@ -19092,7 +19092,7 @@
         </is>
       </c>
       <c r="B1866" t="n">
-        <v>82030.87</v>
+        <v>82086.09</v>
       </c>
     </row>
     <row r="1867">
@@ -19232,7 +19232,7 @@
         </is>
       </c>
       <c r="B1880" t="n">
-        <v>80770.36</v>
+        <v>80881.00999999999</v>
       </c>
     </row>
     <row r="1881">
@@ -19312,7 +19312,7 @@
         </is>
       </c>
       <c r="B1888" t="n">
-        <v>79258.64999999999</v>
+        <v>79405.77</v>
       </c>
     </row>
     <row r="1889">
@@ -19422,7 +19422,7 @@
         </is>
       </c>
       <c r="B1899" t="n">
-        <v>79691.67</v>
+        <v>79704.34</v>
       </c>
     </row>
     <row r="1900">
@@ -19492,7 +19492,7 @@
         </is>
       </c>
       <c r="B1906" t="n">
-        <v>79783.08</v>
+        <v>79883.52</v>
       </c>
     </row>
     <row r="1907">
@@ -19562,7 +19562,7 @@
         </is>
       </c>
       <c r="B1913" t="n">
-        <v>79672.05</v>
+        <v>79675.05</v>
       </c>
     </row>
     <row r="1914">
@@ -19992,7 +19992,7 @@
         </is>
       </c>
       <c r="B1956" t="n">
-        <v>81533.12</v>
+        <v>81613.45</v>
       </c>
     </row>
     <row r="1957">
@@ -20132,7 +20132,7 @@
         </is>
       </c>
       <c r="B1970" t="n">
-        <v>81880.44</v>
+        <v>81876.12</v>
       </c>
     </row>
     <row r="1971">
@@ -20162,7 +20162,7 @@
         </is>
       </c>
       <c r="B1973" t="n">
-        <v>82004.32000000001</v>
+        <v>82000.7</v>
       </c>
     </row>
     <row r="1974">
@@ -20382,7 +20382,7 @@
         </is>
       </c>
       <c r="B1995" t="n">
-        <v>83915.55</v>
+        <v>83862.38</v>
       </c>
     </row>
     <row r="1996">
@@ -20392,7 +20392,7 @@
         </is>
       </c>
       <c r="B1996" t="n">
-        <v>83805.66</v>
+        <v>83817.12</v>
       </c>
     </row>
     <row r="1997">
@@ -20432,7 +20432,7 @@
         </is>
       </c>
       <c r="B2000" t="n">
-        <v>83800.81</v>
+        <v>83793.24000000001</v>
       </c>
     </row>
     <row r="2001">
@@ -20532,7 +20532,7 @@
         </is>
       </c>
       <c r="B2010" t="n">
-        <v>83546.27</v>
+        <v>83556.97</v>
       </c>
     </row>
     <row r="2011">
@@ -20742,7 +20742,7 @@
         </is>
       </c>
       <c r="B2031" t="n">
-        <v>82991.3</v>
+        <v>83003.74000000001</v>
       </c>
     </row>
     <row r="2032">
@@ -20812,7 +20812,7 @@
         </is>
       </c>
       <c r="B2038" t="n">
-        <v>83267.48</v>
+        <v>83268.11</v>
       </c>
     </row>
     <row r="2039">
@@ -20892,7 +20892,7 @@
         </is>
       </c>
       <c r="B2046" t="n">
-        <v>83483.75999999999</v>
+        <v>83499.09</v>
       </c>
     </row>
     <row r="2047">
@@ -20982,7 +20982,7 @@
         </is>
       </c>
       <c r="B2055" t="n">
-        <v>83438.7</v>
+        <v>83438.34</v>
       </c>
     </row>
     <row r="2056">
@@ -21012,7 +21012,7 @@
         </is>
       </c>
       <c r="B2058" t="n">
-        <v>83457.2</v>
+        <v>83460.92999999999</v>
       </c>
     </row>
     <row r="2059">
@@ -21182,7 +21182,7 @@
         </is>
       </c>
       <c r="B2075" t="n">
-        <v>84798.24000000001</v>
+        <v>84799.16</v>
       </c>
     </row>
     <row r="2076">
@@ -21362,7 +21362,7 @@
         </is>
       </c>
       <c r="B2093" t="n">
-        <v>85144.72</v>
+        <v>85150.95</v>
       </c>
     </row>
     <row r="2094">
@@ -21372,7 +21372,7 @@
         </is>
       </c>
       <c r="B2094" t="n">
-        <v>85073.38</v>
+        <v>85047.85000000001</v>
       </c>
     </row>
     <row r="2095">
@@ -21432,7 +21432,7 @@
         </is>
       </c>
       <c r="B2100" t="n">
-        <v>85852.02</v>
+        <v>85787.16</v>
       </c>
     </row>
     <row r="2101">
@@ -21542,7 +21542,7 @@
         </is>
       </c>
       <c r="B2111" t="n">
-        <v>85200.46000000001</v>
+        <v>85189.57000000001</v>
       </c>
     </row>
     <row r="2112">
@@ -21732,7 +21732,7 @@
         </is>
       </c>
       <c r="B2130" t="n">
-        <v>85111</v>
+        <v>85077.24000000001</v>
       </c>
     </row>
     <row r="2131">
@@ -21832,7 +21832,7 @@
         </is>
       </c>
       <c r="B2140" t="n">
-        <v>84725.5</v>
+        <v>84720.48</v>
       </c>
     </row>
     <row r="2141">
@@ -22002,7 +22002,7 @@
         </is>
       </c>
       <c r="B2157" t="n">
-        <v>84667.48</v>
+        <v>84670.08</v>
       </c>
     </row>
     <row r="2158">
@@ -22062,7 +22062,7 @@
         </is>
       </c>
       <c r="B2163" t="n">
-        <v>84262.72</v>
+        <v>84287.56</v>
       </c>
     </row>
     <row r="2164">
@@ -22172,7 +22172,7 @@
         </is>
       </c>
       <c r="B2174" t="n">
-        <v>83795.31</v>
+        <v>83773.09</v>
       </c>
     </row>
     <row r="2175">
@@ -22312,7 +22312,7 @@
         </is>
       </c>
       <c r="B2188" t="n">
-        <v>84813.3</v>
+        <v>84802.48</v>
       </c>
     </row>
     <row r="2189">
@@ -22492,7 +22492,7 @@
         </is>
       </c>
       <c r="B2206" t="n">
-        <v>83543.34</v>
+        <v>83516.66</v>
       </c>
     </row>
     <row r="2207">
@@ -22752,7 +22752,7 @@
         </is>
       </c>
       <c r="B2232" t="n">
-        <v>84377.89</v>
+        <v>84361.02</v>
       </c>
     </row>
     <row r="2233">
@@ -22792,7 +22792,7 @@
         </is>
       </c>
       <c r="B2236" t="n">
-        <v>84539.42999999999</v>
+        <v>84540.28</v>
       </c>
     </row>
     <row r="2237">
@@ -22892,7 +22892,7 @@
         </is>
       </c>
       <c r="B2246" t="n">
-        <v>84855.09</v>
+        <v>84827.62</v>
       </c>
     </row>
     <row r="2247">
@@ -22902,7 +22902,7 @@
         </is>
       </c>
       <c r="B2247" t="n">
-        <v>84516.36</v>
+        <v>84485.25999999999</v>
       </c>
     </row>
     <row r="2248">
@@ -23002,7 +23002,7 @@
         </is>
       </c>
       <c r="B2257" t="n">
-        <v>84902.25</v>
+        <v>84869.34</v>
       </c>
     </row>
     <row r="2258">
@@ -23052,7 +23052,7 @@
         </is>
       </c>
       <c r="B2262" t="n">
-        <v>85068.67</v>
+        <v>85057.23</v>
       </c>
     </row>
     <row r="2263">
@@ -23082,7 +23082,7 @@
         </is>
       </c>
       <c r="B2265" t="n">
-        <v>84460.98</v>
+        <v>84463.19</v>
       </c>
     </row>
     <row r="2266">
@@ -23112,7 +23112,7 @@
         </is>
       </c>
       <c r="B2268" t="n">
-        <v>85476.3</v>
+        <v>85483.41</v>
       </c>
     </row>
     <row r="2269">
@@ -23242,7 +23242,7 @@
         </is>
       </c>
       <c r="B2281" t="n">
-        <v>84874.98</v>
+        <v>84820.33</v>
       </c>
     </row>
     <row r="2282">
@@ -23272,7 +23272,7 @@
         </is>
       </c>
       <c r="B2284" t="n">
-        <v>84885.86</v>
+        <v>84842.23</v>
       </c>
     </row>
     <row r="2285">
@@ -23312,7 +23312,7 @@
         </is>
       </c>
       <c r="B2288" t="n">
-        <v>85039.09</v>
+        <v>85065.87</v>
       </c>
     </row>
     <row r="2289">
@@ -23352,7 +23352,7 @@
         </is>
       </c>
       <c r="B2292" t="n">
-        <v>84611.21000000001</v>
+        <v>84612.77</v>
       </c>
     </row>
     <row r="2293">
@@ -23632,7 +23632,7 @@
         </is>
       </c>
       <c r="B2320" t="n">
-        <v>85261.36</v>
+        <v>85240.66</v>
       </c>
     </row>
     <row r="2321">
@@ -27702,7 +27702,7 @@
         </is>
       </c>
       <c r="B2727" t="n">
-        <v>85379.88</v>
+        <v>85382.31</v>
       </c>
     </row>
     <row r="2728">
@@ -40202,7 +40202,7 @@
         </is>
       </c>
       <c r="B3977" t="n">
-        <v>96660.8</v>
+        <v>96671.78</v>
       </c>
     </row>
     <row r="3978">
@@ -40682,7 +40682,7 @@
         </is>
       </c>
       <c r="B4025" t="n">
-        <v>96804.67</v>
+        <v>96628.38</v>
       </c>
     </row>
     <row r="4026">
@@ -43612,7 +43612,7 @@
         </is>
       </c>
       <c r="B4318" t="n">
-        <v>95048.16</v>
+        <v>95060.32000000001</v>
       </c>
     </row>
     <row r="4319">
@@ -47792,7 +47792,7 @@
         </is>
       </c>
       <c r="B4736" t="n">
-        <v>103697.75</v>
+        <v>103693.98</v>
       </c>
     </row>
     <row r="4737">
@@ -49882,7 +49882,7 @@
         </is>
       </c>
       <c r="B4945" t="n">
-        <v>103747.55</v>
+        <v>103752.06</v>
       </c>
     </row>
     <row r="4946">
@@ -50842,7 +50842,7 @@
         </is>
       </c>
       <c r="B5041" t="n">
-        <v>103687.08</v>
+        <v>103705.94</v>
       </c>
     </row>
     <row r="5042">
@@ -54342,7 +54342,7 @@
         </is>
       </c>
       <c r="B5391" t="n">
-        <v>103217.06</v>
+        <v>103235.99</v>
       </c>
     </row>
     <row r="5392">
@@ -56242,7 +56242,7 @@
         </is>
       </c>
       <c r="B5581" t="n">
-        <v>104627.81</v>
+        <v>104639.44</v>
       </c>
     </row>
     <row r="5582">
@@ -57702,7 +57702,7 @@
         </is>
       </c>
       <c r="B5727" t="n">
-        <v>104806.92</v>
+        <v>104820.82</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/bitcoin_close_15min.xlsx
+++ b/Uploads/bitcoin_close_15min.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5727"/>
+  <dimension ref="A1:B5728"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57702,7 +57702,17 @@
         </is>
       </c>
       <c r="B5727" t="n">
-        <v>104820.82</v>
+        <v>105001.16</v>
+      </c>
+    </row>
+    <row r="5728">
+      <c r="A5728" t="inlineStr">
+        <is>
+          <t>2025-05-20 15:30</t>
+        </is>
+      </c>
+      <c r="B5728" t="n">
+        <v>105208.41</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/bitcoin_close_15min.xlsx
+++ b/Uploads/bitcoin_close_15min.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5742"/>
+  <dimension ref="A1:B5743"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84177.5</v>
+        <v>84174.42999999999</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>84229.66</v>
+        <v>84231.3</v>
       </c>
     </row>
     <row r="18">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84286.89</v>
+        <v>84274.3</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>84287.46000000001</v>
+        <v>84296.05</v>
       </c>
     </row>
     <row r="30">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>84364.16</v>
+        <v>84359.67</v>
       </c>
     </row>
     <row r="44">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>84110.81</v>
+        <v>84106.12</v>
       </c>
     </row>
     <row r="68">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>84132.23</v>
+        <v>84128.85000000001</v>
       </c>
     </row>
     <row r="70">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>83996.59</v>
+        <v>84001.81</v>
       </c>
     </row>
     <row r="102">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>85014.39</v>
+        <v>85016.38</v>
       </c>
     </row>
     <row r="178">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>86129.77</v>
+        <v>86008.27</v>
       </c>
     </row>
     <row r="198">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>85920.72</v>
+        <v>85956.24000000001</v>
       </c>
     </row>
     <row r="206">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>87684.48</v>
+        <v>87699.48</v>
       </c>
     </row>
     <row r="242">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>87421.7</v>
+        <v>87437.28999999999</v>
       </c>
     </row>
     <row r="249">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>87392.25</v>
+        <v>87398.42999999999</v>
       </c>
     </row>
     <row r="286">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>86519.59</v>
+        <v>86430.03999999999</v>
       </c>
     </row>
     <row r="311">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>86741.47</v>
+        <v>86696.52</v>
       </c>
     </row>
     <row r="314">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>86512.3</v>
+        <v>86524.66</v>
       </c>
     </row>
     <row r="323">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>87660.52</v>
+        <v>87625.77</v>
       </c>
     </row>
     <row r="346">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>88245.42999999999</v>
+        <v>88192.13</v>
       </c>
     </row>
     <row r="359">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>87562.03</v>
+        <v>87600.23</v>
       </c>
     </row>
     <row r="381">
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>87611.24000000001</v>
+        <v>87597.96000000001</v>
       </c>
     </row>
     <row r="388">
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>87686.05</v>
+        <v>87677.73</v>
       </c>
     </row>
     <row r="390">
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="B413" t="n">
-        <v>87915.58</v>
+        <v>87921.60000000001</v>
       </c>
     </row>
     <row r="414">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>87957.48</v>
+        <v>87992.78</v>
       </c>
     </row>
     <row r="422">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>87942</v>
+        <v>87939.42999999999</v>
       </c>
     </row>
     <row r="423">
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>87988.7</v>
+        <v>87997.11</v>
       </c>
     </row>
     <row r="424">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>88184.14</v>
+        <v>88143.77</v>
       </c>
     </row>
     <row r="429">
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="B445" t="n">
-        <v>86772.38</v>
+        <v>86828.59</v>
       </c>
     </row>
     <row r="446">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>86803.12</v>
+        <v>86731.3</v>
       </c>
     </row>
     <row r="457">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>87131.3</v>
+        <v>87163.55</v>
       </c>
     </row>
     <row r="485">
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="B503" t="n">
-        <v>87421.8</v>
+        <v>87433.00999999999</v>
       </c>
     </row>
     <row r="504">
@@ -5582,7 +5582,7 @@
         </is>
       </c>
       <c r="B515" t="n">
-        <v>87395.34</v>
+        <v>87408.37</v>
       </c>
     </row>
     <row r="516">
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="B517" t="n">
-        <v>87443.08</v>
+        <v>87444.66</v>
       </c>
     </row>
     <row r="518">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="B538" t="n">
-        <v>86258.10000000001</v>
+        <v>86413.49000000001</v>
       </c>
     </row>
     <row r="539">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="B564" t="n">
-        <v>87292.57000000001</v>
+        <v>87299.33</v>
       </c>
     </row>
     <row r="565">
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="B595" t="n">
-        <v>86747.02</v>
+        <v>86730.03</v>
       </c>
     </row>
     <row r="596">
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="B613" t="n">
-        <v>85208.87</v>
+        <v>85212.05</v>
       </c>
     </row>
     <row r="614">
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="B632" t="n">
-        <v>85438.22</v>
+        <v>85349.84</v>
       </c>
     </row>
     <row r="633">
@@ -7422,7 +7422,7 @@
         </is>
       </c>
       <c r="B699" t="n">
-        <v>83688.98</v>
+        <v>83668.3</v>
       </c>
     </row>
     <row r="700">
@@ -7742,7 +7742,7 @@
         </is>
       </c>
       <c r="B731" t="n">
-        <v>82508.16</v>
+        <v>82479.49000000001</v>
       </c>
     </row>
     <row r="732">
@@ -8062,7 +8062,7 @@
         </is>
       </c>
       <c r="B763" t="n">
-        <v>82394.21000000001</v>
+        <v>82395.05</v>
       </c>
     </row>
     <row r="764">
@@ -8102,7 +8102,7 @@
         </is>
       </c>
       <c r="B767" t="n">
-        <v>82455.46000000001</v>
+        <v>82441.77</v>
       </c>
     </row>
     <row r="768">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="B768" t="n">
-        <v>82444.55</v>
+        <v>82469.07000000001</v>
       </c>
     </row>
     <row r="769">
@@ -8342,7 +8342,7 @@
         </is>
       </c>
       <c r="B791" t="n">
-        <v>83161.28</v>
+        <v>83164.94</v>
       </c>
     </row>
     <row r="792">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="B816" t="n">
-        <v>83017.53999999999</v>
+        <v>83027.62</v>
       </c>
     </row>
     <row r="817">
@@ -8922,7 +8922,7 @@
         </is>
       </c>
       <c r="B849" t="n">
-        <v>82551.71000000001</v>
+        <v>82528.14</v>
       </c>
     </row>
     <row r="850">
@@ -9302,7 +9302,7 @@
         </is>
       </c>
       <c r="B887" t="n">
-        <v>82234.74000000001</v>
+        <v>82247.3</v>
       </c>
     </row>
     <row r="888">
@@ -9412,7 +9412,7 @@
         </is>
       </c>
       <c r="B898" t="n">
-        <v>82165.45</v>
+        <v>82185.55</v>
       </c>
     </row>
     <row r="899">
@@ -9532,7 +9532,7 @@
         </is>
       </c>
       <c r="B910" t="n">
-        <v>82090.91</v>
+        <v>82116.77</v>
       </c>
     </row>
     <row r="911">
@@ -9632,7 +9632,7 @@
         </is>
       </c>
       <c r="B920" t="n">
-        <v>82088.67999999999</v>
+        <v>82018.11</v>
       </c>
     </row>
     <row r="921">
@@ -9702,7 +9702,7 @@
         </is>
       </c>
       <c r="B927" t="n">
-        <v>83729.82000000001</v>
+        <v>83719.77</v>
       </c>
     </row>
     <row r="928">
@@ -10062,7 +10062,7 @@
         </is>
       </c>
       <c r="B963" t="n">
-        <v>82729.67</v>
+        <v>82683.5</v>
       </c>
     </row>
     <row r="964">
@@ -11072,7 +11072,7 @@
         </is>
       </c>
       <c r="B1064" t="n">
-        <v>85196.09</v>
+        <v>85181.22</v>
       </c>
     </row>
     <row r="1065">
@@ -11082,7 +11082,7 @@
         </is>
       </c>
       <c r="B1065" t="n">
-        <v>85109.87</v>
+        <v>85159.95</v>
       </c>
     </row>
     <row r="1066">
@@ -11322,7 +11322,7 @@
         </is>
       </c>
       <c r="B1089" t="n">
-        <v>84376.06</v>
+        <v>84431.3</v>
       </c>
     </row>
     <row r="1090">
@@ -11482,7 +11482,7 @@
         </is>
       </c>
       <c r="B1105" t="n">
-        <v>84554.09</v>
+        <v>84545.71000000001</v>
       </c>
     </row>
     <row r="1106">
@@ -11502,7 +11502,7 @@
         </is>
       </c>
       <c r="B1107" t="n">
-        <v>84696.41</v>
+        <v>84659.00999999999</v>
       </c>
     </row>
     <row r="1108">
@@ -11832,7 +11832,7 @@
         </is>
       </c>
       <c r="B1140" t="n">
-        <v>85464.2</v>
+        <v>85314.48</v>
       </c>
     </row>
     <row r="1141">
@@ -11862,7 +11862,7 @@
         </is>
       </c>
       <c r="B1143" t="n">
-        <v>84703.53</v>
+        <v>84669.32000000001</v>
       </c>
     </row>
     <row r="1144">
@@ -11932,7 +11932,7 @@
         </is>
       </c>
       <c r="B1150" t="n">
-        <v>82510.16</v>
+        <v>82601.56</v>
       </c>
     </row>
     <row r="1151">
@@ -12012,7 +12012,7 @@
         </is>
       </c>
       <c r="B1158" t="n">
-        <v>83300.98</v>
+        <v>83321.75999999999</v>
       </c>
     </row>
     <row r="1159">
@@ -12032,7 +12032,7 @@
         </is>
       </c>
       <c r="B1160" t="n">
-        <v>83629.95</v>
+        <v>83667.98</v>
       </c>
     </row>
     <row r="1161">
@@ -12082,7 +12082,7 @@
         </is>
       </c>
       <c r="B1165" t="n">
-        <v>83737.62</v>
+        <v>83729.32000000001</v>
       </c>
     </row>
     <row r="1166">
@@ -12102,7 +12102,7 @@
         </is>
       </c>
       <c r="B1167" t="n">
-        <v>83581.59</v>
+        <v>83599.56</v>
       </c>
     </row>
     <row r="1168">
@@ -12202,7 +12202,7 @@
         </is>
       </c>
       <c r="B1177" t="n">
-        <v>83386.55</v>
+        <v>83401.62</v>
       </c>
     </row>
     <row r="1178">
@@ -12242,7 +12242,7 @@
         </is>
       </c>
       <c r="B1181" t="n">
-        <v>83038.41</v>
+        <v>83014.34</v>
       </c>
     </row>
     <row r="1182">
@@ -12352,7 +12352,7 @@
         </is>
       </c>
       <c r="B1192" t="n">
-        <v>83716.24000000001</v>
+        <v>83726.82000000001</v>
       </c>
     </row>
     <row r="1193">
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="B1205" t="n">
-        <v>81986.05</v>
+        <v>82035.78</v>
       </c>
     </row>
     <row r="1206">
@@ -12512,7 +12512,7 @@
         </is>
       </c>
       <c r="B1208" t="n">
-        <v>82501.62</v>
+        <v>82296.19</v>
       </c>
     </row>
     <row r="1209">
@@ -12672,7 +12672,7 @@
         </is>
       </c>
       <c r="B1224" t="n">
-        <v>82020.53999999999</v>
+        <v>82067.69</v>
       </c>
     </row>
     <row r="1225">
@@ -12882,7 +12882,7 @@
         </is>
       </c>
       <c r="B1245" t="n">
-        <v>82658.25</v>
+        <v>82674.91</v>
       </c>
     </row>
     <row r="1246">
@@ -12952,7 +12952,7 @@
         </is>
       </c>
       <c r="B1252" t="n">
-        <v>83293.25999999999</v>
+        <v>83254.44</v>
       </c>
     </row>
     <row r="1253">
@@ -12982,7 +12982,7 @@
         </is>
       </c>
       <c r="B1255" t="n">
-        <v>83069.75</v>
+        <v>83057.17</v>
       </c>
     </row>
     <row r="1256">
@@ -13002,7 +13002,7 @@
         </is>
       </c>
       <c r="B1257" t="n">
-        <v>82575.49000000001</v>
+        <v>82590.45</v>
       </c>
     </row>
     <row r="1258">
@@ -13082,7 +13082,7 @@
         </is>
       </c>
       <c r="B1265" t="n">
-        <v>82766.91</v>
+        <v>82782.63</v>
       </c>
     </row>
     <row r="1266">
@@ -13092,7 +13092,7 @@
         </is>
       </c>
       <c r="B1266" t="n">
-        <v>82683.35000000001</v>
+        <v>82671.07000000001</v>
       </c>
     </row>
     <row r="1267">
@@ -13162,7 +13162,7 @@
         </is>
       </c>
       <c r="B1273" t="n">
-        <v>83166.5</v>
+        <v>83173.12</v>
       </c>
     </row>
     <row r="1274">
@@ -13232,7 +13232,7 @@
         </is>
       </c>
       <c r="B1280" t="n">
-        <v>83676.62</v>
+        <v>83665.83</v>
       </c>
     </row>
     <row r="1281">
@@ -13292,7 +13292,7 @@
         </is>
       </c>
       <c r="B1286" t="n">
-        <v>84319.98</v>
+        <v>84332.86</v>
       </c>
     </row>
     <row r="1287">
@@ -13352,7 +13352,7 @@
         </is>
       </c>
       <c r="B1292" t="n">
-        <v>83010.2</v>
+        <v>82886.05</v>
       </c>
     </row>
     <row r="1293">
@@ -13412,7 +13412,7 @@
         </is>
       </c>
       <c r="B1298" t="n">
-        <v>82294.46000000001</v>
+        <v>82350.82000000001</v>
       </c>
     </row>
     <row r="1299">
@@ -13432,7 +13432,7 @@
         </is>
       </c>
       <c r="B1300" t="n">
-        <v>82660.05</v>
+        <v>82645.59</v>
       </c>
     </row>
     <row r="1301">
@@ -13442,7 +13442,7 @@
         </is>
       </c>
       <c r="B1301" t="n">
-        <v>82819.55</v>
+        <v>82783.46000000001</v>
       </c>
     </row>
     <row r="1302">
@@ -13522,7 +13522,7 @@
         </is>
       </c>
       <c r="B1309" t="n">
-        <v>82576.74000000001</v>
+        <v>82693.91</v>
       </c>
     </row>
     <row r="1310">
@@ -13542,7 +13542,7 @@
         </is>
       </c>
       <c r="B1311" t="n">
-        <v>83222.78999999999</v>
+        <v>83237.77</v>
       </c>
     </row>
     <row r="1312">
@@ -13772,7 +13772,7 @@
         </is>
       </c>
       <c r="B1334" t="n">
-        <v>84197.64</v>
+        <v>84163.99000000001</v>
       </c>
     </row>
     <row r="1335">
@@ -13802,7 +13802,7 @@
         </is>
       </c>
       <c r="B1337" t="n">
-        <v>84215.49000000001</v>
+        <v>84184.05</v>
       </c>
     </row>
     <row r="1338">
@@ -13842,7 +13842,7 @@
         </is>
       </c>
       <c r="B1341" t="n">
-        <v>84027.66</v>
+        <v>84029.25</v>
       </c>
     </row>
     <row r="1342">
@@ -13892,7 +13892,7 @@
         </is>
       </c>
       <c r="B1346" t="n">
-        <v>83674.03999999999</v>
+        <v>83695.5</v>
       </c>
     </row>
     <row r="1347">
@@ -13962,7 +13962,7 @@
         </is>
       </c>
       <c r="B1353" t="n">
-        <v>83954.17999999999</v>
+        <v>83950.75</v>
       </c>
     </row>
     <row r="1354">
@@ -14002,7 +14002,7 @@
         </is>
       </c>
       <c r="B1357" t="n">
-        <v>83923.27</v>
+        <v>83937.61</v>
       </c>
     </row>
     <row r="1358">
@@ -14102,7 +14102,7 @@
         </is>
       </c>
       <c r="B1367" t="n">
-        <v>83808.34</v>
+        <v>83813.21000000001</v>
       </c>
     </row>
     <row r="1368">
@@ -14162,7 +14162,7 @@
         </is>
       </c>
       <c r="B1373" t="n">
-        <v>83412.44</v>
+        <v>83446.75999999999</v>
       </c>
     </row>
     <row r="1374">
@@ -14172,7 +14172,7 @@
         </is>
       </c>
       <c r="B1374" t="n">
-        <v>83412.63</v>
+        <v>83385.02</v>
       </c>
     </row>
     <row r="1375">
@@ -14222,7 +14222,7 @@
         </is>
       </c>
       <c r="B1379" t="n">
-        <v>83370.27</v>
+        <v>83369.03999999999</v>
       </c>
     </row>
     <row r="1380">
@@ -14262,7 +14262,7 @@
         </is>
       </c>
       <c r="B1383" t="n">
-        <v>83688.32000000001</v>
+        <v>83675.25</v>
       </c>
     </row>
     <row r="1384">
@@ -14272,7 +14272,7 @@
         </is>
       </c>
       <c r="B1384" t="n">
-        <v>83677.2</v>
+        <v>83697.89</v>
       </c>
     </row>
     <row r="1385">
@@ -14412,7 +14412,7 @@
         </is>
       </c>
       <c r="B1398" t="n">
-        <v>83150.89999999999</v>
+        <v>83153.98</v>
       </c>
     </row>
     <row r="1399">
@@ -14462,7 +14462,7 @@
         </is>
       </c>
       <c r="B1403" t="n">
-        <v>82852.5</v>
+        <v>82853.05</v>
       </c>
     </row>
     <row r="1404">
@@ -14522,7 +14522,7 @@
         </is>
       </c>
       <c r="B1409" t="n">
-        <v>82565.72</v>
+        <v>82566.14</v>
       </c>
     </row>
     <row r="1410">
@@ -14682,7 +14682,7 @@
         </is>
       </c>
       <c r="B1425" t="n">
-        <v>82776.66</v>
+        <v>82787</v>
       </c>
     </row>
     <row r="1426">
@@ -14792,7 +14792,7 @@
         </is>
       </c>
       <c r="B1436" t="n">
-        <v>83017.66</v>
+        <v>83039.53999999999</v>
       </c>
     </row>
     <row r="1437">
@@ -14802,7 +14802,7 @@
         </is>
       </c>
       <c r="B1437" t="n">
-        <v>83135.7</v>
+        <v>83149.06</v>
       </c>
     </row>
     <row r="1438">
@@ -14862,7 +14862,7 @@
         </is>
       </c>
       <c r="B1443" t="n">
-        <v>83511.62</v>
+        <v>83506.89999999999</v>
       </c>
     </row>
     <row r="1444">
@@ -14902,7 +14902,7 @@
         </is>
       </c>
       <c r="B1447" t="n">
-        <v>83600.39999999999</v>
+        <v>83565.52</v>
       </c>
     </row>
     <row r="1448">
@@ -14922,7 +14922,7 @@
         </is>
       </c>
       <c r="B1449" t="n">
-        <v>83415.25</v>
+        <v>83411.13</v>
       </c>
     </row>
     <row r="1450">
@@ -14972,7 +14972,7 @@
         </is>
       </c>
       <c r="B1454" t="n">
-        <v>83314.67</v>
+        <v>83320.47</v>
       </c>
     </row>
     <row r="1455">
@@ -15122,7 +15122,7 @@
         </is>
       </c>
       <c r="B1469" t="n">
-        <v>83155.45</v>
+        <v>83125.67</v>
       </c>
     </row>
     <row r="1470">
@@ -15132,7 +15132,7 @@
         </is>
       </c>
       <c r="B1470" t="n">
-        <v>83137.35000000001</v>
+        <v>83142.38</v>
       </c>
     </row>
     <row r="1471">
@@ -15152,7 +15152,7 @@
         </is>
       </c>
       <c r="B1472" t="n">
-        <v>83058.14</v>
+        <v>83045.7</v>
       </c>
     </row>
     <row r="1473">
@@ -15162,7 +15162,7 @@
         </is>
       </c>
       <c r="B1473" t="n">
-        <v>83011.2</v>
+        <v>82996.96000000001</v>
       </c>
     </row>
     <row r="1474">
@@ -15262,7 +15262,7 @@
         </is>
       </c>
       <c r="B1483" t="n">
-        <v>82781.50999999999</v>
+        <v>82772.24000000001</v>
       </c>
     </row>
     <row r="1484">
@@ -15442,7 +15442,7 @@
         </is>
       </c>
       <c r="B1501" t="n">
-        <v>82512.78999999999</v>
+        <v>82555.71000000001</v>
       </c>
     </row>
     <row r="1502">
@@ -15572,7 +15572,7 @@
         </is>
       </c>
       <c r="B1514" t="n">
-        <v>80348.36</v>
+        <v>80379.10000000001</v>
       </c>
     </row>
     <row r="1515">
@@ -15602,7 +15602,7 @@
         </is>
       </c>
       <c r="B1517" t="n">
-        <v>78977.82000000001</v>
+        <v>78934.62</v>
       </c>
     </row>
     <row r="1518">
@@ -15612,7 +15612,7 @@
         </is>
       </c>
       <c r="B1518" t="n">
-        <v>79131.22</v>
+        <v>79206.06</v>
       </c>
     </row>
     <row r="1519">
@@ -15672,7 +15672,7 @@
         </is>
       </c>
       <c r="B1524" t="n">
-        <v>79435.3</v>
+        <v>79255.10000000001</v>
       </c>
     </row>
     <row r="1525">
@@ -15682,7 +15682,7 @@
         </is>
       </c>
       <c r="B1525" t="n">
-        <v>78810</v>
+        <v>78802.14999999999</v>
       </c>
     </row>
     <row r="1526">
@@ -15742,7 +15742,7 @@
         </is>
       </c>
       <c r="B1531" t="n">
-        <v>78843.72</v>
+        <v>78955.62</v>
       </c>
     </row>
     <row r="1532">
@@ -15772,7 +15772,7 @@
         </is>
       </c>
       <c r="B1534" t="n">
-        <v>77488.77</v>
+        <v>77530.27</v>
       </c>
     </row>
     <row r="1535">
@@ -15782,7 +15782,7 @@
         </is>
       </c>
       <c r="B1535" t="n">
-        <v>77450.86</v>
+        <v>77483.55</v>
       </c>
     </row>
     <row r="1536">
@@ -15852,7 +15852,7 @@
         </is>
       </c>
       <c r="B1542" t="n">
-        <v>78678.46000000001</v>
+        <v>78717.69</v>
       </c>
     </row>
     <row r="1543">
@@ -15882,7 +15882,7 @@
         </is>
       </c>
       <c r="B1545" t="n">
-        <v>79068.2</v>
+        <v>79159.7</v>
       </c>
     </row>
     <row r="1546">
@@ -15922,7 +15922,7 @@
         </is>
       </c>
       <c r="B1549" t="n">
-        <v>78382.2</v>
+        <v>78381.87</v>
       </c>
     </row>
     <row r="1550">
@@ -15962,7 +15962,7 @@
         </is>
       </c>
       <c r="B1553" t="n">
-        <v>77577.7</v>
+        <v>77584.98</v>
       </c>
     </row>
     <row r="1554">
@@ -16092,7 +16092,7 @@
         </is>
       </c>
       <c r="B1566" t="n">
-        <v>75018.22</v>
+        <v>75037.25999999999</v>
       </c>
     </row>
     <row r="1567">
@@ -16222,7 +16222,7 @@
         </is>
       </c>
       <c r="B1579" t="n">
-        <v>77082.8</v>
+        <v>77073.13</v>
       </c>
     </row>
     <row r="1580">
@@ -16402,7 +16402,7 @@
         </is>
       </c>
       <c r="B1597" t="n">
-        <v>78970.84</v>
+        <v>78982.77</v>
       </c>
     </row>
     <row r="1598">
@@ -16412,7 +16412,7 @@
         </is>
       </c>
       <c r="B1598" t="n">
-        <v>78499.50999999999</v>
+        <v>78721.23</v>
       </c>
     </row>
     <row r="1599">
@@ -16442,7 +16442,7 @@
         </is>
       </c>
       <c r="B1601" t="n">
-        <v>78683.60000000001</v>
+        <v>78540.28</v>
       </c>
     </row>
     <row r="1602">
@@ -16472,7 +16472,7 @@
         </is>
       </c>
       <c r="B1604" t="n">
-        <v>77914.44</v>
+        <v>77844.7</v>
       </c>
     </row>
     <row r="1605">
@@ -16552,7 +16552,7 @@
         </is>
       </c>
       <c r="B1612" t="n">
-        <v>78933.71000000001</v>
+        <v>78891.7</v>
       </c>
     </row>
     <row r="1613">
@@ -16572,7 +16572,7 @@
         </is>
       </c>
       <c r="B1614" t="n">
-        <v>78353.16</v>
+        <v>78383.07000000001</v>
       </c>
     </row>
     <row r="1615">
@@ -16592,7 +16592,7 @@
         </is>
       </c>
       <c r="B1616" t="n">
-        <v>78228.16</v>
+        <v>78172.73</v>
       </c>
     </row>
     <row r="1617">
@@ -16642,7 +16642,7 @@
         </is>
       </c>
       <c r="B1621" t="n">
-        <v>78813.86</v>
+        <v>78801.33</v>
       </c>
     </row>
     <row r="1622">
@@ -16802,7 +16802,7 @@
         </is>
       </c>
       <c r="B1637" t="n">
-        <v>79061.53</v>
+        <v>78990.57000000001</v>
       </c>
     </row>
     <row r="1638">
@@ -16882,7 +16882,7 @@
         </is>
       </c>
       <c r="B1645" t="n">
-        <v>79891.25</v>
+        <v>79911.47</v>
       </c>
     </row>
     <row r="1646">
@@ -16982,7 +16982,7 @@
         </is>
       </c>
       <c r="B1655" t="n">
-        <v>79611.97</v>
+        <v>79598.23</v>
       </c>
     </row>
     <row r="1656">
@@ -17002,7 +17002,7 @@
         </is>
       </c>
       <c r="B1657" t="n">
-        <v>79817.75999999999</v>
+        <v>79820.36</v>
       </c>
     </row>
     <row r="1658">
@@ -17032,7 +17032,7 @@
         </is>
       </c>
       <c r="B1660" t="n">
-        <v>79485.91</v>
+        <v>79513.78999999999</v>
       </c>
     </row>
     <row r="1661">
@@ -17102,7 +17102,7 @@
         </is>
       </c>
       <c r="B1667" t="n">
-        <v>78971.87</v>
+        <v>78970.7</v>
       </c>
     </row>
     <row r="1668">
@@ -17202,7 +17202,7 @@
         </is>
       </c>
       <c r="B1677" t="n">
-        <v>78961.67999999999</v>
+        <v>78966.89</v>
       </c>
     </row>
     <row r="1678">
@@ -17242,7 +17242,7 @@
         </is>
       </c>
       <c r="B1681" t="n">
-        <v>79869.57000000001</v>
+        <v>79980.86</v>
       </c>
     </row>
     <row r="1682">
@@ -17252,7 +17252,7 @@
         </is>
       </c>
       <c r="B1682" t="n">
-        <v>80051.63</v>
+        <v>80026.05</v>
       </c>
     </row>
     <row r="1683">
@@ -17672,7 +17672,7 @@
         </is>
       </c>
       <c r="B1724" t="n">
-        <v>76337.92</v>
+        <v>76378.95</v>
       </c>
     </row>
     <row r="1725">
@@ -17682,7 +17682,7 @@
         </is>
       </c>
       <c r="B1725" t="n">
-        <v>76719.98</v>
+        <v>76697.05</v>
       </c>
     </row>
     <row r="1726">
@@ -17872,7 +17872,7 @@
         </is>
       </c>
       <c r="B1744" t="n">
-        <v>75210.91</v>
+        <v>75259.03999999999</v>
       </c>
     </row>
     <row r="1745">
@@ -18052,7 +18052,7 @@
         </is>
       </c>
       <c r="B1762" t="n">
-        <v>77399.89999999999</v>
+        <v>77366.64999999999</v>
       </c>
     </row>
     <row r="1763">
@@ -18092,7 +18092,7 @@
         </is>
       </c>
       <c r="B1766" t="n">
-        <v>77322.05</v>
+        <v>77298.36</v>
       </c>
     </row>
     <row r="1767">
@@ -18262,7 +18262,7 @@
         </is>
       </c>
       <c r="B1783" t="n">
-        <v>76776.94</v>
+        <v>76758.78999999999</v>
       </c>
     </row>
     <row r="1784">
@@ -18302,7 +18302,7 @@
         </is>
       </c>
       <c r="B1787" t="n">
-        <v>77421.38</v>
+        <v>77432.52</v>
       </c>
     </row>
     <row r="1788">
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="B1792" t="n">
-        <v>77022.62</v>
+        <v>77051.38</v>
       </c>
     </row>
     <row r="1793">
@@ -18432,7 +18432,7 @@
         </is>
       </c>
       <c r="B1800" t="n">
-        <v>81330.07000000001</v>
+        <v>81319.71000000001</v>
       </c>
     </row>
     <row r="1801">
@@ -18492,7 +18492,7 @@
         </is>
       </c>
       <c r="B1806" t="n">
-        <v>82052.72</v>
+        <v>82096.85000000001</v>
       </c>
     </row>
     <row r="1807">
@@ -18592,7 +18592,7 @@
         </is>
       </c>
       <c r="B1816" t="n">
-        <v>83004.05</v>
+        <v>82986.66</v>
       </c>
     </row>
     <row r="1817">
@@ -18722,7 +18722,7 @@
         </is>
       </c>
       <c r="B1829" t="n">
-        <v>82276.57000000001</v>
+        <v>82318.63</v>
       </c>
     </row>
     <row r="1830">
@@ -19042,7 +19042,7 @@
         </is>
       </c>
       <c r="B1861" t="n">
-        <v>81478.48</v>
+        <v>81499.44</v>
       </c>
     </row>
     <row r="1862">
@@ -19092,7 +19092,7 @@
         </is>
       </c>
       <c r="B1866" t="n">
-        <v>82086.09</v>
+        <v>82030.87</v>
       </c>
     </row>
     <row r="1867">
@@ -19232,7 +19232,7 @@
         </is>
       </c>
       <c r="B1880" t="n">
-        <v>80881.00999999999</v>
+        <v>80770.36</v>
       </c>
     </row>
     <row r="1881">
@@ -19312,7 +19312,7 @@
         </is>
       </c>
       <c r="B1888" t="n">
-        <v>79405.77</v>
+        <v>79258.64999999999</v>
       </c>
     </row>
     <row r="1889">
@@ -19422,7 +19422,7 @@
         </is>
       </c>
       <c r="B1899" t="n">
-        <v>79704.34</v>
+        <v>79691.67</v>
       </c>
     </row>
     <row r="1900">
@@ -19492,7 +19492,7 @@
         </is>
       </c>
       <c r="B1906" t="n">
-        <v>79883.52</v>
+        <v>79783.08</v>
       </c>
     </row>
     <row r="1907">
@@ -19562,7 +19562,7 @@
         </is>
       </c>
       <c r="B1913" t="n">
-        <v>79675.05</v>
+        <v>79672.05</v>
       </c>
     </row>
     <row r="1914">
@@ -19992,7 +19992,7 @@
         </is>
       </c>
       <c r="B1956" t="n">
-        <v>81613.45</v>
+        <v>81533.12</v>
       </c>
     </row>
     <row r="1957">
@@ -20132,7 +20132,7 @@
         </is>
       </c>
       <c r="B1970" t="n">
-        <v>81876.12</v>
+        <v>81880.44</v>
       </c>
     </row>
     <row r="1971">
@@ -20162,7 +20162,7 @@
         </is>
       </c>
       <c r="B1973" t="n">
-        <v>82000.7</v>
+        <v>82004.32000000001</v>
       </c>
     </row>
     <row r="1974">
@@ -20382,7 +20382,7 @@
         </is>
       </c>
       <c r="B1995" t="n">
-        <v>83862.38</v>
+        <v>83915.55</v>
       </c>
     </row>
     <row r="1996">
@@ -20392,7 +20392,7 @@
         </is>
       </c>
       <c r="B1996" t="n">
-        <v>83817.12</v>
+        <v>83805.66</v>
       </c>
     </row>
     <row r="1997">
@@ -20432,7 +20432,7 @@
         </is>
       </c>
       <c r="B2000" t="n">
-        <v>83793.24000000001</v>
+        <v>83800.81</v>
       </c>
     </row>
     <row r="2001">
@@ -20532,7 +20532,7 @@
         </is>
       </c>
       <c r="B2010" t="n">
-        <v>83556.97</v>
+        <v>83546.27</v>
       </c>
     </row>
     <row r="2011">
@@ -20742,7 +20742,7 @@
         </is>
       </c>
       <c r="B2031" t="n">
-        <v>83003.74000000001</v>
+        <v>82991.3</v>
       </c>
     </row>
     <row r="2032">
@@ -20812,7 +20812,7 @@
         </is>
       </c>
       <c r="B2038" t="n">
-        <v>83268.11</v>
+        <v>83267.48</v>
       </c>
     </row>
     <row r="2039">
@@ -20892,7 +20892,7 @@
         </is>
       </c>
       <c r="B2046" t="n">
-        <v>83499.09</v>
+        <v>83483.75999999999</v>
       </c>
     </row>
     <row r="2047">
@@ -20982,7 +20982,7 @@
         </is>
       </c>
       <c r="B2055" t="n">
-        <v>83438.34</v>
+        <v>83438.7</v>
       </c>
     </row>
     <row r="2056">
@@ -21012,7 +21012,7 @@
         </is>
       </c>
       <c r="B2058" t="n">
-        <v>83460.92999999999</v>
+        <v>83457.2</v>
       </c>
     </row>
     <row r="2059">
@@ -21182,7 +21182,7 @@
         </is>
       </c>
       <c r="B2075" t="n">
-        <v>84799.16</v>
+        <v>84798.24000000001</v>
       </c>
     </row>
     <row r="2076">
@@ -21362,7 +21362,7 @@
         </is>
       </c>
       <c r="B2093" t="n">
-        <v>85150.95</v>
+        <v>85144.72</v>
       </c>
     </row>
     <row r="2094">
@@ -21372,7 +21372,7 @@
         </is>
       </c>
       <c r="B2094" t="n">
-        <v>85047.85000000001</v>
+        <v>85073.38</v>
       </c>
     </row>
     <row r="2095">
@@ -21432,7 +21432,7 @@
         </is>
       </c>
       <c r="B2100" t="n">
-        <v>85787.16</v>
+        <v>85852.02</v>
       </c>
     </row>
     <row r="2101">
@@ -21542,7 +21542,7 @@
         </is>
       </c>
       <c r="B2111" t="n">
-        <v>85189.57000000001</v>
+        <v>85200.46000000001</v>
       </c>
     </row>
     <row r="2112">
@@ -21732,7 +21732,7 @@
         </is>
       </c>
       <c r="B2130" t="n">
-        <v>85077.24000000001</v>
+        <v>85111</v>
       </c>
     </row>
     <row r="2131">
@@ -21832,7 +21832,7 @@
         </is>
       </c>
       <c r="B2140" t="n">
-        <v>84720.48</v>
+        <v>84725.5</v>
       </c>
     </row>
     <row r="2141">
@@ -22002,7 +22002,7 @@
         </is>
       </c>
       <c r="B2157" t="n">
-        <v>84670.08</v>
+        <v>84667.48</v>
       </c>
     </row>
     <row r="2158">
@@ -22062,7 +22062,7 @@
         </is>
       </c>
       <c r="B2163" t="n">
-        <v>84287.56</v>
+        <v>84262.72</v>
       </c>
     </row>
     <row r="2164">
@@ -22172,7 +22172,7 @@
         </is>
       </c>
       <c r="B2174" t="n">
-        <v>83773.09</v>
+        <v>83795.31</v>
       </c>
     </row>
     <row r="2175">
@@ -22312,7 +22312,7 @@
         </is>
       </c>
       <c r="B2188" t="n">
-        <v>84802.48</v>
+        <v>84813.3</v>
       </c>
     </row>
     <row r="2189">
@@ -22492,7 +22492,7 @@
         </is>
       </c>
       <c r="B2206" t="n">
-        <v>83516.66</v>
+        <v>83543.34</v>
       </c>
     </row>
     <row r="2207">
@@ -22752,7 +22752,7 @@
         </is>
       </c>
       <c r="B2232" t="n">
-        <v>84361.02</v>
+        <v>84377.89</v>
       </c>
     </row>
     <row r="2233">
@@ -22792,7 +22792,7 @@
         </is>
       </c>
       <c r="B2236" t="n">
-        <v>84540.28</v>
+        <v>84539.42999999999</v>
       </c>
     </row>
     <row r="2237">
@@ -22892,7 +22892,7 @@
         </is>
       </c>
       <c r="B2246" t="n">
-        <v>84827.62</v>
+        <v>84855.09</v>
       </c>
     </row>
     <row r="2247">
@@ -22902,7 +22902,7 @@
         </is>
       </c>
       <c r="B2247" t="n">
-        <v>84485.25999999999</v>
+        <v>84516.36</v>
       </c>
     </row>
     <row r="2248">
@@ -23002,7 +23002,7 @@
         </is>
       </c>
       <c r="B2257" t="n">
-        <v>84869.34</v>
+        <v>84902.25</v>
       </c>
     </row>
     <row r="2258">
@@ -23052,7 +23052,7 @@
         </is>
       </c>
       <c r="B2262" t="n">
-        <v>85057.23</v>
+        <v>85068.67</v>
       </c>
     </row>
     <row r="2263">
@@ -23082,7 +23082,7 @@
         </is>
       </c>
       <c r="B2265" t="n">
-        <v>84463.19</v>
+        <v>84460.98</v>
       </c>
     </row>
     <row r="2266">
@@ -23112,7 +23112,7 @@
         </is>
       </c>
       <c r="B2268" t="n">
-        <v>85483.41</v>
+        <v>85476.3</v>
       </c>
     </row>
     <row r="2269">
@@ -23242,7 +23242,7 @@
         </is>
       </c>
       <c r="B2281" t="n">
-        <v>84820.33</v>
+        <v>84874.98</v>
       </c>
     </row>
     <row r="2282">
@@ -23272,7 +23272,7 @@
         </is>
       </c>
       <c r="B2284" t="n">
-        <v>84842.23</v>
+        <v>84885.86</v>
       </c>
     </row>
     <row r="2285">
@@ -23312,7 +23312,7 @@
         </is>
       </c>
       <c r="B2288" t="n">
-        <v>85065.87</v>
+        <v>85039.09</v>
       </c>
     </row>
     <row r="2289">
@@ -23352,7 +23352,7 @@
         </is>
       </c>
       <c r="B2292" t="n">
-        <v>84612.77</v>
+        <v>84611.21000000001</v>
       </c>
     </row>
     <row r="2293">
@@ -23632,7 +23632,7 @@
         </is>
       </c>
       <c r="B2320" t="n">
-        <v>85240.66</v>
+        <v>85261.36</v>
       </c>
     </row>
     <row r="2321">
@@ -27702,7 +27702,7 @@
         </is>
       </c>
       <c r="B2727" t="n">
-        <v>85382.31</v>
+        <v>85379.88</v>
       </c>
     </row>
     <row r="2728">
@@ -40202,7 +40202,7 @@
         </is>
       </c>
       <c r="B3977" t="n">
-        <v>96671.78</v>
+        <v>96660.8</v>
       </c>
     </row>
     <row r="3978">
@@ -40682,7 +40682,7 @@
         </is>
       </c>
       <c r="B4025" t="n">
-        <v>96628.38</v>
+        <v>96804.67</v>
       </c>
     </row>
     <row r="4026">
@@ -43612,7 +43612,7 @@
         </is>
       </c>
       <c r="B4318" t="n">
-        <v>95060.32000000001</v>
+        <v>95048.16</v>
       </c>
     </row>
     <row r="4319">
@@ -47792,7 +47792,7 @@
         </is>
       </c>
       <c r="B4736" t="n">
-        <v>103693.98</v>
+        <v>103697.75</v>
       </c>
     </row>
     <row r="4737">
@@ -49882,7 +49882,7 @@
         </is>
       </c>
       <c r="B4945" t="n">
-        <v>103752.06</v>
+        <v>103747.55</v>
       </c>
     </row>
     <row r="4946">
@@ -50842,7 +50842,7 @@
         </is>
       </c>
       <c r="B5041" t="n">
-        <v>103705.94</v>
+        <v>103687.08</v>
       </c>
     </row>
     <row r="5042">
@@ -54342,7 +54342,7 @@
         </is>
       </c>
       <c r="B5391" t="n">
-        <v>103235.99</v>
+        <v>103217.06</v>
       </c>
     </row>
     <row r="5392">
@@ -56242,7 +56242,7 @@
         </is>
       </c>
       <c r="B5581" t="n">
-        <v>104639.44</v>
+        <v>104627.81</v>
       </c>
     </row>
     <row r="5582">
@@ -57842,7 +57842,7 @@
         </is>
       </c>
       <c r="B5741" t="n">
-        <v>105362.58</v>
+        <v>105297.04</v>
       </c>
     </row>
     <row r="5742">
@@ -57852,7 +57852,17 @@
         </is>
       </c>
       <c r="B5742" t="n">
-        <v>105724.1</v>
+        <v>105771.48</v>
+      </c>
+    </row>
+    <row r="5743">
+      <c r="A5743" t="inlineStr">
+        <is>
+          <t>2025-05-20 19:15</t>
+        </is>
+      </c>
+      <c r="B5743" t="n">
+        <v>106285.12</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/bitcoin_close_15min.xlsx
+++ b/Uploads/bitcoin_close_15min.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5745"/>
+  <dimension ref="A1:B5747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57882,7 +57882,27 @@
         </is>
       </c>
       <c r="B5745" t="n">
-        <v>106770.48</v>
+        <v>107051.09</v>
+      </c>
+    </row>
+    <row r="5746">
+      <c r="A5746" t="inlineStr">
+        <is>
+          <t>2025-05-20 20:00</t>
+        </is>
+      </c>
+      <c r="B5746" t="n">
+        <v>106757.6</v>
+      </c>
+    </row>
+    <row r="5747">
+      <c r="A5747" t="inlineStr">
+        <is>
+          <t>2025-05-20 20:15</t>
+        </is>
+      </c>
+      <c r="B5747" t="n">
+        <v>106474.9</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/bitcoin_close_15min.xlsx
+++ b/Uploads/bitcoin_close_15min.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5752"/>
+  <dimension ref="A1:B5753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84177.5</v>
+        <v>84174.42999999999</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>84229.66</v>
+        <v>84231.3</v>
       </c>
     </row>
     <row r="18">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84286.89</v>
+        <v>84274.3</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>84287.46000000001</v>
+        <v>84296.05</v>
       </c>
     </row>
     <row r="30">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>84364.16</v>
+        <v>84359.67</v>
       </c>
     </row>
     <row r="44">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>84110.81</v>
+        <v>84106.12</v>
       </c>
     </row>
     <row r="68">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>84132.23</v>
+        <v>84128.85000000001</v>
       </c>
     </row>
     <row r="70">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>83996.59</v>
+        <v>84001.81</v>
       </c>
     </row>
     <row r="102">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>85014.39</v>
+        <v>85016.38</v>
       </c>
     </row>
     <row r="178">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>86129.77</v>
+        <v>86008.27</v>
       </c>
     </row>
     <row r="198">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>85920.72</v>
+        <v>85956.24000000001</v>
       </c>
     </row>
     <row r="206">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>87684.48</v>
+        <v>87699.48</v>
       </c>
     </row>
     <row r="242">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>87421.7</v>
+        <v>87437.28999999999</v>
       </c>
     </row>
     <row r="249">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>87392.25</v>
+        <v>87398.42999999999</v>
       </c>
     </row>
     <row r="286">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>86519.59</v>
+        <v>86430.03999999999</v>
       </c>
     </row>
     <row r="311">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>86741.47</v>
+        <v>86696.52</v>
       </c>
     </row>
     <row r="314">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>86512.3</v>
+        <v>86524.66</v>
       </c>
     </row>
     <row r="323">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>87660.52</v>
+        <v>87625.77</v>
       </c>
     </row>
     <row r="346">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>88245.42999999999</v>
+        <v>88192.13</v>
       </c>
     </row>
     <row r="359">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>87562.03</v>
+        <v>87600.23</v>
       </c>
     </row>
     <row r="381">
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>87611.24000000001</v>
+        <v>87597.96000000001</v>
       </c>
     </row>
     <row r="388">
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>87686.05</v>
+        <v>87677.73</v>
       </c>
     </row>
     <row r="390">
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="B413" t="n">
-        <v>87915.58</v>
+        <v>87921.60000000001</v>
       </c>
     </row>
     <row r="414">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>87957.48</v>
+        <v>87992.78</v>
       </c>
     </row>
     <row r="422">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>87942</v>
+        <v>87939.42999999999</v>
       </c>
     </row>
     <row r="423">
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>87988.7</v>
+        <v>87997.11</v>
       </c>
     </row>
     <row r="424">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>88184.14</v>
+        <v>88143.77</v>
       </c>
     </row>
     <row r="429">
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="B445" t="n">
-        <v>86772.38</v>
+        <v>86828.59</v>
       </c>
     </row>
     <row r="446">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>86803.12</v>
+        <v>86731.3</v>
       </c>
     </row>
     <row r="457">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>87131.3</v>
+        <v>87163.55</v>
       </c>
     </row>
     <row r="485">
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="B503" t="n">
-        <v>87421.8</v>
+        <v>87433.00999999999</v>
       </c>
     </row>
     <row r="504">
@@ -5582,7 +5582,7 @@
         </is>
       </c>
       <c r="B515" t="n">
-        <v>87395.34</v>
+        <v>87408.37</v>
       </c>
     </row>
     <row r="516">
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="B517" t="n">
-        <v>87443.08</v>
+        <v>87444.66</v>
       </c>
     </row>
     <row r="518">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="B538" t="n">
-        <v>86258.10000000001</v>
+        <v>86413.49000000001</v>
       </c>
     </row>
     <row r="539">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="B564" t="n">
-        <v>87292.57000000001</v>
+        <v>87299.33</v>
       </c>
     </row>
     <row r="565">
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="B595" t="n">
-        <v>86747.02</v>
+        <v>86730.03</v>
       </c>
     </row>
     <row r="596">
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="B613" t="n">
-        <v>85208.87</v>
+        <v>85212.05</v>
       </c>
     </row>
     <row r="614">
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="B632" t="n">
-        <v>85438.22</v>
+        <v>85349.84</v>
       </c>
     </row>
     <row r="633">
@@ -7422,7 +7422,7 @@
         </is>
       </c>
       <c r="B699" t="n">
-        <v>83688.98</v>
+        <v>83668.3</v>
       </c>
     </row>
     <row r="700">
@@ -7742,7 +7742,7 @@
         </is>
       </c>
       <c r="B731" t="n">
-        <v>82508.16</v>
+        <v>82479.49000000001</v>
       </c>
     </row>
     <row r="732">
@@ -8062,7 +8062,7 @@
         </is>
       </c>
       <c r="B763" t="n">
-        <v>82394.21000000001</v>
+        <v>82395.05</v>
       </c>
     </row>
     <row r="764">
@@ -8102,7 +8102,7 @@
         </is>
       </c>
       <c r="B767" t="n">
-        <v>82455.46000000001</v>
+        <v>82441.77</v>
       </c>
     </row>
     <row r="768">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="B768" t="n">
-        <v>82444.55</v>
+        <v>82469.07000000001</v>
       </c>
     </row>
     <row r="769">
@@ -8342,7 +8342,7 @@
         </is>
       </c>
       <c r="B791" t="n">
-        <v>83161.28</v>
+        <v>83164.94</v>
       </c>
     </row>
     <row r="792">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="B816" t="n">
-        <v>83017.53999999999</v>
+        <v>83027.62</v>
       </c>
     </row>
     <row r="817">
@@ -8922,7 +8922,7 @@
         </is>
       </c>
       <c r="B849" t="n">
-        <v>82551.71000000001</v>
+        <v>82528.14</v>
       </c>
     </row>
     <row r="850">
@@ -9302,7 +9302,7 @@
         </is>
       </c>
       <c r="B887" t="n">
-        <v>82234.74000000001</v>
+        <v>82247.3</v>
       </c>
     </row>
     <row r="888">
@@ -9412,7 +9412,7 @@
         </is>
       </c>
       <c r="B898" t="n">
-        <v>82165.45</v>
+        <v>82185.55</v>
       </c>
     </row>
     <row r="899">
@@ -9532,7 +9532,7 @@
         </is>
       </c>
       <c r="B910" t="n">
-        <v>82090.91</v>
+        <v>82116.77</v>
       </c>
     </row>
     <row r="911">
@@ -9632,7 +9632,7 @@
         </is>
       </c>
       <c r="B920" t="n">
-        <v>82088.67999999999</v>
+        <v>82018.11</v>
       </c>
     </row>
     <row r="921">
@@ -9702,7 +9702,7 @@
         </is>
       </c>
       <c r="B927" t="n">
-        <v>83729.82000000001</v>
+        <v>83719.77</v>
       </c>
     </row>
     <row r="928">
@@ -10062,7 +10062,7 @@
         </is>
       </c>
       <c r="B963" t="n">
-        <v>82729.67</v>
+        <v>82683.5</v>
       </c>
     </row>
     <row r="964">
@@ -11072,7 +11072,7 @@
         </is>
       </c>
       <c r="B1064" t="n">
-        <v>85196.09</v>
+        <v>85181.22</v>
       </c>
     </row>
     <row r="1065">
@@ -11082,7 +11082,7 @@
         </is>
       </c>
       <c r="B1065" t="n">
-        <v>85109.87</v>
+        <v>85159.95</v>
       </c>
     </row>
     <row r="1066">
@@ -11322,7 +11322,7 @@
         </is>
       </c>
       <c r="B1089" t="n">
-        <v>84376.06</v>
+        <v>84431.3</v>
       </c>
     </row>
     <row r="1090">
@@ -11482,7 +11482,7 @@
         </is>
       </c>
       <c r="B1105" t="n">
-        <v>84554.09</v>
+        <v>84545.71000000001</v>
       </c>
     </row>
     <row r="1106">
@@ -11502,7 +11502,7 @@
         </is>
       </c>
       <c r="B1107" t="n">
-        <v>84696.41</v>
+        <v>84659.00999999999</v>
       </c>
     </row>
     <row r="1108">
@@ -11832,7 +11832,7 @@
         </is>
       </c>
       <c r="B1140" t="n">
-        <v>85464.2</v>
+        <v>85314.48</v>
       </c>
     </row>
     <row r="1141">
@@ -11862,7 +11862,7 @@
         </is>
       </c>
       <c r="B1143" t="n">
-        <v>84703.53</v>
+        <v>84669.32000000001</v>
       </c>
     </row>
     <row r="1144">
@@ -11932,7 +11932,7 @@
         </is>
       </c>
       <c r="B1150" t="n">
-        <v>82510.16</v>
+        <v>82601.56</v>
       </c>
     </row>
     <row r="1151">
@@ -12012,7 +12012,7 @@
         </is>
       </c>
       <c r="B1158" t="n">
-        <v>83300.98</v>
+        <v>83321.75999999999</v>
       </c>
     </row>
     <row r="1159">
@@ -12032,7 +12032,7 @@
         </is>
       </c>
       <c r="B1160" t="n">
-        <v>83629.95</v>
+        <v>83667.98</v>
       </c>
     </row>
     <row r="1161">
@@ -12082,7 +12082,7 @@
         </is>
       </c>
       <c r="B1165" t="n">
-        <v>83737.62</v>
+        <v>83729.32000000001</v>
       </c>
     </row>
     <row r="1166">
@@ -12102,7 +12102,7 @@
         </is>
       </c>
       <c r="B1167" t="n">
-        <v>83581.59</v>
+        <v>83599.56</v>
       </c>
     </row>
     <row r="1168">
@@ -12202,7 +12202,7 @@
         </is>
       </c>
       <c r="B1177" t="n">
-        <v>83386.55</v>
+        <v>83401.62</v>
       </c>
     </row>
     <row r="1178">
@@ -12242,7 +12242,7 @@
         </is>
       </c>
       <c r="B1181" t="n">
-        <v>83038.41</v>
+        <v>83014.34</v>
       </c>
     </row>
     <row r="1182">
@@ -12352,7 +12352,7 @@
         </is>
       </c>
       <c r="B1192" t="n">
-        <v>83716.24000000001</v>
+        <v>83726.82000000001</v>
       </c>
     </row>
     <row r="1193">
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="B1205" t="n">
-        <v>81986.05</v>
+        <v>82035.78</v>
       </c>
     </row>
     <row r="1206">
@@ -12512,7 +12512,7 @@
         </is>
       </c>
       <c r="B1208" t="n">
-        <v>82501.62</v>
+        <v>82296.19</v>
       </c>
     </row>
     <row r="1209">
@@ -12672,7 +12672,7 @@
         </is>
       </c>
       <c r="B1224" t="n">
-        <v>82020.53999999999</v>
+        <v>82067.69</v>
       </c>
     </row>
     <row r="1225">
@@ -12882,7 +12882,7 @@
         </is>
       </c>
       <c r="B1245" t="n">
-        <v>82658.25</v>
+        <v>82674.91</v>
       </c>
     </row>
     <row r="1246">
@@ -12952,7 +12952,7 @@
         </is>
       </c>
       <c r="B1252" t="n">
-        <v>83293.25999999999</v>
+        <v>83254.44</v>
       </c>
     </row>
     <row r="1253">
@@ -12982,7 +12982,7 @@
         </is>
       </c>
       <c r="B1255" t="n">
-        <v>83069.75</v>
+        <v>83057.17</v>
       </c>
     </row>
     <row r="1256">
@@ -13002,7 +13002,7 @@
         </is>
       </c>
       <c r="B1257" t="n">
-        <v>82575.49000000001</v>
+        <v>82590.45</v>
       </c>
     </row>
     <row r="1258">
@@ -13082,7 +13082,7 @@
         </is>
       </c>
       <c r="B1265" t="n">
-        <v>82766.91</v>
+        <v>82782.63</v>
       </c>
     </row>
     <row r="1266">
@@ -13092,7 +13092,7 @@
         </is>
       </c>
       <c r="B1266" t="n">
-        <v>82683.35000000001</v>
+        <v>82671.07000000001</v>
       </c>
     </row>
     <row r="1267">
@@ -13162,7 +13162,7 @@
         </is>
       </c>
       <c r="B1273" t="n">
-        <v>83166.5</v>
+        <v>83173.12</v>
       </c>
     </row>
     <row r="1274">
@@ -13232,7 +13232,7 @@
         </is>
       </c>
       <c r="B1280" t="n">
-        <v>83676.62</v>
+        <v>83665.83</v>
       </c>
     </row>
     <row r="1281">
@@ -13292,7 +13292,7 @@
         </is>
       </c>
       <c r="B1286" t="n">
-        <v>84319.98</v>
+        <v>84332.86</v>
       </c>
     </row>
     <row r="1287">
@@ -13352,7 +13352,7 @@
         </is>
       </c>
       <c r="B1292" t="n">
-        <v>83010.2</v>
+        <v>82886.05</v>
       </c>
     </row>
     <row r="1293">
@@ -13412,7 +13412,7 @@
         </is>
       </c>
       <c r="B1298" t="n">
-        <v>82294.46000000001</v>
+        <v>82350.82000000001</v>
       </c>
     </row>
     <row r="1299">
@@ -13432,7 +13432,7 @@
         </is>
       </c>
       <c r="B1300" t="n">
-        <v>82660.05</v>
+        <v>82645.59</v>
       </c>
     </row>
     <row r="1301">
@@ -13442,7 +13442,7 @@
         </is>
       </c>
       <c r="B1301" t="n">
-        <v>82819.55</v>
+        <v>82783.46000000001</v>
       </c>
     </row>
     <row r="1302">
@@ -13522,7 +13522,7 @@
         </is>
       </c>
       <c r="B1309" t="n">
-        <v>82576.74000000001</v>
+        <v>82693.91</v>
       </c>
     </row>
     <row r="1310">
@@ -13542,7 +13542,7 @@
         </is>
       </c>
       <c r="B1311" t="n">
-        <v>83222.78999999999</v>
+        <v>83237.77</v>
       </c>
     </row>
     <row r="1312">
@@ -13772,7 +13772,7 @@
         </is>
       </c>
       <c r="B1334" t="n">
-        <v>84197.64</v>
+        <v>84163.99000000001</v>
       </c>
     </row>
     <row r="1335">
@@ -13802,7 +13802,7 @@
         </is>
       </c>
       <c r="B1337" t="n">
-        <v>84215.49000000001</v>
+        <v>84184.05</v>
       </c>
     </row>
     <row r="1338">
@@ -13842,7 +13842,7 @@
         </is>
       </c>
       <c r="B1341" t="n">
-        <v>84027.66</v>
+        <v>84029.25</v>
       </c>
     </row>
     <row r="1342">
@@ -13892,7 +13892,7 @@
         </is>
       </c>
       <c r="B1346" t="n">
-        <v>83674.03999999999</v>
+        <v>83695.5</v>
       </c>
     </row>
     <row r="1347">
@@ -13962,7 +13962,7 @@
         </is>
       </c>
       <c r="B1353" t="n">
-        <v>83954.17999999999</v>
+        <v>83950.75</v>
       </c>
     </row>
     <row r="1354">
@@ -14002,7 +14002,7 @@
         </is>
       </c>
       <c r="B1357" t="n">
-        <v>83923.27</v>
+        <v>83937.61</v>
       </c>
     </row>
     <row r="1358">
@@ -14102,7 +14102,7 @@
         </is>
       </c>
       <c r="B1367" t="n">
-        <v>83808.34</v>
+        <v>83813.21000000001</v>
       </c>
     </row>
     <row r="1368">
@@ -14162,7 +14162,7 @@
         </is>
       </c>
       <c r="B1373" t="n">
-        <v>83412.44</v>
+        <v>83446.75999999999</v>
       </c>
     </row>
     <row r="1374">
@@ -14172,7 +14172,7 @@
         </is>
       </c>
       <c r="B1374" t="n">
-        <v>83412.63</v>
+        <v>83385.02</v>
       </c>
     </row>
     <row r="1375">
@@ -14222,7 +14222,7 @@
         </is>
       </c>
       <c r="B1379" t="n">
-        <v>83370.27</v>
+        <v>83369.03999999999</v>
       </c>
     </row>
     <row r="1380">
@@ -14262,7 +14262,7 @@
         </is>
       </c>
       <c r="B1383" t="n">
-        <v>83688.32000000001</v>
+        <v>83675.25</v>
       </c>
     </row>
     <row r="1384">
@@ -14272,7 +14272,7 @@
         </is>
       </c>
       <c r="B1384" t="n">
-        <v>83677.2</v>
+        <v>83697.89</v>
       </c>
     </row>
     <row r="1385">
@@ -14412,7 +14412,7 @@
         </is>
       </c>
       <c r="B1398" t="n">
-        <v>83150.89999999999</v>
+        <v>83153.98</v>
       </c>
     </row>
     <row r="1399">
@@ -14462,7 +14462,7 @@
         </is>
       </c>
       <c r="B1403" t="n">
-        <v>82852.5</v>
+        <v>82853.05</v>
       </c>
     </row>
     <row r="1404">
@@ -14522,7 +14522,7 @@
         </is>
       </c>
       <c r="B1409" t="n">
-        <v>82565.72</v>
+        <v>82566.14</v>
       </c>
     </row>
     <row r="1410">
@@ -14682,7 +14682,7 @@
         </is>
       </c>
       <c r="B1425" t="n">
-        <v>82776.66</v>
+        <v>82787</v>
       </c>
     </row>
     <row r="1426">
@@ -14792,7 +14792,7 @@
         </is>
       </c>
       <c r="B1436" t="n">
-        <v>83017.66</v>
+        <v>83039.53999999999</v>
       </c>
     </row>
     <row r="1437">
@@ -14802,7 +14802,7 @@
         </is>
       </c>
       <c r="B1437" t="n">
-        <v>83135.7</v>
+        <v>83149.06</v>
       </c>
     </row>
     <row r="1438">
@@ -14862,7 +14862,7 @@
         </is>
       </c>
       <c r="B1443" t="n">
-        <v>83511.62</v>
+        <v>83506.89999999999</v>
       </c>
     </row>
     <row r="1444">
@@ -14902,7 +14902,7 @@
         </is>
       </c>
       <c r="B1447" t="n">
-        <v>83600.39999999999</v>
+        <v>83565.52</v>
       </c>
     </row>
     <row r="1448">
@@ -14922,7 +14922,7 @@
         </is>
       </c>
       <c r="B1449" t="n">
-        <v>83415.25</v>
+        <v>83411.13</v>
       </c>
     </row>
     <row r="1450">
@@ -14972,7 +14972,7 @@
         </is>
       </c>
       <c r="B1454" t="n">
-        <v>83314.67</v>
+        <v>83320.47</v>
       </c>
     </row>
     <row r="1455">
@@ -15122,7 +15122,7 @@
         </is>
       </c>
       <c r="B1469" t="n">
-        <v>83155.45</v>
+        <v>83125.67</v>
       </c>
     </row>
     <row r="1470">
@@ -15132,7 +15132,7 @@
         </is>
       </c>
       <c r="B1470" t="n">
-        <v>83137.35000000001</v>
+        <v>83142.38</v>
       </c>
     </row>
     <row r="1471">
@@ -15152,7 +15152,7 @@
         </is>
       </c>
       <c r="B1472" t="n">
-        <v>83058.14</v>
+        <v>83045.7</v>
       </c>
     </row>
     <row r="1473">
@@ -15162,7 +15162,7 @@
         </is>
       </c>
       <c r="B1473" t="n">
-        <v>83011.2</v>
+        <v>82996.96000000001</v>
       </c>
     </row>
     <row r="1474">
@@ -15262,7 +15262,7 @@
         </is>
       </c>
       <c r="B1483" t="n">
-        <v>82781.50999999999</v>
+        <v>82772.24000000001</v>
       </c>
     </row>
     <row r="1484">
@@ -15442,7 +15442,7 @@
         </is>
       </c>
       <c r="B1501" t="n">
-        <v>82512.78999999999</v>
+        <v>82555.71000000001</v>
       </c>
     </row>
     <row r="1502">
@@ -15572,7 +15572,7 @@
         </is>
       </c>
       <c r="B1514" t="n">
-        <v>80348.36</v>
+        <v>80379.10000000001</v>
       </c>
     </row>
     <row r="1515">
@@ -15602,7 +15602,7 @@
         </is>
       </c>
       <c r="B1517" t="n">
-        <v>78977.82000000001</v>
+        <v>78934.62</v>
       </c>
     </row>
     <row r="1518">
@@ -15612,7 +15612,7 @@
         </is>
       </c>
       <c r="B1518" t="n">
-        <v>79131.22</v>
+        <v>79206.06</v>
       </c>
     </row>
     <row r="1519">
@@ -15672,7 +15672,7 @@
         </is>
       </c>
       <c r="B1524" t="n">
-        <v>79435.3</v>
+        <v>79255.10000000001</v>
       </c>
     </row>
     <row r="1525">
@@ -15682,7 +15682,7 @@
         </is>
       </c>
       <c r="B1525" t="n">
-        <v>78810</v>
+        <v>78802.14999999999</v>
       </c>
     </row>
     <row r="1526">
@@ -15742,7 +15742,7 @@
         </is>
       </c>
       <c r="B1531" t="n">
-        <v>78843.72</v>
+        <v>78955.62</v>
       </c>
     </row>
     <row r="1532">
@@ -15772,7 +15772,7 @@
         </is>
       </c>
       <c r="B1534" t="n">
-        <v>77488.77</v>
+        <v>77530.27</v>
       </c>
     </row>
     <row r="1535">
@@ -15782,7 +15782,7 @@
         </is>
       </c>
       <c r="B1535" t="n">
-        <v>77450.86</v>
+        <v>77483.55</v>
       </c>
     </row>
     <row r="1536">
@@ -15852,7 +15852,7 @@
         </is>
       </c>
       <c r="B1542" t="n">
-        <v>78678.46000000001</v>
+        <v>78717.69</v>
       </c>
     </row>
     <row r="1543">
@@ -15882,7 +15882,7 @@
         </is>
       </c>
       <c r="B1545" t="n">
-        <v>79068.2</v>
+        <v>79159.7</v>
       </c>
     </row>
     <row r="1546">
@@ -15922,7 +15922,7 @@
         </is>
       </c>
       <c r="B1549" t="n">
-        <v>78382.2</v>
+        <v>78381.87</v>
       </c>
     </row>
     <row r="1550">
@@ -15962,7 +15962,7 @@
         </is>
       </c>
       <c r="B1553" t="n">
-        <v>77577.7</v>
+        <v>77584.98</v>
       </c>
     </row>
     <row r="1554">
@@ -16092,7 +16092,7 @@
         </is>
       </c>
       <c r="B1566" t="n">
-        <v>75018.22</v>
+        <v>75037.25999999999</v>
       </c>
     </row>
     <row r="1567">
@@ -16222,7 +16222,7 @@
         </is>
       </c>
       <c r="B1579" t="n">
-        <v>77082.8</v>
+        <v>77073.13</v>
       </c>
     </row>
     <row r="1580">
@@ -16402,7 +16402,7 @@
         </is>
       </c>
       <c r="B1597" t="n">
-        <v>78970.84</v>
+        <v>78982.77</v>
       </c>
     </row>
     <row r="1598">
@@ -16412,7 +16412,7 @@
         </is>
       </c>
       <c r="B1598" t="n">
-        <v>78499.50999999999</v>
+        <v>78721.23</v>
       </c>
     </row>
     <row r="1599">
@@ -16442,7 +16442,7 @@
         </is>
       </c>
       <c r="B1601" t="n">
-        <v>78683.60000000001</v>
+        <v>78540.28</v>
       </c>
     </row>
     <row r="1602">
@@ -16472,7 +16472,7 @@
         </is>
       </c>
       <c r="B1604" t="n">
-        <v>77914.44</v>
+        <v>77844.7</v>
       </c>
     </row>
     <row r="1605">
@@ -16552,7 +16552,7 @@
         </is>
       </c>
       <c r="B1612" t="n">
-        <v>78933.71000000001</v>
+        <v>78891.7</v>
       </c>
     </row>
     <row r="1613">
@@ -16572,7 +16572,7 @@
         </is>
       </c>
       <c r="B1614" t="n">
-        <v>78353.16</v>
+        <v>78383.07000000001</v>
       </c>
     </row>
     <row r="1615">
@@ -16592,7 +16592,7 @@
         </is>
       </c>
       <c r="B1616" t="n">
-        <v>78228.16</v>
+        <v>78172.73</v>
       </c>
     </row>
     <row r="1617">
@@ -16642,7 +16642,7 @@
         </is>
       </c>
       <c r="B1621" t="n">
-        <v>78813.86</v>
+        <v>78801.33</v>
       </c>
     </row>
     <row r="1622">
@@ -16802,7 +16802,7 @@
         </is>
       </c>
       <c r="B1637" t="n">
-        <v>79061.53</v>
+        <v>78990.57000000001</v>
       </c>
     </row>
     <row r="1638">
@@ -16882,7 +16882,7 @@
         </is>
       </c>
       <c r="B1645" t="n">
-        <v>79891.25</v>
+        <v>79911.47</v>
       </c>
     </row>
     <row r="1646">
@@ -16982,7 +16982,7 @@
         </is>
       </c>
       <c r="B1655" t="n">
-        <v>79611.97</v>
+        <v>79598.23</v>
       </c>
     </row>
     <row r="1656">
@@ -17002,7 +17002,7 @@
         </is>
       </c>
       <c r="B1657" t="n">
-        <v>79817.75999999999</v>
+        <v>79820.36</v>
       </c>
     </row>
     <row r="1658">
@@ -17032,7 +17032,7 @@
         </is>
       </c>
       <c r="B1660" t="n">
-        <v>79485.91</v>
+        <v>79513.78999999999</v>
       </c>
     </row>
     <row r="1661">
@@ -17102,7 +17102,7 @@
         </is>
       </c>
       <c r="B1667" t="n">
-        <v>78971.87</v>
+        <v>78970.7</v>
       </c>
     </row>
     <row r="1668">
@@ -17202,7 +17202,7 @@
         </is>
       </c>
       <c r="B1677" t="n">
-        <v>78961.67999999999</v>
+        <v>78966.89</v>
       </c>
     </row>
     <row r="1678">
@@ -17242,7 +17242,7 @@
         </is>
       </c>
       <c r="B1681" t="n">
-        <v>79869.57000000001</v>
+        <v>79980.86</v>
       </c>
     </row>
     <row r="1682">
@@ -17252,7 +17252,7 @@
         </is>
       </c>
       <c r="B1682" t="n">
-        <v>80051.63</v>
+        <v>80026.05</v>
       </c>
     </row>
     <row r="1683">
@@ -17672,7 +17672,7 @@
         </is>
       </c>
       <c r="B1724" t="n">
-        <v>76337.92</v>
+        <v>76378.95</v>
       </c>
     </row>
     <row r="1725">
@@ -17682,7 +17682,7 @@
         </is>
       </c>
       <c r="B1725" t="n">
-        <v>76719.98</v>
+        <v>76697.05</v>
       </c>
     </row>
     <row r="1726">
@@ -17872,7 +17872,7 @@
         </is>
       </c>
       <c r="B1744" t="n">
-        <v>75210.91</v>
+        <v>75259.03999999999</v>
       </c>
     </row>
     <row r="1745">
@@ -18052,7 +18052,7 @@
         </is>
       </c>
       <c r="B1762" t="n">
-        <v>77399.89999999999</v>
+        <v>77366.64999999999</v>
       </c>
     </row>
     <row r="1763">
@@ -18092,7 +18092,7 @@
         </is>
       </c>
       <c r="B1766" t="n">
-        <v>77322.05</v>
+        <v>77298.36</v>
       </c>
     </row>
     <row r="1767">
@@ -18262,7 +18262,7 @@
         </is>
       </c>
       <c r="B1783" t="n">
-        <v>76776.94</v>
+        <v>76758.78999999999</v>
       </c>
     </row>
     <row r="1784">
@@ -18302,7 +18302,7 @@
         </is>
       </c>
       <c r="B1787" t="n">
-        <v>77421.38</v>
+        <v>77432.52</v>
       </c>
     </row>
     <row r="1788">
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="B1792" t="n">
-        <v>77022.62</v>
+        <v>77051.38</v>
       </c>
     </row>
     <row r="1793">
@@ -18432,7 +18432,7 @@
         </is>
       </c>
       <c r="B1800" t="n">
-        <v>81330.07000000001</v>
+        <v>81319.71000000001</v>
       </c>
     </row>
     <row r="1801">
@@ -18492,7 +18492,7 @@
         </is>
       </c>
       <c r="B1806" t="n">
-        <v>82052.72</v>
+        <v>82096.85000000001</v>
       </c>
     </row>
     <row r="1807">
@@ -18592,7 +18592,7 @@
         </is>
       </c>
       <c r="B1816" t="n">
-        <v>83004.05</v>
+        <v>82986.66</v>
       </c>
     </row>
     <row r="1817">
@@ -18722,7 +18722,7 @@
         </is>
       </c>
       <c r="B1829" t="n">
-        <v>82276.57000000001</v>
+        <v>82318.63</v>
       </c>
     </row>
     <row r="1830">
@@ -19042,7 +19042,7 @@
         </is>
       </c>
       <c r="B1861" t="n">
-        <v>81478.48</v>
+        <v>81499.44</v>
       </c>
     </row>
     <row r="1862">
@@ -19092,7 +19092,7 @@
         </is>
       </c>
       <c r="B1866" t="n">
-        <v>82086.09</v>
+        <v>82030.87</v>
       </c>
     </row>
     <row r="1867">
@@ -19232,7 +19232,7 @@
         </is>
       </c>
       <c r="B1880" t="n">
-        <v>80881.00999999999</v>
+        <v>80770.36</v>
       </c>
     </row>
     <row r="1881">
@@ -19312,7 +19312,7 @@
         </is>
       </c>
       <c r="B1888" t="n">
-        <v>79405.77</v>
+        <v>79258.64999999999</v>
       </c>
     </row>
     <row r="1889">
@@ -19422,7 +19422,7 @@
         </is>
       </c>
       <c r="B1899" t="n">
-        <v>79704.34</v>
+        <v>79691.67</v>
       </c>
     </row>
     <row r="1900">
@@ -19492,7 +19492,7 @@
         </is>
       </c>
       <c r="B1906" t="n">
-        <v>79883.52</v>
+        <v>79783.08</v>
       </c>
     </row>
     <row r="1907">
@@ -19562,7 +19562,7 @@
         </is>
       </c>
       <c r="B1913" t="n">
-        <v>79675.05</v>
+        <v>79672.05</v>
       </c>
     </row>
     <row r="1914">
@@ -19992,7 +19992,7 @@
         </is>
       </c>
       <c r="B1956" t="n">
-        <v>81613.45</v>
+        <v>81533.12</v>
       </c>
     </row>
     <row r="1957">
@@ -20132,7 +20132,7 @@
         </is>
       </c>
       <c r="B1970" t="n">
-        <v>81876.12</v>
+        <v>81880.44</v>
       </c>
     </row>
     <row r="1971">
@@ -20162,7 +20162,7 @@
         </is>
       </c>
       <c r="B1973" t="n">
-        <v>82000.7</v>
+        <v>82004.32000000001</v>
       </c>
     </row>
     <row r="1974">
@@ -20382,7 +20382,7 @@
         </is>
       </c>
       <c r="B1995" t="n">
-        <v>83862.38</v>
+        <v>83915.55</v>
       </c>
     </row>
     <row r="1996">
@@ -20392,7 +20392,7 @@
         </is>
       </c>
       <c r="B1996" t="n">
-        <v>83817.12</v>
+        <v>83805.66</v>
       </c>
     </row>
     <row r="1997">
@@ -20432,7 +20432,7 @@
         </is>
       </c>
       <c r="B2000" t="n">
-        <v>83793.24000000001</v>
+        <v>83800.81</v>
       </c>
     </row>
     <row r="2001">
@@ -20532,7 +20532,7 @@
         </is>
       </c>
       <c r="B2010" t="n">
-        <v>83556.97</v>
+        <v>83546.27</v>
       </c>
     </row>
     <row r="2011">
@@ -20742,7 +20742,7 @@
         </is>
       </c>
       <c r="B2031" t="n">
-        <v>83003.74000000001</v>
+        <v>82991.3</v>
       </c>
     </row>
     <row r="2032">
@@ -20812,7 +20812,7 @@
         </is>
       </c>
       <c r="B2038" t="n">
-        <v>83268.11</v>
+        <v>83267.48</v>
       </c>
     </row>
     <row r="2039">
@@ -20892,7 +20892,7 @@
         </is>
       </c>
       <c r="B2046" t="n">
-        <v>83499.09</v>
+        <v>83483.75999999999</v>
       </c>
     </row>
     <row r="2047">
@@ -20982,7 +20982,7 @@
         </is>
       </c>
       <c r="B2055" t="n">
-        <v>83438.34</v>
+        <v>83438.7</v>
       </c>
     </row>
     <row r="2056">
@@ -21012,7 +21012,7 @@
         </is>
       </c>
       <c r="B2058" t="n">
-        <v>83460.92999999999</v>
+        <v>83457.2</v>
       </c>
     </row>
     <row r="2059">
@@ -21182,7 +21182,7 @@
         </is>
       </c>
       <c r="B2075" t="n">
-        <v>84799.16</v>
+        <v>84798.24000000001</v>
       </c>
     </row>
     <row r="2076">
@@ -21362,7 +21362,7 @@
         </is>
       </c>
       <c r="B2093" t="n">
-        <v>85150.95</v>
+        <v>85144.72</v>
       </c>
     </row>
     <row r="2094">
@@ -21372,7 +21372,7 @@
         </is>
       </c>
       <c r="B2094" t="n">
-        <v>85047.85000000001</v>
+        <v>85073.38</v>
       </c>
     </row>
     <row r="2095">
@@ -21432,7 +21432,7 @@
         </is>
       </c>
       <c r="B2100" t="n">
-        <v>85787.16</v>
+        <v>85852.02</v>
       </c>
     </row>
     <row r="2101">
@@ -21542,7 +21542,7 @@
         </is>
       </c>
       <c r="B2111" t="n">
-        <v>85189.57000000001</v>
+        <v>85200.46000000001</v>
       </c>
     </row>
     <row r="2112">
@@ -21732,7 +21732,7 @@
         </is>
       </c>
       <c r="B2130" t="n">
-        <v>85077.24000000001</v>
+        <v>85111</v>
       </c>
     </row>
     <row r="2131">
@@ -21832,7 +21832,7 @@
         </is>
       </c>
       <c r="B2140" t="n">
-        <v>84720.48</v>
+        <v>84725.5</v>
       </c>
     </row>
     <row r="2141">
@@ -22002,7 +22002,7 @@
         </is>
       </c>
       <c r="B2157" t="n">
-        <v>84670.08</v>
+        <v>84667.48</v>
       </c>
     </row>
     <row r="2158">
@@ -22062,7 +22062,7 @@
         </is>
       </c>
       <c r="B2163" t="n">
-        <v>84287.56</v>
+        <v>84262.72</v>
       </c>
     </row>
     <row r="2164">
@@ -22172,7 +22172,7 @@
         </is>
       </c>
       <c r="B2174" t="n">
-        <v>83773.09</v>
+        <v>83795.31</v>
       </c>
     </row>
     <row r="2175">
@@ -22312,7 +22312,7 @@
         </is>
       </c>
       <c r="B2188" t="n">
-        <v>84802.48</v>
+        <v>84813.3</v>
       </c>
     </row>
     <row r="2189">
@@ -22492,7 +22492,7 @@
         </is>
       </c>
       <c r="B2206" t="n">
-        <v>83516.66</v>
+        <v>83543.34</v>
       </c>
     </row>
     <row r="2207">
@@ -22752,7 +22752,7 @@
         </is>
       </c>
       <c r="B2232" t="n">
-        <v>84361.02</v>
+        <v>84377.89</v>
       </c>
     </row>
     <row r="2233">
@@ -22792,7 +22792,7 @@
         </is>
       </c>
       <c r="B2236" t="n">
-        <v>84540.28</v>
+        <v>84539.42999999999</v>
       </c>
     </row>
     <row r="2237">
@@ -22892,7 +22892,7 @@
         </is>
       </c>
       <c r="B2246" t="n">
-        <v>84827.62</v>
+        <v>84855.09</v>
       </c>
     </row>
     <row r="2247">
@@ -22902,7 +22902,7 @@
         </is>
       </c>
       <c r="B2247" t="n">
-        <v>84485.25999999999</v>
+        <v>84516.36</v>
       </c>
     </row>
     <row r="2248">
@@ -23002,7 +23002,7 @@
         </is>
       </c>
       <c r="B2257" t="n">
-        <v>84869.34</v>
+        <v>84902.25</v>
       </c>
     </row>
     <row r="2258">
@@ -23052,7 +23052,7 @@
         </is>
       </c>
       <c r="B2262" t="n">
-        <v>85057.23</v>
+        <v>85068.67</v>
       </c>
     </row>
     <row r="2263">
@@ -23082,7 +23082,7 @@
         </is>
       </c>
       <c r="B2265" t="n">
-        <v>84463.19</v>
+        <v>84460.98</v>
       </c>
     </row>
     <row r="2266">
@@ -23112,7 +23112,7 @@
         </is>
       </c>
       <c r="B2268" t="n">
-        <v>85483.41</v>
+        <v>85476.3</v>
       </c>
     </row>
     <row r="2269">
@@ -23242,7 +23242,7 @@
         </is>
       </c>
       <c r="B2281" t="n">
-        <v>84820.33</v>
+        <v>84874.98</v>
       </c>
     </row>
     <row r="2282">
@@ -23272,7 +23272,7 @@
         </is>
       </c>
       <c r="B2284" t="n">
-        <v>84842.23</v>
+        <v>84885.86</v>
       </c>
     </row>
     <row r="2285">
@@ -23312,7 +23312,7 @@
         </is>
       </c>
       <c r="B2288" t="n">
-        <v>85065.87</v>
+        <v>85039.09</v>
       </c>
     </row>
     <row r="2289">
@@ -23352,7 +23352,7 @@
         </is>
       </c>
       <c r="B2292" t="n">
-        <v>84612.77</v>
+        <v>84611.21000000001</v>
       </c>
     </row>
     <row r="2293">
@@ -23632,7 +23632,7 @@
         </is>
       </c>
       <c r="B2320" t="n">
-        <v>85240.66</v>
+        <v>85261.36</v>
       </c>
     </row>
     <row r="2321">
@@ -27702,7 +27702,7 @@
         </is>
       </c>
       <c r="B2727" t="n">
-        <v>85382.31</v>
+        <v>85379.88</v>
       </c>
     </row>
     <row r="2728">
@@ -40202,7 +40202,7 @@
         </is>
       </c>
       <c r="B3977" t="n">
-        <v>96671.78</v>
+        <v>96660.8</v>
       </c>
     </row>
     <row r="3978">
@@ -40682,7 +40682,7 @@
         </is>
       </c>
       <c r="B4025" t="n">
-        <v>96628.38</v>
+        <v>96804.67</v>
       </c>
     </row>
     <row r="4026">
@@ -43612,7 +43612,7 @@
         </is>
       </c>
       <c r="B4318" t="n">
-        <v>95060.32000000001</v>
+        <v>95048.16</v>
       </c>
     </row>
     <row r="4319">
@@ -47792,7 +47792,7 @@
         </is>
       </c>
       <c r="B4736" t="n">
-        <v>103693.98</v>
+        <v>103697.75</v>
       </c>
     </row>
     <row r="4737">
@@ -49882,7 +49882,7 @@
         </is>
       </c>
       <c r="B4945" t="n">
-        <v>103752.06</v>
+        <v>103747.55</v>
       </c>
     </row>
     <row r="4946">
@@ -50842,7 +50842,7 @@
         </is>
       </c>
       <c r="B5041" t="n">
-        <v>103705.94</v>
+        <v>103687.08</v>
       </c>
     </row>
     <row r="5042">
@@ -54342,7 +54342,7 @@
         </is>
       </c>
       <c r="B5391" t="n">
-        <v>103235.99</v>
+        <v>103217.06</v>
       </c>
     </row>
     <row r="5392">
@@ -56242,7 +56242,7 @@
         </is>
       </c>
       <c r="B5581" t="n">
-        <v>104639.44</v>
+        <v>104627.81</v>
       </c>
     </row>
     <row r="5582">
@@ -57842,7 +57842,7 @@
         </is>
       </c>
       <c r="B5741" t="n">
-        <v>105362.58</v>
+        <v>105297.04</v>
       </c>
     </row>
     <row r="5742">
@@ -57952,7 +57952,17 @@
         </is>
       </c>
       <c r="B5752" t="n">
-        <v>106446.05</v>
+        <v>106474.37</v>
+      </c>
+    </row>
+    <row r="5753">
+      <c r="A5753" t="inlineStr">
+        <is>
+          <t>2025-05-20 21:45</t>
+        </is>
+      </c>
+      <c r="B5753" t="n">
+        <v>106656.98</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/bitcoin_close_15min.xlsx
+++ b/Uploads/bitcoin_close_15min.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5758"/>
+  <dimension ref="A1:B5760"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84177.5</v>
+        <v>84174.42999999999</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>84229.66</v>
+        <v>84231.3</v>
       </c>
     </row>
     <row r="18">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84286.89</v>
+        <v>84274.3</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>84287.46000000001</v>
+        <v>84296.05</v>
       </c>
     </row>
     <row r="30">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>84364.16</v>
+        <v>84359.67</v>
       </c>
     </row>
     <row r="44">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>84110.81</v>
+        <v>84106.12</v>
       </c>
     </row>
     <row r="68">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>84132.23</v>
+        <v>84128.85000000001</v>
       </c>
     </row>
     <row r="70">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>83996.59</v>
+        <v>84001.81</v>
       </c>
     </row>
     <row r="102">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>85014.39</v>
+        <v>85016.38</v>
       </c>
     </row>
     <row r="178">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>86129.77</v>
+        <v>86008.27</v>
       </c>
     </row>
     <row r="198">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>85920.72</v>
+        <v>85956.24000000001</v>
       </c>
     </row>
     <row r="206">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>87684.48</v>
+        <v>87699.48</v>
       </c>
     </row>
     <row r="242">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>87421.7</v>
+        <v>87437.28999999999</v>
       </c>
     </row>
     <row r="249">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>87392.25</v>
+        <v>87398.42999999999</v>
       </c>
     </row>
     <row r="286">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>86519.59</v>
+        <v>86430.03999999999</v>
       </c>
     </row>
     <row r="311">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>86741.47</v>
+        <v>86696.52</v>
       </c>
     </row>
     <row r="314">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>86512.3</v>
+        <v>86524.66</v>
       </c>
     </row>
     <row r="323">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>87660.52</v>
+        <v>87625.77</v>
       </c>
     </row>
     <row r="346">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>88245.42999999999</v>
+        <v>88192.13</v>
       </c>
     </row>
     <row r="359">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>87562.03</v>
+        <v>87600.23</v>
       </c>
     </row>
     <row r="381">
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>87611.24000000001</v>
+        <v>87597.96000000001</v>
       </c>
     </row>
     <row r="388">
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>87686.05</v>
+        <v>87677.73</v>
       </c>
     </row>
     <row r="390">
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="B413" t="n">
-        <v>87915.58</v>
+        <v>87921.60000000001</v>
       </c>
     </row>
     <row r="414">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>87957.48</v>
+        <v>87992.78</v>
       </c>
     </row>
     <row r="422">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>87942</v>
+        <v>87939.42999999999</v>
       </c>
     </row>
     <row r="423">
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>87988.7</v>
+        <v>87997.11</v>
       </c>
     </row>
     <row r="424">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>88184.14</v>
+        <v>88143.77</v>
       </c>
     </row>
     <row r="429">
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="B445" t="n">
-        <v>86772.38</v>
+        <v>86828.59</v>
       </c>
     </row>
     <row r="446">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>86803.12</v>
+        <v>86731.3</v>
       </c>
     </row>
     <row r="457">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>87131.3</v>
+        <v>87163.55</v>
       </c>
     </row>
     <row r="485">
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="B503" t="n">
-        <v>87421.8</v>
+        <v>87433.00999999999</v>
       </c>
     </row>
     <row r="504">
@@ -5582,7 +5582,7 @@
         </is>
       </c>
       <c r="B515" t="n">
-        <v>87395.34</v>
+        <v>87408.37</v>
       </c>
     </row>
     <row r="516">
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="B517" t="n">
-        <v>87443.08</v>
+        <v>87444.66</v>
       </c>
     </row>
     <row r="518">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="B538" t="n">
-        <v>86258.10000000001</v>
+        <v>86413.49000000001</v>
       </c>
     </row>
     <row r="539">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="B564" t="n">
-        <v>87292.57000000001</v>
+        <v>87299.33</v>
       </c>
     </row>
     <row r="565">
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="B595" t="n">
-        <v>86747.02</v>
+        <v>86730.03</v>
       </c>
     </row>
     <row r="596">
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="B613" t="n">
-        <v>85208.87</v>
+        <v>85212.05</v>
       </c>
     </row>
     <row r="614">
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="B632" t="n">
-        <v>85438.22</v>
+        <v>85349.84</v>
       </c>
     </row>
     <row r="633">
@@ -7422,7 +7422,7 @@
         </is>
       </c>
       <c r="B699" t="n">
-        <v>83688.98</v>
+        <v>83668.3</v>
       </c>
     </row>
     <row r="700">
@@ -7742,7 +7742,7 @@
         </is>
       </c>
       <c r="B731" t="n">
-        <v>82508.16</v>
+        <v>82479.49000000001</v>
       </c>
     </row>
     <row r="732">
@@ -8062,7 +8062,7 @@
         </is>
       </c>
       <c r="B763" t="n">
-        <v>82394.21000000001</v>
+        <v>82395.05</v>
       </c>
     </row>
     <row r="764">
@@ -8102,7 +8102,7 @@
         </is>
       </c>
       <c r="B767" t="n">
-        <v>82455.46000000001</v>
+        <v>82441.77</v>
       </c>
     </row>
     <row r="768">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="B768" t="n">
-        <v>82444.55</v>
+        <v>82469.07000000001</v>
       </c>
     </row>
     <row r="769">
@@ -8342,7 +8342,7 @@
         </is>
       </c>
       <c r="B791" t="n">
-        <v>83161.28</v>
+        <v>83164.94</v>
       </c>
     </row>
     <row r="792">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="B816" t="n">
-        <v>83017.53999999999</v>
+        <v>83027.62</v>
       </c>
     </row>
     <row r="817">
@@ -8922,7 +8922,7 @@
         </is>
       </c>
       <c r="B849" t="n">
-        <v>82551.71000000001</v>
+        <v>82528.14</v>
       </c>
     </row>
     <row r="850">
@@ -9302,7 +9302,7 @@
         </is>
       </c>
       <c r="B887" t="n">
-        <v>82234.74000000001</v>
+        <v>82247.3</v>
       </c>
     </row>
     <row r="888">
@@ -9412,7 +9412,7 @@
         </is>
       </c>
       <c r="B898" t="n">
-        <v>82165.45</v>
+        <v>82185.55</v>
       </c>
     </row>
     <row r="899">
@@ -9532,7 +9532,7 @@
         </is>
       </c>
       <c r="B910" t="n">
-        <v>82090.91</v>
+        <v>82116.77</v>
       </c>
     </row>
     <row r="911">
@@ -9632,7 +9632,7 @@
         </is>
       </c>
       <c r="B920" t="n">
-        <v>82088.67999999999</v>
+        <v>82018.11</v>
       </c>
     </row>
     <row r="921">
@@ -9702,7 +9702,7 @@
         </is>
       </c>
       <c r="B927" t="n">
-        <v>83729.82000000001</v>
+        <v>83719.77</v>
       </c>
     </row>
     <row r="928">
@@ -10062,7 +10062,7 @@
         </is>
       </c>
       <c r="B963" t="n">
-        <v>82729.67</v>
+        <v>82683.5</v>
       </c>
     </row>
     <row r="964">
@@ -11072,7 +11072,7 @@
         </is>
       </c>
       <c r="B1064" t="n">
-        <v>85196.09</v>
+        <v>85181.22</v>
       </c>
     </row>
     <row r="1065">
@@ -11082,7 +11082,7 @@
         </is>
       </c>
       <c r="B1065" t="n">
-        <v>85109.87</v>
+        <v>85159.95</v>
       </c>
     </row>
     <row r="1066">
@@ -11322,7 +11322,7 @@
         </is>
       </c>
       <c r="B1089" t="n">
-        <v>84376.06</v>
+        <v>84431.3</v>
       </c>
     </row>
     <row r="1090">
@@ -11482,7 +11482,7 @@
         </is>
       </c>
       <c r="B1105" t="n">
-        <v>84554.09</v>
+        <v>84545.71000000001</v>
       </c>
     </row>
     <row r="1106">
@@ -11502,7 +11502,7 @@
         </is>
       </c>
       <c r="B1107" t="n">
-        <v>84696.41</v>
+        <v>84659.00999999999</v>
       </c>
     </row>
     <row r="1108">
@@ -11832,7 +11832,7 @@
         </is>
       </c>
       <c r="B1140" t="n">
-        <v>85464.2</v>
+        <v>85314.48</v>
       </c>
     </row>
     <row r="1141">
@@ -11862,7 +11862,7 @@
         </is>
       </c>
       <c r="B1143" t="n">
-        <v>84703.53</v>
+        <v>84669.32000000001</v>
       </c>
     </row>
     <row r="1144">
@@ -11932,7 +11932,7 @@
         </is>
       </c>
       <c r="B1150" t="n">
-        <v>82510.16</v>
+        <v>82601.56</v>
       </c>
     </row>
     <row r="1151">
@@ -12012,7 +12012,7 @@
         </is>
       </c>
       <c r="B1158" t="n">
-        <v>83300.98</v>
+        <v>83321.75999999999</v>
       </c>
     </row>
     <row r="1159">
@@ -12032,7 +12032,7 @@
         </is>
       </c>
       <c r="B1160" t="n">
-        <v>83629.95</v>
+        <v>83667.98</v>
       </c>
     </row>
     <row r="1161">
@@ -12082,7 +12082,7 @@
         </is>
       </c>
       <c r="B1165" t="n">
-        <v>83737.62</v>
+        <v>83729.32000000001</v>
       </c>
     </row>
     <row r="1166">
@@ -12102,7 +12102,7 @@
         </is>
       </c>
       <c r="B1167" t="n">
-        <v>83581.59</v>
+        <v>83599.56</v>
       </c>
     </row>
     <row r="1168">
@@ -12202,7 +12202,7 @@
         </is>
       </c>
       <c r="B1177" t="n">
-        <v>83386.55</v>
+        <v>83401.62</v>
       </c>
     </row>
     <row r="1178">
@@ -12242,7 +12242,7 @@
         </is>
       </c>
       <c r="B1181" t="n">
-        <v>83038.41</v>
+        <v>83014.34</v>
       </c>
     </row>
     <row r="1182">
@@ -12352,7 +12352,7 @@
         </is>
       </c>
       <c r="B1192" t="n">
-        <v>83716.24000000001</v>
+        <v>83726.82000000001</v>
       </c>
     </row>
     <row r="1193">
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="B1205" t="n">
-        <v>81986.05</v>
+        <v>82035.78</v>
       </c>
     </row>
     <row r="1206">
@@ -12512,7 +12512,7 @@
         </is>
       </c>
       <c r="B1208" t="n">
-        <v>82501.62</v>
+        <v>82296.19</v>
       </c>
     </row>
     <row r="1209">
@@ -12672,7 +12672,7 @@
         </is>
       </c>
       <c r="B1224" t="n">
-        <v>82020.53999999999</v>
+        <v>82067.69</v>
       </c>
     </row>
     <row r="1225">
@@ -12882,7 +12882,7 @@
         </is>
       </c>
       <c r="B1245" t="n">
-        <v>82658.25</v>
+        <v>82674.91</v>
       </c>
     </row>
     <row r="1246">
@@ -12952,7 +12952,7 @@
         </is>
       </c>
       <c r="B1252" t="n">
-        <v>83293.25999999999</v>
+        <v>83254.44</v>
       </c>
     </row>
     <row r="1253">
@@ -12982,7 +12982,7 @@
         </is>
       </c>
       <c r="B1255" t="n">
-        <v>83069.75</v>
+        <v>83057.17</v>
       </c>
     </row>
     <row r="1256">
@@ -13002,7 +13002,7 @@
         </is>
       </c>
       <c r="B1257" t="n">
-        <v>82575.49000000001</v>
+        <v>82590.45</v>
       </c>
     </row>
     <row r="1258">
@@ -13082,7 +13082,7 @@
         </is>
       </c>
       <c r="B1265" t="n">
-        <v>82766.91</v>
+        <v>82782.63</v>
       </c>
     </row>
     <row r="1266">
@@ -13092,7 +13092,7 @@
         </is>
       </c>
       <c r="B1266" t="n">
-        <v>82683.35000000001</v>
+        <v>82671.07000000001</v>
       </c>
     </row>
     <row r="1267">
@@ -13162,7 +13162,7 @@
         </is>
       </c>
       <c r="B1273" t="n">
-        <v>83166.5</v>
+        <v>83173.12</v>
       </c>
     </row>
     <row r="1274">
@@ -13232,7 +13232,7 @@
         </is>
       </c>
       <c r="B1280" t="n">
-        <v>83676.62</v>
+        <v>83665.83</v>
       </c>
     </row>
     <row r="1281">
@@ -13292,7 +13292,7 @@
         </is>
       </c>
       <c r="B1286" t="n">
-        <v>84319.98</v>
+        <v>84332.86</v>
       </c>
     </row>
     <row r="1287">
@@ -13352,7 +13352,7 @@
         </is>
       </c>
       <c r="B1292" t="n">
-        <v>83010.2</v>
+        <v>82886.05</v>
       </c>
     </row>
     <row r="1293">
@@ -13412,7 +13412,7 @@
         </is>
       </c>
       <c r="B1298" t="n">
-        <v>82294.46000000001</v>
+        <v>82350.82000000001</v>
       </c>
     </row>
     <row r="1299">
@@ -13432,7 +13432,7 @@
         </is>
       </c>
       <c r="B1300" t="n">
-        <v>82660.05</v>
+        <v>82645.59</v>
       </c>
     </row>
     <row r="1301">
@@ -13442,7 +13442,7 @@
         </is>
       </c>
       <c r="B1301" t="n">
-        <v>82819.55</v>
+        <v>82783.46000000001</v>
       </c>
     </row>
     <row r="1302">
@@ -13522,7 +13522,7 @@
         </is>
       </c>
       <c r="B1309" t="n">
-        <v>82576.74000000001</v>
+        <v>82693.91</v>
       </c>
     </row>
     <row r="1310">
@@ -13542,7 +13542,7 @@
         </is>
       </c>
       <c r="B1311" t="n">
-        <v>83222.78999999999</v>
+        <v>83237.77</v>
       </c>
     </row>
     <row r="1312">
@@ -13772,7 +13772,7 @@
         </is>
       </c>
       <c r="B1334" t="n">
-        <v>84197.64</v>
+        <v>84163.99000000001</v>
       </c>
     </row>
     <row r="1335">
@@ -13802,7 +13802,7 @@
         </is>
       </c>
       <c r="B1337" t="n">
-        <v>84215.49000000001</v>
+        <v>84184.05</v>
       </c>
     </row>
     <row r="1338">
@@ -13842,7 +13842,7 @@
         </is>
       </c>
       <c r="B1341" t="n">
-        <v>84027.66</v>
+        <v>84029.25</v>
       </c>
     </row>
     <row r="1342">
@@ -13892,7 +13892,7 @@
         </is>
       </c>
       <c r="B1346" t="n">
-        <v>83674.03999999999</v>
+        <v>83695.5</v>
       </c>
     </row>
     <row r="1347">
@@ -13962,7 +13962,7 @@
         </is>
       </c>
       <c r="B1353" t="n">
-        <v>83954.17999999999</v>
+        <v>83950.75</v>
       </c>
     </row>
     <row r="1354">
@@ -14002,7 +14002,7 @@
         </is>
       </c>
       <c r="B1357" t="n">
-        <v>83923.27</v>
+        <v>83937.61</v>
       </c>
     </row>
     <row r="1358">
@@ -14102,7 +14102,7 @@
         </is>
       </c>
       <c r="B1367" t="n">
-        <v>83808.34</v>
+        <v>83813.21000000001</v>
       </c>
     </row>
     <row r="1368">
@@ -14162,7 +14162,7 @@
         </is>
       </c>
       <c r="B1373" t="n">
-        <v>83412.44</v>
+        <v>83446.75999999999</v>
       </c>
     </row>
     <row r="1374">
@@ -14172,7 +14172,7 @@
         </is>
       </c>
       <c r="B1374" t="n">
-        <v>83412.63</v>
+        <v>83385.02</v>
       </c>
     </row>
     <row r="1375">
@@ -14222,7 +14222,7 @@
         </is>
       </c>
       <c r="B1379" t="n">
-        <v>83370.27</v>
+        <v>83369.03999999999</v>
       </c>
     </row>
     <row r="1380">
@@ -14262,7 +14262,7 @@
         </is>
       </c>
       <c r="B1383" t="n">
-        <v>83688.32000000001</v>
+        <v>83675.25</v>
       </c>
     </row>
     <row r="1384">
@@ -14272,7 +14272,7 @@
         </is>
       </c>
       <c r="B1384" t="n">
-        <v>83677.2</v>
+        <v>83697.89</v>
       </c>
     </row>
     <row r="1385">
@@ -14412,7 +14412,7 @@
         </is>
       </c>
       <c r="B1398" t="n">
-        <v>83150.89999999999</v>
+        <v>83153.98</v>
       </c>
     </row>
     <row r="1399">
@@ -14462,7 +14462,7 @@
         </is>
       </c>
       <c r="B1403" t="n">
-        <v>82852.5</v>
+        <v>82853.05</v>
       </c>
     </row>
     <row r="1404">
@@ -14522,7 +14522,7 @@
         </is>
       </c>
       <c r="B1409" t="n">
-        <v>82565.72</v>
+        <v>82566.14</v>
       </c>
     </row>
     <row r="1410">
@@ -14682,7 +14682,7 @@
         </is>
       </c>
       <c r="B1425" t="n">
-        <v>82776.66</v>
+        <v>82787</v>
       </c>
     </row>
     <row r="1426">
@@ -14792,7 +14792,7 @@
         </is>
       </c>
       <c r="B1436" t="n">
-        <v>83017.66</v>
+        <v>83039.53999999999</v>
       </c>
     </row>
     <row r="1437">
@@ -14802,7 +14802,7 @@
         </is>
       </c>
       <c r="B1437" t="n">
-        <v>83135.7</v>
+        <v>83149.06</v>
       </c>
     </row>
     <row r="1438">
@@ -14862,7 +14862,7 @@
         </is>
       </c>
       <c r="B1443" t="n">
-        <v>83511.62</v>
+        <v>83506.89999999999</v>
       </c>
     </row>
     <row r="1444">
@@ -14902,7 +14902,7 @@
         </is>
       </c>
       <c r="B1447" t="n">
-        <v>83600.39999999999</v>
+        <v>83565.52</v>
       </c>
     </row>
     <row r="1448">
@@ -14922,7 +14922,7 @@
         </is>
       </c>
       <c r="B1449" t="n">
-        <v>83415.25</v>
+        <v>83411.13</v>
       </c>
     </row>
     <row r="1450">
@@ -14972,7 +14972,7 @@
         </is>
       </c>
       <c r="B1454" t="n">
-        <v>83314.67</v>
+        <v>83320.47</v>
       </c>
     </row>
     <row r="1455">
@@ -15122,7 +15122,7 @@
         </is>
       </c>
       <c r="B1469" t="n">
-        <v>83155.45</v>
+        <v>83125.67</v>
       </c>
     </row>
     <row r="1470">
@@ -15132,7 +15132,7 @@
         </is>
       </c>
       <c r="B1470" t="n">
-        <v>83137.35000000001</v>
+        <v>83142.38</v>
       </c>
     </row>
     <row r="1471">
@@ -15152,7 +15152,7 @@
         </is>
       </c>
       <c r="B1472" t="n">
-        <v>83058.14</v>
+        <v>83045.7</v>
       </c>
     </row>
     <row r="1473">
@@ -15162,7 +15162,7 @@
         </is>
       </c>
       <c r="B1473" t="n">
-        <v>83011.2</v>
+        <v>82996.96000000001</v>
       </c>
     </row>
     <row r="1474">
@@ -15262,7 +15262,7 @@
         </is>
       </c>
       <c r="B1483" t="n">
-        <v>82781.50999999999</v>
+        <v>82772.24000000001</v>
       </c>
     </row>
     <row r="1484">
@@ -15442,7 +15442,7 @@
         </is>
       </c>
       <c r="B1501" t="n">
-        <v>82512.78999999999</v>
+        <v>82555.71000000001</v>
       </c>
     </row>
     <row r="1502">
@@ -15572,7 +15572,7 @@
         </is>
       </c>
       <c r="B1514" t="n">
-        <v>80348.36</v>
+        <v>80379.10000000001</v>
       </c>
     </row>
     <row r="1515">
@@ -15602,7 +15602,7 @@
         </is>
       </c>
       <c r="B1517" t="n">
-        <v>78977.82000000001</v>
+        <v>78934.62</v>
       </c>
     </row>
     <row r="1518">
@@ -15612,7 +15612,7 @@
         </is>
       </c>
       <c r="B1518" t="n">
-        <v>79131.22</v>
+        <v>79206.06</v>
       </c>
     </row>
     <row r="1519">
@@ -15672,7 +15672,7 @@
         </is>
       </c>
       <c r="B1524" t="n">
-        <v>79435.3</v>
+        <v>79255.10000000001</v>
       </c>
     </row>
     <row r="1525">
@@ -15682,7 +15682,7 @@
         </is>
       </c>
       <c r="B1525" t="n">
-        <v>78810</v>
+        <v>78802.14999999999</v>
       </c>
     </row>
     <row r="1526">
@@ -15742,7 +15742,7 @@
         </is>
       </c>
       <c r="B1531" t="n">
-        <v>78843.72</v>
+        <v>78955.62</v>
       </c>
     </row>
     <row r="1532">
@@ -15772,7 +15772,7 @@
         </is>
       </c>
       <c r="B1534" t="n">
-        <v>77488.77</v>
+        <v>77530.27</v>
       </c>
     </row>
     <row r="1535">
@@ -15782,7 +15782,7 @@
         </is>
       </c>
       <c r="B1535" t="n">
-        <v>77450.86</v>
+        <v>77483.55</v>
       </c>
     </row>
     <row r="1536">
@@ -15852,7 +15852,7 @@
         </is>
       </c>
       <c r="B1542" t="n">
-        <v>78678.46000000001</v>
+        <v>78717.69</v>
       </c>
     </row>
     <row r="1543">
@@ -15882,7 +15882,7 @@
         </is>
       </c>
       <c r="B1545" t="n">
-        <v>79068.2</v>
+        <v>79159.7</v>
       </c>
     </row>
     <row r="1546">
@@ -15922,7 +15922,7 @@
         </is>
       </c>
       <c r="B1549" t="n">
-        <v>78382.2</v>
+        <v>78381.87</v>
       </c>
     </row>
     <row r="1550">
@@ -15962,7 +15962,7 @@
         </is>
       </c>
       <c r="B1553" t="n">
-        <v>77577.7</v>
+        <v>77584.98</v>
       </c>
     </row>
     <row r="1554">
@@ -16092,7 +16092,7 @@
         </is>
       </c>
       <c r="B1566" t="n">
-        <v>75018.22</v>
+        <v>75037.25999999999</v>
       </c>
     </row>
     <row r="1567">
@@ -16222,7 +16222,7 @@
         </is>
       </c>
       <c r="B1579" t="n">
-        <v>77082.8</v>
+        <v>77073.13</v>
       </c>
     </row>
     <row r="1580">
@@ -16402,7 +16402,7 @@
         </is>
       </c>
       <c r="B1597" t="n">
-        <v>78970.84</v>
+        <v>78982.77</v>
       </c>
     </row>
     <row r="1598">
@@ -16412,7 +16412,7 @@
         </is>
       </c>
       <c r="B1598" t="n">
-        <v>78499.50999999999</v>
+        <v>78721.23</v>
       </c>
     </row>
     <row r="1599">
@@ -16442,7 +16442,7 @@
         </is>
       </c>
       <c r="B1601" t="n">
-        <v>78683.60000000001</v>
+        <v>78540.28</v>
       </c>
     </row>
     <row r="1602">
@@ -16472,7 +16472,7 @@
         </is>
       </c>
       <c r="B1604" t="n">
-        <v>77914.44</v>
+        <v>77844.7</v>
       </c>
     </row>
     <row r="1605">
@@ -16552,7 +16552,7 @@
         </is>
       </c>
       <c r="B1612" t="n">
-        <v>78933.71000000001</v>
+        <v>78891.7</v>
       </c>
     </row>
     <row r="1613">
@@ -16572,7 +16572,7 @@
         </is>
       </c>
       <c r="B1614" t="n">
-        <v>78353.16</v>
+        <v>78383.07000000001</v>
       </c>
     </row>
     <row r="1615">
@@ -16592,7 +16592,7 @@
         </is>
       </c>
       <c r="B1616" t="n">
-        <v>78228.16</v>
+        <v>78172.73</v>
       </c>
     </row>
     <row r="1617">
@@ -16642,7 +16642,7 @@
         </is>
       </c>
       <c r="B1621" t="n">
-        <v>78813.86</v>
+        <v>78801.33</v>
       </c>
     </row>
     <row r="1622">
@@ -16802,7 +16802,7 @@
         </is>
       </c>
       <c r="B1637" t="n">
-        <v>79061.53</v>
+        <v>78990.57000000001</v>
       </c>
     </row>
     <row r="1638">
@@ -16882,7 +16882,7 @@
         </is>
       </c>
       <c r="B1645" t="n">
-        <v>79891.25</v>
+        <v>79911.47</v>
       </c>
     </row>
     <row r="1646">
@@ -16982,7 +16982,7 @@
         </is>
       </c>
       <c r="B1655" t="n">
-        <v>79611.97</v>
+        <v>79598.23</v>
       </c>
     </row>
     <row r="1656">
@@ -17002,7 +17002,7 @@
         </is>
       </c>
       <c r="B1657" t="n">
-        <v>79817.75999999999</v>
+        <v>79820.36</v>
       </c>
     </row>
     <row r="1658">
@@ -17032,7 +17032,7 @@
         </is>
       </c>
       <c r="B1660" t="n">
-        <v>79485.91</v>
+        <v>79513.78999999999</v>
       </c>
     </row>
     <row r="1661">
@@ -17102,7 +17102,7 @@
         </is>
       </c>
       <c r="B1667" t="n">
-        <v>78971.87</v>
+        <v>78970.7</v>
       </c>
     </row>
     <row r="1668">
@@ -17202,7 +17202,7 @@
         </is>
       </c>
       <c r="B1677" t="n">
-        <v>78961.67999999999</v>
+        <v>78966.89</v>
       </c>
     </row>
     <row r="1678">
@@ -17242,7 +17242,7 @@
         </is>
       </c>
       <c r="B1681" t="n">
-        <v>79869.57000000001</v>
+        <v>79980.86</v>
       </c>
     </row>
     <row r="1682">
@@ -17252,7 +17252,7 @@
         </is>
       </c>
       <c r="B1682" t="n">
-        <v>80051.63</v>
+        <v>80026.05</v>
       </c>
     </row>
     <row r="1683">
@@ -17672,7 +17672,7 @@
         </is>
       </c>
       <c r="B1724" t="n">
-        <v>76337.92</v>
+        <v>76378.95</v>
       </c>
     </row>
     <row r="1725">
@@ -17682,7 +17682,7 @@
         </is>
       </c>
       <c r="B1725" t="n">
-        <v>76719.98</v>
+        <v>76697.05</v>
       </c>
     </row>
     <row r="1726">
@@ -17872,7 +17872,7 @@
         </is>
       </c>
       <c r="B1744" t="n">
-        <v>75210.91</v>
+        <v>75259.03999999999</v>
       </c>
     </row>
     <row r="1745">
@@ -18052,7 +18052,7 @@
         </is>
       </c>
       <c r="B1762" t="n">
-        <v>77399.89999999999</v>
+        <v>77366.64999999999</v>
       </c>
     </row>
     <row r="1763">
@@ -18092,7 +18092,7 @@
         </is>
       </c>
       <c r="B1766" t="n">
-        <v>77322.05</v>
+        <v>77298.36</v>
       </c>
     </row>
     <row r="1767">
@@ -18262,7 +18262,7 @@
         </is>
       </c>
       <c r="B1783" t="n">
-        <v>76776.94</v>
+        <v>76758.78999999999</v>
       </c>
     </row>
     <row r="1784">
@@ -18302,7 +18302,7 @@
         </is>
       </c>
       <c r="B1787" t="n">
-        <v>77421.38</v>
+        <v>77432.52</v>
       </c>
     </row>
     <row r="1788">
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="B1792" t="n">
-        <v>77022.62</v>
+        <v>77051.38</v>
       </c>
     </row>
     <row r="1793">
@@ -18432,7 +18432,7 @@
         </is>
       </c>
       <c r="B1800" t="n">
-        <v>81330.07000000001</v>
+        <v>81319.71000000001</v>
       </c>
     </row>
     <row r="1801">
@@ -18492,7 +18492,7 @@
         </is>
       </c>
       <c r="B1806" t="n">
-        <v>82052.72</v>
+        <v>82096.85000000001</v>
       </c>
     </row>
     <row r="1807">
@@ -18592,7 +18592,7 @@
         </is>
       </c>
       <c r="B1816" t="n">
-        <v>83004.05</v>
+        <v>82986.66</v>
       </c>
     </row>
     <row r="1817">
@@ -18722,7 +18722,7 @@
         </is>
       </c>
       <c r="B1829" t="n">
-        <v>82276.57000000001</v>
+        <v>82318.63</v>
       </c>
     </row>
     <row r="1830">
@@ -19042,7 +19042,7 @@
         </is>
       </c>
       <c r="B1861" t="n">
-        <v>81478.48</v>
+        <v>81499.44</v>
       </c>
     </row>
     <row r="1862">
@@ -19092,7 +19092,7 @@
         </is>
       </c>
       <c r="B1866" t="n">
-        <v>82086.09</v>
+        <v>82030.87</v>
       </c>
     </row>
     <row r="1867">
@@ -19232,7 +19232,7 @@
         </is>
       </c>
       <c r="B1880" t="n">
-        <v>80881.00999999999</v>
+        <v>80770.36</v>
       </c>
     </row>
     <row r="1881">
@@ -19312,7 +19312,7 @@
         </is>
       </c>
       <c r="B1888" t="n">
-        <v>79405.77</v>
+        <v>79258.64999999999</v>
       </c>
     </row>
     <row r="1889">
@@ -19422,7 +19422,7 @@
         </is>
       </c>
       <c r="B1899" t="n">
-        <v>79704.34</v>
+        <v>79691.67</v>
       </c>
     </row>
     <row r="1900">
@@ -19492,7 +19492,7 @@
         </is>
       </c>
       <c r="B1906" t="n">
-        <v>79883.52</v>
+        <v>79783.08</v>
       </c>
     </row>
     <row r="1907">
@@ -19562,7 +19562,7 @@
         </is>
       </c>
       <c r="B1913" t="n">
-        <v>79675.05</v>
+        <v>79672.05</v>
       </c>
     </row>
     <row r="1914">
@@ -19992,7 +19992,7 @@
         </is>
       </c>
       <c r="B1956" t="n">
-        <v>81613.45</v>
+        <v>81533.12</v>
       </c>
     </row>
     <row r="1957">
@@ -20132,7 +20132,7 @@
         </is>
       </c>
       <c r="B1970" t="n">
-        <v>81876.12</v>
+        <v>81880.44</v>
       </c>
     </row>
     <row r="1971">
@@ -20162,7 +20162,7 @@
         </is>
       </c>
       <c r="B1973" t="n">
-        <v>82000.7</v>
+        <v>82004.32000000001</v>
       </c>
     </row>
     <row r="1974">
@@ -20382,7 +20382,7 @@
         </is>
       </c>
       <c r="B1995" t="n">
-        <v>83862.38</v>
+        <v>83915.55</v>
       </c>
     </row>
     <row r="1996">
@@ -20392,7 +20392,7 @@
         </is>
       </c>
       <c r="B1996" t="n">
-        <v>83817.12</v>
+        <v>83805.66</v>
       </c>
     </row>
     <row r="1997">
@@ -20432,7 +20432,7 @@
         </is>
       </c>
       <c r="B2000" t="n">
-        <v>83793.24000000001</v>
+        <v>83800.81</v>
       </c>
     </row>
     <row r="2001">
@@ -20532,7 +20532,7 @@
         </is>
       </c>
       <c r="B2010" t="n">
-        <v>83556.97</v>
+        <v>83546.27</v>
       </c>
     </row>
     <row r="2011">
@@ -20742,7 +20742,7 @@
         </is>
       </c>
       <c r="B2031" t="n">
-        <v>83003.74000000001</v>
+        <v>82991.3</v>
       </c>
     </row>
     <row r="2032">
@@ -20812,7 +20812,7 @@
         </is>
       </c>
       <c r="B2038" t="n">
-        <v>83268.11</v>
+        <v>83267.48</v>
       </c>
     </row>
     <row r="2039">
@@ -20892,7 +20892,7 @@
         </is>
       </c>
       <c r="B2046" t="n">
-        <v>83499.09</v>
+        <v>83483.75999999999</v>
       </c>
     </row>
     <row r="2047">
@@ -20982,7 +20982,7 @@
         </is>
       </c>
       <c r="B2055" t="n">
-        <v>83438.34</v>
+        <v>83438.7</v>
       </c>
     </row>
     <row r="2056">
@@ -21012,7 +21012,7 @@
         </is>
       </c>
       <c r="B2058" t="n">
-        <v>83460.92999999999</v>
+        <v>83457.2</v>
       </c>
     </row>
     <row r="2059">
@@ -21182,7 +21182,7 @@
         </is>
       </c>
       <c r="B2075" t="n">
-        <v>84799.16</v>
+        <v>84798.24000000001</v>
       </c>
     </row>
     <row r="2076">
@@ -21362,7 +21362,7 @@
         </is>
       </c>
       <c r="B2093" t="n">
-        <v>85150.95</v>
+        <v>85144.72</v>
       </c>
     </row>
     <row r="2094">
@@ -21372,7 +21372,7 @@
         </is>
       </c>
       <c r="B2094" t="n">
-        <v>85047.85000000001</v>
+        <v>85073.38</v>
       </c>
     </row>
     <row r="2095">
@@ -21432,7 +21432,7 @@
         </is>
       </c>
       <c r="B2100" t="n">
-        <v>85787.16</v>
+        <v>85852.02</v>
       </c>
     </row>
     <row r="2101">
@@ -21542,7 +21542,7 @@
         </is>
       </c>
       <c r="B2111" t="n">
-        <v>85189.57000000001</v>
+        <v>85200.46000000001</v>
       </c>
     </row>
     <row r="2112">
@@ -21732,7 +21732,7 @@
         </is>
       </c>
       <c r="B2130" t="n">
-        <v>85077.24000000001</v>
+        <v>85111</v>
       </c>
     </row>
     <row r="2131">
@@ -21832,7 +21832,7 @@
         </is>
       </c>
       <c r="B2140" t="n">
-        <v>84720.48</v>
+        <v>84725.5</v>
       </c>
     </row>
     <row r="2141">
@@ -22002,7 +22002,7 @@
         </is>
       </c>
       <c r="B2157" t="n">
-        <v>84670.08</v>
+        <v>84667.48</v>
       </c>
     </row>
     <row r="2158">
@@ -22062,7 +22062,7 @@
         </is>
       </c>
       <c r="B2163" t="n">
-        <v>84287.56</v>
+        <v>84262.72</v>
       </c>
     </row>
     <row r="2164">
@@ -22172,7 +22172,7 @@
         </is>
       </c>
       <c r="B2174" t="n">
-        <v>83773.09</v>
+        <v>83795.31</v>
       </c>
     </row>
     <row r="2175">
@@ -22312,7 +22312,7 @@
         </is>
       </c>
       <c r="B2188" t="n">
-        <v>84802.48</v>
+        <v>84813.3</v>
       </c>
     </row>
     <row r="2189">
@@ -22492,7 +22492,7 @@
         </is>
       </c>
       <c r="B2206" t="n">
-        <v>83516.66</v>
+        <v>83543.34</v>
       </c>
     </row>
     <row r="2207">
@@ -22752,7 +22752,7 @@
         </is>
       </c>
       <c r="B2232" t="n">
-        <v>84361.02</v>
+        <v>84377.89</v>
       </c>
     </row>
     <row r="2233">
@@ -22792,7 +22792,7 @@
         </is>
       </c>
       <c r="B2236" t="n">
-        <v>84540.28</v>
+        <v>84539.42999999999</v>
       </c>
     </row>
     <row r="2237">
@@ -22892,7 +22892,7 @@
         </is>
       </c>
       <c r="B2246" t="n">
-        <v>84827.62</v>
+        <v>84855.09</v>
       </c>
     </row>
     <row r="2247">
@@ -22902,7 +22902,7 @@
         </is>
       </c>
       <c r="B2247" t="n">
-        <v>84485.25999999999</v>
+        <v>84516.36</v>
       </c>
     </row>
     <row r="2248">
@@ -23002,7 +23002,7 @@
         </is>
       </c>
       <c r="B2257" t="n">
-        <v>84869.34</v>
+        <v>84902.25</v>
       </c>
     </row>
     <row r="2258">
@@ -23052,7 +23052,7 @@
         </is>
       </c>
       <c r="B2262" t="n">
-        <v>85057.23</v>
+        <v>85068.67</v>
       </c>
     </row>
     <row r="2263">
@@ -23082,7 +23082,7 @@
         </is>
       </c>
       <c r="B2265" t="n">
-        <v>84463.19</v>
+        <v>84460.98</v>
       </c>
     </row>
     <row r="2266">
@@ -23112,7 +23112,7 @@
         </is>
       </c>
       <c r="B2268" t="n">
-        <v>85483.41</v>
+        <v>85476.3</v>
       </c>
     </row>
     <row r="2269">
@@ -23242,7 +23242,7 @@
         </is>
       </c>
       <c r="B2281" t="n">
-        <v>84820.33</v>
+        <v>84874.98</v>
       </c>
     </row>
     <row r="2282">
@@ -23272,7 +23272,7 @@
         </is>
       </c>
       <c r="B2284" t="n">
-        <v>84842.23</v>
+        <v>84885.86</v>
       </c>
     </row>
     <row r="2285">
@@ -23312,7 +23312,7 @@
         </is>
       </c>
       <c r="B2288" t="n">
-        <v>85065.87</v>
+        <v>85039.09</v>
       </c>
     </row>
     <row r="2289">
@@ -23352,7 +23352,7 @@
         </is>
       </c>
       <c r="B2292" t="n">
-        <v>84612.77</v>
+        <v>84611.21000000001</v>
       </c>
     </row>
     <row r="2293">
@@ -23632,7 +23632,7 @@
         </is>
       </c>
       <c r="B2320" t="n">
-        <v>85240.66</v>
+        <v>85261.36</v>
       </c>
     </row>
     <row r="2321">
@@ -27702,7 +27702,7 @@
         </is>
       </c>
       <c r="B2727" t="n">
-        <v>85382.31</v>
+        <v>85379.88</v>
       </c>
     </row>
     <row r="2728">
@@ -40202,7 +40202,7 @@
         </is>
       </c>
       <c r="B3977" t="n">
-        <v>96671.78</v>
+        <v>96660.8</v>
       </c>
     </row>
     <row r="3978">
@@ -40682,7 +40682,7 @@
         </is>
       </c>
       <c r="B4025" t="n">
-        <v>96628.38</v>
+        <v>96804.67</v>
       </c>
     </row>
     <row r="4026">
@@ -43612,7 +43612,7 @@
         </is>
       </c>
       <c r="B4318" t="n">
-        <v>95060.32000000001</v>
+        <v>95048.16</v>
       </c>
     </row>
     <row r="4319">
@@ -47792,7 +47792,7 @@
         </is>
       </c>
       <c r="B4736" t="n">
-        <v>103693.98</v>
+        <v>103697.75</v>
       </c>
     </row>
     <row r="4737">
@@ -49882,7 +49882,7 @@
         </is>
       </c>
       <c r="B4945" t="n">
-        <v>103752.06</v>
+        <v>103747.55</v>
       </c>
     </row>
     <row r="4946">
@@ -50842,7 +50842,7 @@
         </is>
       </c>
       <c r="B5041" t="n">
-        <v>103705.94</v>
+        <v>103687.08</v>
       </c>
     </row>
     <row r="5042">
@@ -54342,7 +54342,7 @@
         </is>
       </c>
       <c r="B5391" t="n">
-        <v>103235.99</v>
+        <v>103217.06</v>
       </c>
     </row>
     <row r="5392">
@@ -56242,7 +56242,7 @@
         </is>
       </c>
       <c r="B5581" t="n">
-        <v>104639.44</v>
+        <v>104627.81</v>
       </c>
     </row>
     <row r="5582">
@@ -57842,7 +57842,7 @@
         </is>
       </c>
       <c r="B5741" t="n">
-        <v>105362.58</v>
+        <v>105297.04</v>
       </c>
     </row>
     <row r="5742">
@@ -58002,7 +58002,7 @@
         </is>
       </c>
       <c r="B5757" t="n">
-        <v>106825.12</v>
+        <v>106836.06</v>
       </c>
     </row>
     <row r="5758">
@@ -58012,7 +58012,27 @@
         </is>
       </c>
       <c r="B5758" t="n">
-        <v>106890.99</v>
+        <v>106886.73</v>
+      </c>
+    </row>
+    <row r="5759">
+      <c r="A5759" t="inlineStr">
+        <is>
+          <t>2025-05-20 23:15</t>
+        </is>
+      </c>
+      <c r="B5759" t="n">
+        <v>106998.61</v>
+      </c>
+    </row>
+    <row r="5760">
+      <c r="A5760" t="inlineStr">
+        <is>
+          <t>2025-05-20 23:30</t>
+        </is>
+      </c>
+      <c r="B5760" t="n">
+        <v>106976.15</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/bitcoin_close_15min.xlsx
+++ b/Uploads/bitcoin_close_15min.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5693"/>
+  <dimension ref="A1:B5695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>83996.59</v>
+        <v>84001.81</v>
       </c>
     </row>
     <row r="6">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>85014.39</v>
+        <v>85016.38</v>
       </c>
     </row>
     <row r="82">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>86129.77</v>
+        <v>86008.27</v>
       </c>
     </row>
     <row r="102">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>85920.72</v>
+        <v>85956.24000000001</v>
       </c>
     </row>
     <row r="110">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>87684.48</v>
+        <v>87699.48</v>
       </c>
     </row>
     <row r="146">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>87421.7</v>
+        <v>87437.28999999999</v>
       </c>
     </row>
     <row r="153">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>87392.25</v>
+        <v>87398.42999999999</v>
       </c>
     </row>
     <row r="190">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>86519.59</v>
+        <v>86430.03999999999</v>
       </c>
     </row>
     <row r="215">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>86741.47</v>
+        <v>86696.52</v>
       </c>
     </row>
     <row r="218">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>86512.3</v>
+        <v>86524.66</v>
       </c>
     </row>
     <row r="227">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>87660.52</v>
+        <v>87625.77</v>
       </c>
     </row>
     <row r="250">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>88245.42999999999</v>
+        <v>88192.13</v>
       </c>
     </row>
     <row r="263">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>87562.03</v>
+        <v>87600.23</v>
       </c>
     </row>
     <row r="285">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>87611.24000000001</v>
+        <v>87597.96000000001</v>
       </c>
     </row>
     <row r="292">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>87686.05</v>
+        <v>87677.73</v>
       </c>
     </row>
     <row r="294">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>87915.58</v>
+        <v>87921.60000000001</v>
       </c>
     </row>
     <row r="318">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>87957.48</v>
+        <v>87992.78</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>87942</v>
+        <v>87939.42999999999</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>87988.7</v>
+        <v>87997.11</v>
       </c>
     </row>
     <row r="328">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>88184.14</v>
+        <v>88143.77</v>
       </c>
     </row>
     <row r="333">
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>86772.38</v>
+        <v>86828.59</v>
       </c>
     </row>
     <row r="350">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>86803.12</v>
+        <v>86731.3</v>
       </c>
     </row>
     <row r="361">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>87131.3</v>
+        <v>87163.55</v>
       </c>
     </row>
     <row r="389">
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>87421.8</v>
+        <v>87433.00999999999</v>
       </c>
     </row>
     <row r="408">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B419" t="n">
-        <v>87395.34</v>
+        <v>87408.37</v>
       </c>
     </row>
     <row r="420">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>87443.08</v>
+        <v>87444.66</v>
       </c>
     </row>
     <row r="422">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="B442" t="n">
-        <v>86258.10000000001</v>
+        <v>86413.49000000001</v>
       </c>
     </row>
     <row r="443">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="B468" t="n">
-        <v>87292.57000000001</v>
+        <v>87299.33</v>
       </c>
     </row>
     <row r="469">
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="B499" t="n">
-        <v>86747.02</v>
+        <v>86730.03</v>
       </c>
     </row>
     <row r="500">
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="B517" t="n">
-        <v>85208.87</v>
+        <v>85212.05</v>
       </c>
     </row>
     <row r="518">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="B536" t="n">
-        <v>85438.22</v>
+        <v>85349.84</v>
       </c>
     </row>
     <row r="537">
@@ -6462,7 +6462,7 @@
         </is>
       </c>
       <c r="B603" t="n">
-        <v>83688.98</v>
+        <v>83668.3</v>
       </c>
     </row>
     <row r="604">
@@ -6782,7 +6782,7 @@
         </is>
       </c>
       <c r="B635" t="n">
-        <v>82508.16</v>
+        <v>82479.49000000001</v>
       </c>
     </row>
     <row r="636">
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="B667" t="n">
-        <v>82394.21000000001</v>
+        <v>82395.05</v>
       </c>
     </row>
     <row r="668">
@@ -7142,7 +7142,7 @@
         </is>
       </c>
       <c r="B671" t="n">
-        <v>82455.46000000001</v>
+        <v>82441.77</v>
       </c>
     </row>
     <row r="672">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="B672" t="n">
-        <v>82444.55</v>
+        <v>82469.07000000001</v>
       </c>
     </row>
     <row r="673">
@@ -7382,7 +7382,7 @@
         </is>
       </c>
       <c r="B695" t="n">
-        <v>83161.28</v>
+        <v>83164.94</v>
       </c>
     </row>
     <row r="696">
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="B720" t="n">
-        <v>83017.53999999999</v>
+        <v>83027.62</v>
       </c>
     </row>
     <row r="721">
@@ -7962,7 +7962,7 @@
         </is>
       </c>
       <c r="B753" t="n">
-        <v>82551.71000000001</v>
+        <v>82528.14</v>
       </c>
     </row>
     <row r="754">
@@ -8342,7 +8342,7 @@
         </is>
       </c>
       <c r="B791" t="n">
-        <v>82234.74000000001</v>
+        <v>82247.3</v>
       </c>
     </row>
     <row r="792">
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="B802" t="n">
-        <v>82165.45</v>
+        <v>82185.55</v>
       </c>
     </row>
     <row r="803">
@@ -8572,7 +8572,7 @@
         </is>
       </c>
       <c r="B814" t="n">
-        <v>82090.91</v>
+        <v>82116.77</v>
       </c>
     </row>
     <row r="815">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="B824" t="n">
-        <v>82088.67999999999</v>
+        <v>82018.11</v>
       </c>
     </row>
     <row r="825">
@@ -8742,7 +8742,7 @@
         </is>
       </c>
       <c r="B831" t="n">
-        <v>83729.82000000001</v>
+        <v>83719.77</v>
       </c>
     </row>
     <row r="832">
@@ -9102,7 +9102,7 @@
         </is>
       </c>
       <c r="B867" t="n">
-        <v>82729.67</v>
+        <v>82683.5</v>
       </c>
     </row>
     <row r="868">
@@ -10112,7 +10112,7 @@
         </is>
       </c>
       <c r="B968" t="n">
-        <v>85196.09</v>
+        <v>85181.22</v>
       </c>
     </row>
     <row r="969">
@@ -10122,7 +10122,7 @@
         </is>
       </c>
       <c r="B969" t="n">
-        <v>85109.87</v>
+        <v>85159.95</v>
       </c>
     </row>
     <row r="970">
@@ -10362,7 +10362,7 @@
         </is>
       </c>
       <c r="B993" t="n">
-        <v>84376.06</v>
+        <v>84431.3</v>
       </c>
     </row>
     <row r="994">
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="B1009" t="n">
-        <v>84554.09</v>
+        <v>84545.71000000001</v>
       </c>
     </row>
     <row r="1010">
@@ -10542,7 +10542,7 @@
         </is>
       </c>
       <c r="B1011" t="n">
-        <v>84696.41</v>
+        <v>84659.00999999999</v>
       </c>
     </row>
     <row r="1012">
@@ -10872,7 +10872,7 @@
         </is>
       </c>
       <c r="B1044" t="n">
-        <v>85464.2</v>
+        <v>85314.48</v>
       </c>
     </row>
     <row r="1045">
@@ -10902,7 +10902,7 @@
         </is>
       </c>
       <c r="B1047" t="n">
-        <v>84703.53</v>
+        <v>84669.32000000001</v>
       </c>
     </row>
     <row r="1048">
@@ -10972,7 +10972,7 @@
         </is>
       </c>
       <c r="B1054" t="n">
-        <v>82510.16</v>
+        <v>82601.56</v>
       </c>
     </row>
     <row r="1055">
@@ -11052,7 +11052,7 @@
         </is>
       </c>
       <c r="B1062" t="n">
-        <v>83300.98</v>
+        <v>83321.75999999999</v>
       </c>
     </row>
     <row r="1063">
@@ -11072,7 +11072,7 @@
         </is>
       </c>
       <c r="B1064" t="n">
-        <v>83629.95</v>
+        <v>83667.98</v>
       </c>
     </row>
     <row r="1065">
@@ -11122,7 +11122,7 @@
         </is>
       </c>
       <c r="B1069" t="n">
-        <v>83737.62</v>
+        <v>83729.32000000001</v>
       </c>
     </row>
     <row r="1070">
@@ -11142,7 +11142,7 @@
         </is>
       </c>
       <c r="B1071" t="n">
-        <v>83581.59</v>
+        <v>83599.56</v>
       </c>
     </row>
     <row r="1072">
@@ -11242,7 +11242,7 @@
         </is>
       </c>
       <c r="B1081" t="n">
-        <v>83386.55</v>
+        <v>83401.62</v>
       </c>
     </row>
     <row r="1082">
@@ -11282,7 +11282,7 @@
         </is>
       </c>
       <c r="B1085" t="n">
-        <v>83038.41</v>
+        <v>83014.34</v>
       </c>
     </row>
     <row r="1086">
@@ -11392,7 +11392,7 @@
         </is>
       </c>
       <c r="B1096" t="n">
-        <v>83716.24000000001</v>
+        <v>83726.82000000001</v>
       </c>
     </row>
     <row r="1097">
@@ -11522,7 +11522,7 @@
         </is>
       </c>
       <c r="B1109" t="n">
-        <v>81986.05</v>
+        <v>82035.78</v>
       </c>
     </row>
     <row r="1110">
@@ -11552,7 +11552,7 @@
         </is>
       </c>
       <c r="B1112" t="n">
-        <v>82501.62</v>
+        <v>82296.19</v>
       </c>
     </row>
     <row r="1113">
@@ -11712,7 +11712,7 @@
         </is>
       </c>
       <c r="B1128" t="n">
-        <v>82020.53999999999</v>
+        <v>82067.69</v>
       </c>
     </row>
     <row r="1129">
@@ -11922,7 +11922,7 @@
         </is>
       </c>
       <c r="B1149" t="n">
-        <v>82658.25</v>
+        <v>82674.91</v>
       </c>
     </row>
     <row r="1150">
@@ -11992,7 +11992,7 @@
         </is>
       </c>
       <c r="B1156" t="n">
-        <v>83293.25999999999</v>
+        <v>83254.44</v>
       </c>
     </row>
     <row r="1157">
@@ -12022,7 +12022,7 @@
         </is>
       </c>
       <c r="B1159" t="n">
-        <v>83069.75</v>
+        <v>83057.17</v>
       </c>
     </row>
     <row r="1160">
@@ -12042,7 +12042,7 @@
         </is>
       </c>
       <c r="B1161" t="n">
-        <v>82575.49000000001</v>
+        <v>82590.45</v>
       </c>
     </row>
     <row r="1162">
@@ -12122,7 +12122,7 @@
         </is>
       </c>
       <c r="B1169" t="n">
-        <v>82766.91</v>
+        <v>82782.63</v>
       </c>
     </row>
     <row r="1170">
@@ -12132,7 +12132,7 @@
         </is>
       </c>
       <c r="B1170" t="n">
-        <v>82683.35000000001</v>
+        <v>82671.07000000001</v>
       </c>
     </row>
     <row r="1171">
@@ -12202,7 +12202,7 @@
         </is>
       </c>
       <c r="B1177" t="n">
-        <v>83166.5</v>
+        <v>83173.12</v>
       </c>
     </row>
     <row r="1178">
@@ -12272,7 +12272,7 @@
         </is>
       </c>
       <c r="B1184" t="n">
-        <v>83676.62</v>
+        <v>83665.83</v>
       </c>
     </row>
     <row r="1185">
@@ -12332,7 +12332,7 @@
         </is>
       </c>
       <c r="B1190" t="n">
-        <v>84319.98</v>
+        <v>84332.86</v>
       </c>
     </row>
     <row r="1191">
@@ -12392,7 +12392,7 @@
         </is>
       </c>
       <c r="B1196" t="n">
-        <v>83010.2</v>
+        <v>82886.05</v>
       </c>
     </row>
     <row r="1197">
@@ -12452,7 +12452,7 @@
         </is>
       </c>
       <c r="B1202" t="n">
-        <v>82294.46000000001</v>
+        <v>82350.82000000001</v>
       </c>
     </row>
     <row r="1203">
@@ -12472,7 +12472,7 @@
         </is>
       </c>
       <c r="B1204" t="n">
-        <v>82660.05</v>
+        <v>82645.59</v>
       </c>
     </row>
     <row r="1205">
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="B1205" t="n">
-        <v>82819.55</v>
+        <v>82783.46000000001</v>
       </c>
     </row>
     <row r="1206">
@@ -12562,7 +12562,7 @@
         </is>
       </c>
       <c r="B1213" t="n">
-        <v>82576.74000000001</v>
+        <v>82693.91</v>
       </c>
     </row>
     <row r="1214">
@@ -12582,7 +12582,7 @@
         </is>
       </c>
       <c r="B1215" t="n">
-        <v>83222.78999999999</v>
+        <v>83237.77</v>
       </c>
     </row>
     <row r="1216">
@@ -12812,7 +12812,7 @@
         </is>
       </c>
       <c r="B1238" t="n">
-        <v>84197.64</v>
+        <v>84163.99000000001</v>
       </c>
     </row>
     <row r="1239">
@@ -12842,7 +12842,7 @@
         </is>
       </c>
       <c r="B1241" t="n">
-        <v>84215.49000000001</v>
+        <v>84184.05</v>
       </c>
     </row>
     <row r="1242">
@@ -12882,7 +12882,7 @@
         </is>
       </c>
       <c r="B1245" t="n">
-        <v>84027.66</v>
+        <v>84029.25</v>
       </c>
     </row>
     <row r="1246">
@@ -12932,7 +12932,7 @@
         </is>
       </c>
       <c r="B1250" t="n">
-        <v>83674.03999999999</v>
+        <v>83695.5</v>
       </c>
     </row>
     <row r="1251">
@@ -13002,7 +13002,7 @@
         </is>
       </c>
       <c r="B1257" t="n">
-        <v>83954.17999999999</v>
+        <v>83950.75</v>
       </c>
     </row>
     <row r="1258">
@@ -13042,7 +13042,7 @@
         </is>
       </c>
       <c r="B1261" t="n">
-        <v>83923.27</v>
+        <v>83937.61</v>
       </c>
     </row>
     <row r="1262">
@@ -13142,7 +13142,7 @@
         </is>
       </c>
       <c r="B1271" t="n">
-        <v>83808.34</v>
+        <v>83813.21000000001</v>
       </c>
     </row>
     <row r="1272">
@@ -13202,7 +13202,7 @@
         </is>
       </c>
       <c r="B1277" t="n">
-        <v>83412.44</v>
+        <v>83446.75999999999</v>
       </c>
     </row>
     <row r="1278">
@@ -13212,7 +13212,7 @@
         </is>
       </c>
       <c r="B1278" t="n">
-        <v>83412.63</v>
+        <v>83385.02</v>
       </c>
     </row>
     <row r="1279">
@@ -13262,7 +13262,7 @@
         </is>
       </c>
       <c r="B1283" t="n">
-        <v>83370.27</v>
+        <v>83369.03999999999</v>
       </c>
     </row>
     <row r="1284">
@@ -13302,7 +13302,7 @@
         </is>
       </c>
       <c r="B1287" t="n">
-        <v>83688.32000000001</v>
+        <v>83675.25</v>
       </c>
     </row>
     <row r="1288">
@@ -13312,7 +13312,7 @@
         </is>
       </c>
       <c r="B1288" t="n">
-        <v>83677.2</v>
+        <v>83697.89</v>
       </c>
     </row>
     <row r="1289">
@@ -13452,7 +13452,7 @@
         </is>
       </c>
       <c r="B1302" t="n">
-        <v>83150.89999999999</v>
+        <v>83153.98</v>
       </c>
     </row>
     <row r="1303">
@@ -13502,7 +13502,7 @@
         </is>
       </c>
       <c r="B1307" t="n">
-        <v>82852.5</v>
+        <v>82853.05</v>
       </c>
     </row>
     <row r="1308">
@@ -13562,7 +13562,7 @@
         </is>
       </c>
       <c r="B1313" t="n">
-        <v>82565.72</v>
+        <v>82566.14</v>
       </c>
     </row>
     <row r="1314">
@@ -13722,7 +13722,7 @@
         </is>
       </c>
       <c r="B1329" t="n">
-        <v>82776.66</v>
+        <v>82787</v>
       </c>
     </row>
     <row r="1330">
@@ -13832,7 +13832,7 @@
         </is>
       </c>
       <c r="B1340" t="n">
-        <v>83017.66</v>
+        <v>83039.53999999999</v>
       </c>
     </row>
     <row r="1341">
@@ -13842,7 +13842,7 @@
         </is>
       </c>
       <c r="B1341" t="n">
-        <v>83135.7</v>
+        <v>83149.06</v>
       </c>
     </row>
     <row r="1342">
@@ -13902,7 +13902,7 @@
         </is>
       </c>
       <c r="B1347" t="n">
-        <v>83511.62</v>
+        <v>83506.89999999999</v>
       </c>
     </row>
     <row r="1348">
@@ -13942,7 +13942,7 @@
         </is>
       </c>
       <c r="B1351" t="n">
-        <v>83600.39999999999</v>
+        <v>83565.52</v>
       </c>
     </row>
     <row r="1352">
@@ -13962,7 +13962,7 @@
         </is>
       </c>
       <c r="B1353" t="n">
-        <v>83415.25</v>
+        <v>83411.13</v>
       </c>
     </row>
     <row r="1354">
@@ -14012,7 +14012,7 @@
         </is>
       </c>
       <c r="B1358" t="n">
-        <v>83314.67</v>
+        <v>83320.47</v>
       </c>
     </row>
     <row r="1359">
@@ -14162,7 +14162,7 @@
         </is>
       </c>
       <c r="B1373" t="n">
-        <v>83155.45</v>
+        <v>83125.67</v>
       </c>
     </row>
     <row r="1374">
@@ -14172,7 +14172,7 @@
         </is>
       </c>
       <c r="B1374" t="n">
-        <v>83137.35000000001</v>
+        <v>83142.38</v>
       </c>
     </row>
     <row r="1375">
@@ -14192,7 +14192,7 @@
         </is>
       </c>
       <c r="B1376" t="n">
-        <v>83058.14</v>
+        <v>83045.7</v>
       </c>
     </row>
     <row r="1377">
@@ -14202,7 +14202,7 @@
         </is>
       </c>
       <c r="B1377" t="n">
-        <v>83011.2</v>
+        <v>82996.96000000001</v>
       </c>
     </row>
     <row r="1378">
@@ -14302,7 +14302,7 @@
         </is>
       </c>
       <c r="B1387" t="n">
-        <v>82781.50999999999</v>
+        <v>82772.24000000001</v>
       </c>
     </row>
     <row r="1388">
@@ -14482,7 +14482,7 @@
         </is>
       </c>
       <c r="B1405" t="n">
-        <v>82512.78999999999</v>
+        <v>82555.71000000001</v>
       </c>
     </row>
     <row r="1406">
@@ -14612,7 +14612,7 @@
         </is>
       </c>
       <c r="B1418" t="n">
-        <v>80348.36</v>
+        <v>80379.10000000001</v>
       </c>
     </row>
     <row r="1419">
@@ -14642,7 +14642,7 @@
         </is>
       </c>
       <c r="B1421" t="n">
-        <v>78977.82000000001</v>
+        <v>78934.62</v>
       </c>
     </row>
     <row r="1422">
@@ -14652,7 +14652,7 @@
         </is>
       </c>
       <c r="B1422" t="n">
-        <v>79131.22</v>
+        <v>79206.06</v>
       </c>
     </row>
     <row r="1423">
@@ -14712,7 +14712,7 @@
         </is>
       </c>
       <c r="B1428" t="n">
-        <v>79435.3</v>
+        <v>79255.10000000001</v>
       </c>
     </row>
     <row r="1429">
@@ -14722,7 +14722,7 @@
         </is>
       </c>
       <c r="B1429" t="n">
-        <v>78810</v>
+        <v>78802.14999999999</v>
       </c>
     </row>
     <row r="1430">
@@ -14782,7 +14782,7 @@
         </is>
       </c>
       <c r="B1435" t="n">
-        <v>78843.72</v>
+        <v>78955.62</v>
       </c>
     </row>
     <row r="1436">
@@ -14812,7 +14812,7 @@
         </is>
       </c>
       <c r="B1438" t="n">
-        <v>77488.77</v>
+        <v>77530.27</v>
       </c>
     </row>
     <row r="1439">
@@ -14822,7 +14822,7 @@
         </is>
       </c>
       <c r="B1439" t="n">
-        <v>77450.86</v>
+        <v>77483.55</v>
       </c>
     </row>
     <row r="1440">
@@ -14892,7 +14892,7 @@
         </is>
       </c>
       <c r="B1446" t="n">
-        <v>78678.46000000001</v>
+        <v>78717.69</v>
       </c>
     </row>
     <row r="1447">
@@ -14922,7 +14922,7 @@
         </is>
       </c>
       <c r="B1449" t="n">
-        <v>79068.2</v>
+        <v>79159.7</v>
       </c>
     </row>
     <row r="1450">
@@ -14962,7 +14962,7 @@
         </is>
       </c>
       <c r="B1453" t="n">
-        <v>78382.2</v>
+        <v>78381.87</v>
       </c>
     </row>
     <row r="1454">
@@ -15002,7 +15002,7 @@
         </is>
       </c>
       <c r="B1457" t="n">
-        <v>77577.7</v>
+        <v>77584.98</v>
       </c>
     </row>
     <row r="1458">
@@ -15132,7 +15132,7 @@
         </is>
       </c>
       <c r="B1470" t="n">
-        <v>75018.22</v>
+        <v>75037.25999999999</v>
       </c>
     </row>
     <row r="1471">
@@ -15262,7 +15262,7 @@
         </is>
       </c>
       <c r="B1483" t="n">
-        <v>77082.8</v>
+        <v>77073.13</v>
       </c>
     </row>
     <row r="1484">
@@ -15442,7 +15442,7 @@
         </is>
       </c>
       <c r="B1501" t="n">
-        <v>78970.84</v>
+        <v>78982.77</v>
       </c>
     </row>
     <row r="1502">
@@ -15452,7 +15452,7 @@
         </is>
       </c>
       <c r="B1502" t="n">
-        <v>78499.50999999999</v>
+        <v>78721.23</v>
       </c>
     </row>
     <row r="1503">
@@ -15482,7 +15482,7 @@
         </is>
       </c>
       <c r="B1505" t="n">
-        <v>78683.60000000001</v>
+        <v>78540.28</v>
       </c>
     </row>
     <row r="1506">
@@ -15512,7 +15512,7 @@
         </is>
       </c>
       <c r="B1508" t="n">
-        <v>77914.44</v>
+        <v>77844.7</v>
       </c>
     </row>
     <row r="1509">
@@ -15592,7 +15592,7 @@
         </is>
       </c>
       <c r="B1516" t="n">
-        <v>78933.71000000001</v>
+        <v>78891.7</v>
       </c>
     </row>
     <row r="1517">
@@ -15612,7 +15612,7 @@
         </is>
       </c>
       <c r="B1518" t="n">
-        <v>78353.16</v>
+        <v>78383.07000000001</v>
       </c>
     </row>
     <row r="1519">
@@ -15632,7 +15632,7 @@
         </is>
       </c>
       <c r="B1520" t="n">
-        <v>78228.16</v>
+        <v>78172.73</v>
       </c>
     </row>
     <row r="1521">
@@ -15682,7 +15682,7 @@
         </is>
       </c>
       <c r="B1525" t="n">
-        <v>78813.86</v>
+        <v>78801.33</v>
       </c>
     </row>
     <row r="1526">
@@ -15842,7 +15842,7 @@
         </is>
       </c>
       <c r="B1541" t="n">
-        <v>79061.53</v>
+        <v>78990.57000000001</v>
       </c>
     </row>
     <row r="1542">
@@ -15922,7 +15922,7 @@
         </is>
       </c>
       <c r="B1549" t="n">
-        <v>79891.25</v>
+        <v>79911.47</v>
       </c>
     </row>
     <row r="1550">
@@ -16022,7 +16022,7 @@
         </is>
       </c>
       <c r="B1559" t="n">
-        <v>79611.97</v>
+        <v>79598.23</v>
       </c>
     </row>
     <row r="1560">
@@ -16042,7 +16042,7 @@
         </is>
       </c>
       <c r="B1561" t="n">
-        <v>79817.75999999999</v>
+        <v>79820.36</v>
       </c>
     </row>
     <row r="1562">
@@ -16072,7 +16072,7 @@
         </is>
       </c>
       <c r="B1564" t="n">
-        <v>79485.91</v>
+        <v>79513.78999999999</v>
       </c>
     </row>
     <row r="1565">
@@ -16142,7 +16142,7 @@
         </is>
       </c>
       <c r="B1571" t="n">
-        <v>78971.87</v>
+        <v>78970.7</v>
       </c>
     </row>
     <row r="1572">
@@ -16242,7 +16242,7 @@
         </is>
       </c>
       <c r="B1581" t="n">
-        <v>78961.67999999999</v>
+        <v>78966.89</v>
       </c>
     </row>
     <row r="1582">
@@ -16282,7 +16282,7 @@
         </is>
       </c>
       <c r="B1585" t="n">
-        <v>79869.57000000001</v>
+        <v>79980.86</v>
       </c>
     </row>
     <row r="1586">
@@ -16292,7 +16292,7 @@
         </is>
       </c>
       <c r="B1586" t="n">
-        <v>80051.63</v>
+        <v>80026.05</v>
       </c>
     </row>
     <row r="1587">
@@ -16712,7 +16712,7 @@
         </is>
       </c>
       <c r="B1628" t="n">
-        <v>76337.92</v>
+        <v>76378.95</v>
       </c>
     </row>
     <row r="1629">
@@ -16722,7 +16722,7 @@
         </is>
       </c>
       <c r="B1629" t="n">
-        <v>76719.98</v>
+        <v>76697.05</v>
       </c>
     </row>
     <row r="1630">
@@ -16912,7 +16912,7 @@
         </is>
       </c>
       <c r="B1648" t="n">
-        <v>75210.91</v>
+        <v>75259.03999999999</v>
       </c>
     </row>
     <row r="1649">
@@ -17092,7 +17092,7 @@
         </is>
       </c>
       <c r="B1666" t="n">
-        <v>77399.89999999999</v>
+        <v>77366.64999999999</v>
       </c>
     </row>
     <row r="1667">
@@ -17132,7 +17132,7 @@
         </is>
       </c>
       <c r="B1670" t="n">
-        <v>77322.05</v>
+        <v>77298.36</v>
       </c>
     </row>
     <row r="1671">
@@ -17302,7 +17302,7 @@
         </is>
       </c>
       <c r="B1687" t="n">
-        <v>76776.94</v>
+        <v>76758.78999999999</v>
       </c>
     </row>
     <row r="1688">
@@ -17342,7 +17342,7 @@
         </is>
       </c>
       <c r="B1691" t="n">
-        <v>77421.38</v>
+        <v>77432.52</v>
       </c>
     </row>
     <row r="1692">
@@ -17392,7 +17392,7 @@
         </is>
       </c>
       <c r="B1696" t="n">
-        <v>77022.62</v>
+        <v>77051.38</v>
       </c>
     </row>
     <row r="1697">
@@ -17472,7 +17472,7 @@
         </is>
       </c>
       <c r="B1704" t="n">
-        <v>81330.07000000001</v>
+        <v>81319.71000000001</v>
       </c>
     </row>
     <row r="1705">
@@ -17532,7 +17532,7 @@
         </is>
       </c>
       <c r="B1710" t="n">
-        <v>82052.72</v>
+        <v>82096.85000000001</v>
       </c>
     </row>
     <row r="1711">
@@ -17632,7 +17632,7 @@
         </is>
       </c>
       <c r="B1720" t="n">
-        <v>83004.05</v>
+        <v>82986.66</v>
       </c>
     </row>
     <row r="1721">
@@ -17762,7 +17762,7 @@
         </is>
       </c>
       <c r="B1733" t="n">
-        <v>82276.57000000001</v>
+        <v>82318.63</v>
       </c>
     </row>
     <row r="1734">
@@ -18082,7 +18082,7 @@
         </is>
       </c>
       <c r="B1765" t="n">
-        <v>81478.48</v>
+        <v>81499.44</v>
       </c>
     </row>
     <row r="1766">
@@ -18132,7 +18132,7 @@
         </is>
       </c>
       <c r="B1770" t="n">
-        <v>82086.09</v>
+        <v>82030.87</v>
       </c>
     </row>
     <row r="1771">
@@ -18272,7 +18272,7 @@
         </is>
       </c>
       <c r="B1784" t="n">
-        <v>80881.00999999999</v>
+        <v>80770.36</v>
       </c>
     </row>
     <row r="1785">
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="B1792" t="n">
-        <v>79405.77</v>
+        <v>79258.64999999999</v>
       </c>
     </row>
     <row r="1793">
@@ -18462,7 +18462,7 @@
         </is>
       </c>
       <c r="B1803" t="n">
-        <v>79704.34</v>
+        <v>79691.67</v>
       </c>
     </row>
     <row r="1804">
@@ -18532,7 +18532,7 @@
         </is>
       </c>
       <c r="B1810" t="n">
-        <v>79883.52</v>
+        <v>79783.08</v>
       </c>
     </row>
     <row r="1811">
@@ -18602,7 +18602,7 @@
         </is>
       </c>
       <c r="B1817" t="n">
-        <v>79675.05</v>
+        <v>79672.05</v>
       </c>
     </row>
     <row r="1818">
@@ -19032,7 +19032,7 @@
         </is>
       </c>
       <c r="B1860" t="n">
-        <v>81613.45</v>
+        <v>81533.12</v>
       </c>
     </row>
     <row r="1861">
@@ -19172,7 +19172,7 @@
         </is>
       </c>
       <c r="B1874" t="n">
-        <v>81876.12</v>
+        <v>81880.44</v>
       </c>
     </row>
     <row r="1875">
@@ -19202,7 +19202,7 @@
         </is>
       </c>
       <c r="B1877" t="n">
-        <v>82000.7</v>
+        <v>82004.32000000001</v>
       </c>
     </row>
     <row r="1878">
@@ -19422,7 +19422,7 @@
         </is>
       </c>
       <c r="B1899" t="n">
-        <v>83862.38</v>
+        <v>83915.55</v>
       </c>
     </row>
     <row r="1900">
@@ -19432,7 +19432,7 @@
         </is>
       </c>
       <c r="B1900" t="n">
-        <v>83817.12</v>
+        <v>83805.66</v>
       </c>
     </row>
     <row r="1901">
@@ -19472,7 +19472,7 @@
         </is>
       </c>
       <c r="B1904" t="n">
-        <v>83793.24000000001</v>
+        <v>83800.81</v>
       </c>
     </row>
     <row r="1905">
@@ -19572,7 +19572,7 @@
         </is>
       </c>
       <c r="B1914" t="n">
-        <v>83556.97</v>
+        <v>83546.27</v>
       </c>
     </row>
     <row r="1915">
@@ -19782,7 +19782,7 @@
         </is>
       </c>
       <c r="B1935" t="n">
-        <v>83003.74000000001</v>
+        <v>82991.3</v>
       </c>
     </row>
     <row r="1936">
@@ -19852,7 +19852,7 @@
         </is>
       </c>
       <c r="B1942" t="n">
-        <v>83268.11</v>
+        <v>83267.48</v>
       </c>
     </row>
     <row r="1943">
@@ -19932,7 +19932,7 @@
         </is>
       </c>
       <c r="B1950" t="n">
-        <v>83499.09</v>
+        <v>83483.75999999999</v>
       </c>
     </row>
     <row r="1951">
@@ -20022,7 +20022,7 @@
         </is>
       </c>
       <c r="B1959" t="n">
-        <v>83438.34</v>
+        <v>83438.7</v>
       </c>
     </row>
     <row r="1960">
@@ -20052,7 +20052,7 @@
         </is>
       </c>
       <c r="B1962" t="n">
-        <v>83460.92999999999</v>
+        <v>83457.2</v>
       </c>
     </row>
     <row r="1963">
@@ -20222,7 +20222,7 @@
         </is>
       </c>
       <c r="B1979" t="n">
-        <v>84799.16</v>
+        <v>84798.24000000001</v>
       </c>
     </row>
     <row r="1980">
@@ -20402,7 +20402,7 @@
         </is>
       </c>
       <c r="B1997" t="n">
-        <v>85150.95</v>
+        <v>85144.72</v>
       </c>
     </row>
     <row r="1998">
@@ -20412,7 +20412,7 @@
         </is>
       </c>
       <c r="B1998" t="n">
-        <v>85047.85000000001</v>
+        <v>85073.38</v>
       </c>
     </row>
     <row r="1999">
@@ -20472,7 +20472,7 @@
         </is>
       </c>
       <c r="B2004" t="n">
-        <v>85787.16</v>
+        <v>85852.02</v>
       </c>
     </row>
     <row r="2005">
@@ -20582,7 +20582,7 @@
         </is>
       </c>
       <c r="B2015" t="n">
-        <v>85189.57000000001</v>
+        <v>85200.46000000001</v>
       </c>
     </row>
     <row r="2016">
@@ -20772,7 +20772,7 @@
         </is>
       </c>
       <c r="B2034" t="n">
-        <v>85077.24000000001</v>
+        <v>85111</v>
       </c>
     </row>
     <row r="2035">
@@ -20872,7 +20872,7 @@
         </is>
       </c>
       <c r="B2044" t="n">
-        <v>84720.48</v>
+        <v>84725.5</v>
       </c>
     </row>
     <row r="2045">
@@ -21042,7 +21042,7 @@
         </is>
       </c>
       <c r="B2061" t="n">
-        <v>84670.08</v>
+        <v>84667.48</v>
       </c>
     </row>
     <row r="2062">
@@ -21102,7 +21102,7 @@
         </is>
       </c>
       <c r="B2067" t="n">
-        <v>84287.56</v>
+        <v>84262.72</v>
       </c>
     </row>
     <row r="2068">
@@ -21212,7 +21212,7 @@
         </is>
       </c>
       <c r="B2078" t="n">
-        <v>83773.09</v>
+        <v>83795.31</v>
       </c>
     </row>
     <row r="2079">
@@ -21352,7 +21352,7 @@
         </is>
       </c>
       <c r="B2092" t="n">
-        <v>84802.48</v>
+        <v>84813.3</v>
       </c>
     </row>
     <row r="2093">
@@ -21532,7 +21532,7 @@
         </is>
       </c>
       <c r="B2110" t="n">
-        <v>83516.66</v>
+        <v>83543.34</v>
       </c>
     </row>
     <row r="2111">
@@ -21792,7 +21792,7 @@
         </is>
       </c>
       <c r="B2136" t="n">
-        <v>84361.02</v>
+        <v>84377.89</v>
       </c>
     </row>
     <row r="2137">
@@ -21832,7 +21832,7 @@
         </is>
       </c>
       <c r="B2140" t="n">
-        <v>84540.28</v>
+        <v>84539.42999999999</v>
       </c>
     </row>
     <row r="2141">
@@ -21932,7 +21932,7 @@
         </is>
       </c>
       <c r="B2150" t="n">
-        <v>84827.62</v>
+        <v>84855.09</v>
       </c>
     </row>
     <row r="2151">
@@ -21942,7 +21942,7 @@
         </is>
       </c>
       <c r="B2151" t="n">
-        <v>84485.25999999999</v>
+        <v>84516.36</v>
       </c>
     </row>
     <row r="2152">
@@ -22042,7 +22042,7 @@
         </is>
       </c>
       <c r="B2161" t="n">
-        <v>84869.34</v>
+        <v>84902.25</v>
       </c>
     </row>
     <row r="2162">
@@ -22092,7 +22092,7 @@
         </is>
       </c>
       <c r="B2166" t="n">
-        <v>85057.23</v>
+        <v>85068.67</v>
       </c>
     </row>
     <row r="2167">
@@ -22122,7 +22122,7 @@
         </is>
       </c>
       <c r="B2169" t="n">
-        <v>84463.19</v>
+        <v>84460.98</v>
       </c>
     </row>
     <row r="2170">
@@ -22152,7 +22152,7 @@
         </is>
       </c>
       <c r="B2172" t="n">
-        <v>85483.41</v>
+        <v>85476.3</v>
       </c>
     </row>
     <row r="2173">
@@ -22282,7 +22282,7 @@
         </is>
       </c>
       <c r="B2185" t="n">
-        <v>84820.33</v>
+        <v>84874.98</v>
       </c>
     </row>
     <row r="2186">
@@ -22312,7 +22312,7 @@
         </is>
       </c>
       <c r="B2188" t="n">
-        <v>84842.23</v>
+        <v>84885.86</v>
       </c>
     </row>
     <row r="2189">
@@ -22352,7 +22352,7 @@
         </is>
       </c>
       <c r="B2192" t="n">
-        <v>85065.87</v>
+        <v>85039.09</v>
       </c>
     </row>
     <row r="2193">
@@ -22392,7 +22392,7 @@
         </is>
       </c>
       <c r="B2196" t="n">
-        <v>84612.77</v>
+        <v>84611.21000000001</v>
       </c>
     </row>
     <row r="2197">
@@ -22672,7 +22672,7 @@
         </is>
       </c>
       <c r="B2224" t="n">
-        <v>85240.66</v>
+        <v>85261.36</v>
       </c>
     </row>
     <row r="2225">
@@ -26742,7 +26742,7 @@
         </is>
       </c>
       <c r="B2631" t="n">
-        <v>85382.31</v>
+        <v>85379.88</v>
       </c>
     </row>
     <row r="2632">
@@ -39242,7 +39242,7 @@
         </is>
       </c>
       <c r="B3881" t="n">
-        <v>96671.78</v>
+        <v>96660.8</v>
       </c>
     </row>
     <row r="3882">
@@ -39722,7 +39722,7 @@
         </is>
       </c>
       <c r="B3929" t="n">
-        <v>96628.38</v>
+        <v>96804.67</v>
       </c>
     </row>
     <row r="3930">
@@ -42652,7 +42652,7 @@
         </is>
       </c>
       <c r="B4222" t="n">
-        <v>95060.32000000001</v>
+        <v>95048.16</v>
       </c>
     </row>
     <row r="4223">
@@ -46832,7 +46832,7 @@
         </is>
       </c>
       <c r="B4640" t="n">
-        <v>103693.98</v>
+        <v>103697.75</v>
       </c>
     </row>
     <row r="4641">
@@ -48922,7 +48922,7 @@
         </is>
       </c>
       <c r="B4849" t="n">
-        <v>103752.06</v>
+        <v>103747.55</v>
       </c>
     </row>
     <row r="4850">
@@ -49882,7 +49882,7 @@
         </is>
       </c>
       <c r="B4945" t="n">
-        <v>103705.94</v>
+        <v>103687.08</v>
       </c>
     </row>
     <row r="4946">
@@ -53382,7 +53382,7 @@
         </is>
       </c>
       <c r="B5295" t="n">
-        <v>103235.99</v>
+        <v>103217.06</v>
       </c>
     </row>
     <row r="5296">
@@ -55282,7 +55282,7 @@
         </is>
       </c>
       <c r="B5485" t="n">
-        <v>104639.44</v>
+        <v>104627.81</v>
       </c>
     </row>
     <row r="5486">
@@ -56882,7 +56882,7 @@
         </is>
       </c>
       <c r="B5645" t="n">
-        <v>105362.58</v>
+        <v>105297.04</v>
       </c>
     </row>
     <row r="5646">
@@ -57042,7 +57042,7 @@
         </is>
       </c>
       <c r="B5661" t="n">
-        <v>106825.12</v>
+        <v>106836.06</v>
       </c>
     </row>
     <row r="5662">
@@ -57362,7 +57362,27 @@
         </is>
       </c>
       <c r="B5693" t="n">
-        <v>107776.76</v>
+        <v>107842.64</v>
+      </c>
+    </row>
+    <row r="5694">
+      <c r="A5694" t="inlineStr">
+        <is>
+          <t>2025-05-21 07:00</t>
+        </is>
+      </c>
+      <c r="B5694" t="n">
+        <v>107568.88</v>
+      </c>
+    </row>
+    <row r="5695">
+      <c r="A5695" t="inlineStr">
+        <is>
+          <t>2025-05-21 07:15</t>
+        </is>
+      </c>
+      <c r="B5695" t="n">
+        <v>107494.3</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/bitcoin_close_15min.xlsx
+++ b/Uploads/bitcoin_close_15min.xlsx
@@ -57392,7 +57392,7 @@
         </is>
       </c>
       <c r="B5696" t="n">
-        <v>106781.51</v>
+        <v>106604.86</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/bitcoin_close_15min.xlsx
+++ b/Uploads/bitcoin_close_15min.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5710"/>
+  <dimension ref="A1:B5711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57532,7 +57532,17 @@
         </is>
       </c>
       <c r="B5710" t="n">
-        <v>106432.3</v>
+        <v>106445.16</v>
+      </c>
+    </row>
+    <row r="5711">
+      <c r="A5711" t="inlineStr">
+        <is>
+          <t>2025-05-21 11:15</t>
+        </is>
+      </c>
+      <c r="B5711" t="n">
+        <v>106689.5</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/bitcoin_close_15min.xlsx
+++ b/Uploads/bitcoin_close_15min.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5711"/>
+  <dimension ref="A1:B5712"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57542,7 +57542,17 @@
         </is>
       </c>
       <c r="B5711" t="n">
-        <v>106689.5</v>
+        <v>106673.23</v>
+      </c>
+    </row>
+    <row r="5712">
+      <c r="A5712" t="inlineStr">
+        <is>
+          <t>2025-05-21 11:30</t>
+        </is>
+      </c>
+      <c r="B5712" t="n">
+        <v>106580.99</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/bitcoin_close_15min.xlsx
+++ b/Uploads/bitcoin_close_15min.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5733"/>
+  <dimension ref="A1:B5734"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5470,7 +5470,7 @@
         <v>45750.53125</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>25569.00000000094</v>
+        <v>25569.00000000095</v>
       </c>
     </row>
     <row r="630">
@@ -6166,7 +6166,7 @@
         <v>45751.4375</v>
       </c>
       <c r="B716" s="2" t="n">
-        <v>25569.00000000096</v>
+        <v>25569.00000000095</v>
       </c>
     </row>
     <row r="717">
@@ -7614,7 +7614,7 @@
         <v>45753.32291666666</v>
       </c>
       <c r="B897" s="2" t="n">
-        <v>25569.00000000096</v>
+        <v>25569.00000000095</v>
       </c>
     </row>
     <row r="898">
@@ -8926,7 +8926,7 @@
         <v>45755.03125</v>
       </c>
       <c r="B1061" s="2" t="n">
-        <v>25569.00000000091</v>
+        <v>25569.0000000009</v>
       </c>
     </row>
     <row r="1062">
@@ -10358,7 +10358,7 @@
         <v>45756.89583333334</v>
       </c>
       <c r="B1240" s="2" t="n">
-        <v>25569.00000000096</v>
+        <v>25569.00000000095</v>
       </c>
     </row>
     <row r="1241">
@@ -12078,7 +12078,7 @@
         <v>45759.13541666666</v>
       </c>
       <c r="B1455" s="2" t="n">
-        <v>25569.00000000096</v>
+        <v>25569.00000000095</v>
       </c>
     </row>
     <row r="1456">
@@ -44718,7 +44718,7 @@
         <v>45801.63541666666</v>
       </c>
       <c r="B5535" s="2" t="n">
-        <v>25569.00000000126</v>
+        <v>25569.00000000125</v>
       </c>
     </row>
     <row r="5536">
@@ -46302,6 +46302,14 @@
         <v>45803.69791666666</v>
       </c>
       <c r="B5733" s="2" t="n">
+        <v>25569.00000000126</v>
+      </c>
+    </row>
+    <row r="5734">
+      <c r="A5734" s="2" t="n">
+        <v>45803.70833333334</v>
+      </c>
+      <c r="B5734" s="2" t="n">
         <v>25569.00000000126</v>
       </c>
     </row>

--- a/Uploads/bitcoin_close_15min.xlsx
+++ b/Uploads/bitcoin_close_15min.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5739"/>
+  <dimension ref="A1:B5741"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46350,7 +46350,23 @@
         <v>45804.76041666666</v>
       </c>
       <c r="B5739" t="n">
-        <v>110275.28</v>
+        <v>110159.95</v>
+      </c>
+    </row>
+    <row r="5740">
+      <c r="A5740" s="2" t="n">
+        <v>45804.77083333334</v>
+      </c>
+      <c r="B5740" t="n">
+        <v>109953.16</v>
+      </c>
+    </row>
+    <row r="5741">
+      <c r="A5741" s="2" t="n">
+        <v>45804.78125</v>
+      </c>
+      <c r="B5741" t="n">
+        <v>109992.31</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/bitcoin_close_15min.xlsx
+++ b/Uploads/bitcoin_close_15min.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5689"/>
+  <dimension ref="A1:B5691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,7 +502,7 @@
         <v>45749.0625</v>
       </c>
       <c r="B8" t="n">
-        <v>85196.09</v>
+        <v>85181.22</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45749.07291666666</v>
       </c>
       <c r="B9" t="n">
-        <v>85109.87</v>
+        <v>85159.95</v>
       </c>
     </row>
     <row r="10">
@@ -702,7 +702,7 @@
         <v>45749.32291666666</v>
       </c>
       <c r="B33" t="n">
-        <v>84376.06</v>
+        <v>84431.3</v>
       </c>
     </row>
     <row r="34">
@@ -830,7 +830,7 @@
         <v>45749.48958333334</v>
       </c>
       <c r="B49" t="n">
-        <v>84554.09</v>
+        <v>84545.71000000001</v>
       </c>
     </row>
     <row r="50">
@@ -846,7 +846,7 @@
         <v>45749.51041666666</v>
       </c>
       <c r="B51" t="n">
-        <v>84696.41</v>
+        <v>84659.00999999999</v>
       </c>
     </row>
     <row r="52">
@@ -1110,7 +1110,7 @@
         <v>45749.85416666666</v>
       </c>
       <c r="B84" t="n">
-        <v>85464.2</v>
+        <v>85314.48</v>
       </c>
     </row>
     <row r="85">
@@ -1134,7 +1134,7 @@
         <v>45749.88541666666</v>
       </c>
       <c r="B87" t="n">
-        <v>84703.53</v>
+        <v>84669.32000000001</v>
       </c>
     </row>
     <row r="88">
@@ -1190,7 +1190,7 @@
         <v>45749.95833333334</v>
       </c>
       <c r="B94" t="n">
-        <v>82510.16</v>
+        <v>82601.56</v>
       </c>
     </row>
     <row r="95">
@@ -1254,7 +1254,7 @@
         <v>45750.04166666666</v>
       </c>
       <c r="B102" t="n">
-        <v>83300.98</v>
+        <v>83321.75999999999</v>
       </c>
     </row>
     <row r="103">
@@ -1270,7 +1270,7 @@
         <v>45750.0625</v>
       </c>
       <c r="B104" t="n">
-        <v>83629.95</v>
+        <v>83667.98</v>
       </c>
     </row>
     <row r="105">
@@ -1310,7 +1310,7 @@
         <v>45750.11458333334</v>
       </c>
       <c r="B109" t="n">
-        <v>83737.62</v>
+        <v>83729.32000000001</v>
       </c>
     </row>
     <row r="110">
@@ -1326,7 +1326,7 @@
         <v>45750.13541666666</v>
       </c>
       <c r="B111" t="n">
-        <v>83581.59</v>
+        <v>83599.56</v>
       </c>
     </row>
     <row r="112">
@@ -1406,7 +1406,7 @@
         <v>45750.23958333334</v>
       </c>
       <c r="B121" t="n">
-        <v>83386.55</v>
+        <v>83401.62</v>
       </c>
     </row>
     <row r="122">
@@ -1438,7 +1438,7 @@
         <v>45750.28125</v>
       </c>
       <c r="B125" t="n">
-        <v>83038.41</v>
+        <v>83014.34</v>
       </c>
     </row>
     <row r="126">
@@ -1526,7 +1526,7 @@
         <v>45750.39583333334</v>
       </c>
       <c r="B136" t="n">
-        <v>83716.24000000001</v>
+        <v>83726.82000000001</v>
       </c>
     </row>
     <row r="137">
@@ -1630,7 +1630,7 @@
         <v>45750.53125</v>
       </c>
       <c r="B149" t="n">
-        <v>81986.05</v>
+        <v>82035.78</v>
       </c>
     </row>
     <row r="150">
@@ -1654,7 +1654,7 @@
         <v>45750.5625</v>
       </c>
       <c r="B152" t="n">
-        <v>82501.62</v>
+        <v>82296.19</v>
       </c>
     </row>
     <row r="153">
@@ -1782,7 +1782,7 @@
         <v>45750.72916666666</v>
       </c>
       <c r="B168" t="n">
-        <v>82020.53999999999</v>
+        <v>82067.69</v>
       </c>
     </row>
     <row r="169">
@@ -1950,7 +1950,7 @@
         <v>45750.94791666666</v>
       </c>
       <c r="B189" t="n">
-        <v>82658.25</v>
+        <v>82674.91</v>
       </c>
     </row>
     <row r="190">
@@ -2006,7 +2006,7 @@
         <v>45751.02083333334</v>
       </c>
       <c r="B196" t="n">
-        <v>83293.25999999999</v>
+        <v>83254.44</v>
       </c>
     </row>
     <row r="197">
@@ -2030,7 +2030,7 @@
         <v>45751.05208333334</v>
       </c>
       <c r="B199" t="n">
-        <v>83069.75</v>
+        <v>83057.17</v>
       </c>
     </row>
     <row r="200">
@@ -2046,7 +2046,7 @@
         <v>45751.07291666666</v>
       </c>
       <c r="B201" t="n">
-        <v>82575.49000000001</v>
+        <v>82590.45</v>
       </c>
     </row>
     <row r="202">
@@ -2110,7 +2110,7 @@
         <v>45751.15625</v>
       </c>
       <c r="B209" t="n">
-        <v>82766.91</v>
+        <v>82782.63</v>
       </c>
     </row>
     <row r="210">
@@ -2118,7 +2118,7 @@
         <v>45751.16666666666</v>
       </c>
       <c r="B210" t="n">
-        <v>82683.35000000001</v>
+        <v>82671.07000000001</v>
       </c>
     </row>
     <row r="211">
@@ -2174,7 +2174,7 @@
         <v>45751.23958333334</v>
       </c>
       <c r="B217" t="n">
-        <v>83166.5</v>
+        <v>83173.12</v>
       </c>
     </row>
     <row r="218">
@@ -2230,7 +2230,7 @@
         <v>45751.3125</v>
       </c>
       <c r="B224" t="n">
-        <v>83676.62</v>
+        <v>83665.83</v>
       </c>
     </row>
     <row r="225">
@@ -2278,7 +2278,7 @@
         <v>45751.375</v>
       </c>
       <c r="B230" t="n">
-        <v>84319.98</v>
+        <v>84332.86</v>
       </c>
     </row>
     <row r="231">
@@ -2326,7 +2326,7 @@
         <v>45751.4375</v>
       </c>
       <c r="B236" t="n">
-        <v>83010.2</v>
+        <v>82886.05</v>
       </c>
     </row>
     <row r="237">
@@ -2374,7 +2374,7 @@
         <v>45751.5</v>
       </c>
       <c r="B242" t="n">
-        <v>82294.46000000001</v>
+        <v>82350.82000000001</v>
       </c>
     </row>
     <row r="243">
@@ -2390,7 +2390,7 @@
         <v>45751.52083333334</v>
       </c>
       <c r="B244" t="n">
-        <v>82660.05</v>
+        <v>82645.59</v>
       </c>
     </row>
     <row r="245">
@@ -2398,7 +2398,7 @@
         <v>45751.53125</v>
       </c>
       <c r="B245" t="n">
-        <v>82819.55</v>
+        <v>82783.46000000001</v>
       </c>
     </row>
     <row r="246">
@@ -2462,7 +2462,7 @@
         <v>45751.61458333334</v>
       </c>
       <c r="B253" t="n">
-        <v>82576.74000000001</v>
+        <v>82693.91</v>
       </c>
     </row>
     <row r="254">
@@ -2478,7 +2478,7 @@
         <v>45751.63541666666</v>
       </c>
       <c r="B255" t="n">
-        <v>83222.78999999999</v>
+        <v>83237.77</v>
       </c>
     </row>
     <row r="256">
@@ -2662,7 +2662,7 @@
         <v>45751.875</v>
       </c>
       <c r="B278" t="n">
-        <v>84197.64</v>
+        <v>84163.99000000001</v>
       </c>
     </row>
     <row r="279">
@@ -2686,7 +2686,7 @@
         <v>45751.90625</v>
       </c>
       <c r="B281" t="n">
-        <v>84215.49000000001</v>
+        <v>84184.05</v>
       </c>
     </row>
     <row r="282">
@@ -2718,7 +2718,7 @@
         <v>45751.94791666666</v>
       </c>
       <c r="B285" t="n">
-        <v>84027.66</v>
+        <v>84029.25</v>
       </c>
     </row>
     <row r="286">
@@ -2758,7 +2758,7 @@
         <v>45752</v>
       </c>
       <c r="B290" t="n">
-        <v>83674.03999999999</v>
+        <v>83695.5</v>
       </c>
     </row>
     <row r="291">
@@ -2814,7 +2814,7 @@
         <v>45752.07291666666</v>
       </c>
       <c r="B297" t="n">
-        <v>83954.17999999999</v>
+        <v>83950.75</v>
       </c>
     </row>
     <row r="298">
@@ -2846,7 +2846,7 @@
         <v>45752.11458333334</v>
       </c>
       <c r="B301" t="n">
-        <v>83923.27</v>
+        <v>83937.61</v>
       </c>
     </row>
     <row r="302">
@@ -2926,7 +2926,7 @@
         <v>45752.21875</v>
       </c>
       <c r="B311" t="n">
-        <v>83808.34</v>
+        <v>83813.21000000001</v>
       </c>
     </row>
     <row r="312">
@@ -2974,7 +2974,7 @@
         <v>45752.28125</v>
       </c>
       <c r="B317" t="n">
-        <v>83412.44</v>
+        <v>83446.75999999999</v>
       </c>
     </row>
     <row r="318">
@@ -2982,7 +2982,7 @@
         <v>45752.29166666666</v>
       </c>
       <c r="B318" t="n">
-        <v>83412.63</v>
+        <v>83385.02</v>
       </c>
     </row>
     <row r="319">
@@ -3022,7 +3022,7 @@
         <v>45752.34375</v>
       </c>
       <c r="B323" t="n">
-        <v>83370.27</v>
+        <v>83369.03999999999</v>
       </c>
     </row>
     <row r="324">
@@ -3054,7 +3054,7 @@
         <v>45752.38541666666</v>
       </c>
       <c r="B327" t="n">
-        <v>83688.32000000001</v>
+        <v>83675.25</v>
       </c>
     </row>
     <row r="328">
@@ -3062,7 +3062,7 @@
         <v>45752.39583333334</v>
       </c>
       <c r="B328" t="n">
-        <v>83677.2</v>
+        <v>83697.89</v>
       </c>
     </row>
     <row r="329">
@@ -3174,7 +3174,7 @@
         <v>45752.54166666666</v>
       </c>
       <c r="B342" t="n">
-        <v>83150.89999999999</v>
+        <v>83153.98</v>
       </c>
     </row>
     <row r="343">
@@ -3214,7 +3214,7 @@
         <v>45752.59375</v>
       </c>
       <c r="B347" t="n">
-        <v>82852.5</v>
+        <v>82853.05</v>
       </c>
     </row>
     <row r="348">
@@ -3262,7 +3262,7 @@
         <v>45752.65625</v>
       </c>
       <c r="B353" t="n">
-        <v>82565.72</v>
+        <v>82566.14</v>
       </c>
     </row>
     <row r="354">
@@ -3390,7 +3390,7 @@
         <v>45752.82291666666</v>
       </c>
       <c r="B369" t="n">
-        <v>82776.66</v>
+        <v>82787</v>
       </c>
     </row>
     <row r="370">
@@ -3478,7 +3478,7 @@
         <v>45752.9375</v>
       </c>
       <c r="B380" t="n">
-        <v>83017.66</v>
+        <v>83039.53999999999</v>
       </c>
     </row>
     <row r="381">
@@ -3486,7 +3486,7 @@
         <v>45752.94791666666</v>
       </c>
       <c r="B381" t="n">
-        <v>83135.7</v>
+        <v>83149.06</v>
       </c>
     </row>
     <row r="382">
@@ -3534,7 +3534,7 @@
         <v>45753.01041666666</v>
       </c>
       <c r="B387" t="n">
-        <v>83511.62</v>
+        <v>83506.89999999999</v>
       </c>
     </row>
     <row r="388">
@@ -3566,7 +3566,7 @@
         <v>45753.05208333334</v>
       </c>
       <c r="B391" t="n">
-        <v>83600.39999999999</v>
+        <v>83565.52</v>
       </c>
     </row>
     <row r="392">
@@ -3582,7 +3582,7 @@
         <v>45753.07291666666</v>
       </c>
       <c r="B393" t="n">
-        <v>83415.25</v>
+        <v>83411.13</v>
       </c>
     </row>
     <row r="394">
@@ -3622,7 +3622,7 @@
         <v>45753.125</v>
       </c>
       <c r="B398" t="n">
-        <v>83314.67</v>
+        <v>83320.47</v>
       </c>
     </row>
     <row r="399">
@@ -3742,7 +3742,7 @@
         <v>45753.28125</v>
       </c>
       <c r="B413" t="n">
-        <v>83155.45</v>
+        <v>83125.67</v>
       </c>
     </row>
     <row r="414">
@@ -3750,7 +3750,7 @@
         <v>45753.29166666666</v>
       </c>
       <c r="B414" t="n">
-        <v>83137.35000000001</v>
+        <v>83142.38</v>
       </c>
     </row>
     <row r="415">
@@ -3766,7 +3766,7 @@
         <v>45753.3125</v>
       </c>
       <c r="B416" t="n">
-        <v>83058.14</v>
+        <v>83045.7</v>
       </c>
     </row>
     <row r="417">
@@ -3774,7 +3774,7 @@
         <v>45753.32291666666</v>
       </c>
       <c r="B417" t="n">
-        <v>83011.2</v>
+        <v>82996.96000000001</v>
       </c>
     </row>
     <row r="418">
@@ -3854,7 +3854,7 @@
         <v>45753.42708333334</v>
       </c>
       <c r="B427" t="n">
-        <v>82781.50999999999</v>
+        <v>82772.24000000001</v>
       </c>
     </row>
     <row r="428">
@@ -3998,7 +3998,7 @@
         <v>45753.61458333334</v>
       </c>
       <c r="B445" t="n">
-        <v>82512.78999999999</v>
+        <v>82555.71000000001</v>
       </c>
     </row>
     <row r="446">
@@ -4102,7 +4102,7 @@
         <v>45753.75</v>
       </c>
       <c r="B458" t="n">
-        <v>80348.36</v>
+        <v>80379.10000000001</v>
       </c>
     </row>
     <row r="459">
@@ -4126,7 +4126,7 @@
         <v>45753.78125</v>
       </c>
       <c r="B461" t="n">
-        <v>78977.82000000001</v>
+        <v>78934.62</v>
       </c>
     </row>
     <row r="462">
@@ -4134,7 +4134,7 @@
         <v>45753.79166666666</v>
       </c>
       <c r="B462" t="n">
-        <v>79131.22</v>
+        <v>79206.06</v>
       </c>
     </row>
     <row r="463">
@@ -4182,7 +4182,7 @@
         <v>45753.85416666666</v>
       </c>
       <c r="B468" t="n">
-        <v>79435.3</v>
+        <v>79255.10000000001</v>
       </c>
     </row>
     <row r="469">
@@ -4190,7 +4190,7 @@
         <v>45753.86458333334</v>
       </c>
       <c r="B469" t="n">
-        <v>78810</v>
+        <v>78802.14999999999</v>
       </c>
     </row>
     <row r="470">
@@ -4238,7 +4238,7 @@
         <v>45753.92708333334</v>
       </c>
       <c r="B475" t="n">
-        <v>78843.72</v>
+        <v>78955.62</v>
       </c>
     </row>
     <row r="476">
@@ -4262,7 +4262,7 @@
         <v>45753.95833333334</v>
       </c>
       <c r="B478" t="n">
-        <v>77488.77</v>
+        <v>77530.27</v>
       </c>
     </row>
     <row r="479">
@@ -4270,7 +4270,7 @@
         <v>45753.96875</v>
       </c>
       <c r="B479" t="n">
-        <v>77450.86</v>
+        <v>77483.55</v>
       </c>
     </row>
     <row r="480">
@@ -4326,7 +4326,7 @@
         <v>45754.04166666666</v>
       </c>
       <c r="B486" t="n">
-        <v>78678.46000000001</v>
+        <v>78717.69</v>
       </c>
     </row>
     <row r="487">
@@ -4350,7 +4350,7 @@
         <v>45754.07291666666</v>
       </c>
       <c r="B489" t="n">
-        <v>79068.2</v>
+        <v>79159.7</v>
       </c>
     </row>
     <row r="490">
@@ -4382,7 +4382,7 @@
         <v>45754.11458333334</v>
       </c>
       <c r="B493" t="n">
-        <v>78382.2</v>
+        <v>78381.87</v>
       </c>
     </row>
     <row r="494">
@@ -4414,7 +4414,7 @@
         <v>45754.15625</v>
       </c>
       <c r="B497" t="n">
-        <v>77577.7</v>
+        <v>77584.98</v>
       </c>
     </row>
     <row r="498">
@@ -4518,7 +4518,7 @@
         <v>45754.29166666666</v>
       </c>
       <c r="B510" t="n">
-        <v>75018.22</v>
+        <v>75037.25999999999</v>
       </c>
     </row>
     <row r="511">
@@ -4622,7 +4622,7 @@
         <v>45754.42708333334</v>
       </c>
       <c r="B523" t="n">
-        <v>77082.8</v>
+        <v>77073.13</v>
       </c>
     </row>
     <row r="524">
@@ -4766,7 +4766,7 @@
         <v>45754.61458333334</v>
       </c>
       <c r="B541" t="n">
-        <v>78970.84</v>
+        <v>78982.77</v>
       </c>
     </row>
     <row r="542">
@@ -4774,7 +4774,7 @@
         <v>45754.625</v>
       </c>
       <c r="B542" t="n">
-        <v>78499.50999999999</v>
+        <v>78721.23</v>
       </c>
     </row>
     <row r="543">
@@ -4798,7 +4798,7 @@
         <v>45754.65625</v>
       </c>
       <c r="B545" t="n">
-        <v>78683.60000000001</v>
+        <v>78540.28</v>
       </c>
     </row>
     <row r="546">
@@ -4822,7 +4822,7 @@
         <v>45754.6875</v>
       </c>
       <c r="B548" t="n">
-        <v>77914.44</v>
+        <v>77844.7</v>
       </c>
     </row>
     <row r="549">
@@ -4886,7 +4886,7 @@
         <v>45754.77083333334</v>
       </c>
       <c r="B556" t="n">
-        <v>78933.71000000001</v>
+        <v>78891.7</v>
       </c>
     </row>
     <row r="557">
@@ -4902,7 +4902,7 @@
         <v>45754.79166666666</v>
       </c>
       <c r="B558" t="n">
-        <v>78353.16</v>
+        <v>78383.07000000001</v>
       </c>
     </row>
     <row r="559">
@@ -4918,7 +4918,7 @@
         <v>45754.8125</v>
       </c>
       <c r="B560" t="n">
-        <v>78228.16</v>
+        <v>78172.73</v>
       </c>
     </row>
     <row r="561">
@@ -4958,7 +4958,7 @@
         <v>45754.86458333334</v>
       </c>
       <c r="B565" t="n">
-        <v>78813.86</v>
+        <v>78801.33</v>
       </c>
     </row>
     <row r="566">
@@ -5086,7 +5086,7 @@
         <v>45755.03125</v>
       </c>
       <c r="B581" t="n">
-        <v>79061.53</v>
+        <v>78990.57000000001</v>
       </c>
     </row>
     <row r="582">
@@ -5150,7 +5150,7 @@
         <v>45755.11458333334</v>
       </c>
       <c r="B589" t="n">
-        <v>79891.25</v>
+        <v>79911.47</v>
       </c>
     </row>
     <row r="590">
@@ -5230,7 +5230,7 @@
         <v>45755.21875</v>
       </c>
       <c r="B599" t="n">
-        <v>79611.97</v>
+        <v>79598.23</v>
       </c>
     </row>
     <row r="600">
@@ -5246,7 +5246,7 @@
         <v>45755.23958333334</v>
       </c>
       <c r="B601" t="n">
-        <v>79817.75999999999</v>
+        <v>79820.36</v>
       </c>
     </row>
     <row r="602">
@@ -5270,7 +5270,7 @@
         <v>45755.27083333334</v>
       </c>
       <c r="B604" t="n">
-        <v>79485.91</v>
+        <v>79513.78999999999</v>
       </c>
     </row>
     <row r="605">
@@ -5326,7 +5326,7 @@
         <v>45755.34375</v>
       </c>
       <c r="B611" t="n">
-        <v>78971.87</v>
+        <v>78970.7</v>
       </c>
     </row>
     <row r="612">
@@ -5406,7 +5406,7 @@
         <v>45755.44791666666</v>
       </c>
       <c r="B621" t="n">
-        <v>78961.67999999999</v>
+        <v>78966.89</v>
       </c>
     </row>
     <row r="622">
@@ -5438,7 +5438,7 @@
         <v>45755.48958333334</v>
       </c>
       <c r="B625" t="n">
-        <v>79869.57000000001</v>
+        <v>79980.86</v>
       </c>
     </row>
     <row r="626">
@@ -5446,7 +5446,7 @@
         <v>45755.5</v>
       </c>
       <c r="B626" t="n">
-        <v>80051.63</v>
+        <v>80026.05</v>
       </c>
     </row>
     <row r="627">
@@ -5782,7 +5782,7 @@
         <v>45755.9375</v>
       </c>
       <c r="B668" t="n">
-        <v>76337.92</v>
+        <v>76378.95</v>
       </c>
     </row>
     <row r="669">
@@ -5790,7 +5790,7 @@
         <v>45755.94791666666</v>
       </c>
       <c r="B669" t="n">
-        <v>76719.98</v>
+        <v>76697.05</v>
       </c>
     </row>
     <row r="670">
@@ -5942,7 +5942,7 @@
         <v>45756.14583333334</v>
       </c>
       <c r="B688" t="n">
-        <v>75210.91</v>
+        <v>75259.03999999999</v>
       </c>
     </row>
     <row r="689">
@@ -6086,7 +6086,7 @@
         <v>45756.33333333334</v>
       </c>
       <c r="B706" t="n">
-        <v>77399.89999999999</v>
+        <v>77366.64999999999</v>
       </c>
     </row>
     <row r="707">
@@ -6118,7 +6118,7 @@
         <v>45756.375</v>
       </c>
       <c r="B710" t="n">
-        <v>77322.05</v>
+        <v>77298.36</v>
       </c>
     </row>
     <row r="711">
@@ -6254,7 +6254,7 @@
         <v>45756.55208333334</v>
       </c>
       <c r="B727" t="n">
-        <v>76776.94</v>
+        <v>76758.78999999999</v>
       </c>
     </row>
     <row r="728">
@@ -6286,7 +6286,7 @@
         <v>45756.59375</v>
       </c>
       <c r="B731" t="n">
-        <v>77421.38</v>
+        <v>77432.52</v>
       </c>
     </row>
     <row r="732">
@@ -6326,7 +6326,7 @@
         <v>45756.64583333334</v>
       </c>
       <c r="B736" t="n">
-        <v>77022.62</v>
+        <v>77051.38</v>
       </c>
     </row>
     <row r="737">
@@ -6390,7 +6390,7 @@
         <v>45756.72916666666</v>
       </c>
       <c r="B744" t="n">
-        <v>81330.07000000001</v>
+        <v>81319.71000000001</v>
       </c>
     </row>
     <row r="745">
@@ -6438,7 +6438,7 @@
         <v>45756.79166666666</v>
       </c>
       <c r="B750" t="n">
-        <v>82052.72</v>
+        <v>82096.85000000001</v>
       </c>
     </row>
     <row r="751">
@@ -6518,7 +6518,7 @@
         <v>45756.89583333334</v>
       </c>
       <c r="B760" t="n">
-        <v>83004.05</v>
+        <v>82986.66</v>
       </c>
     </row>
     <row r="761">
@@ -6622,7 +6622,7 @@
         <v>45757.03125</v>
       </c>
       <c r="B773" t="n">
-        <v>82276.57000000001</v>
+        <v>82318.63</v>
       </c>
     </row>
     <row r="774">
@@ -6878,7 +6878,7 @@
         <v>45757.36458333334</v>
       </c>
       <c r="B805" t="n">
-        <v>81478.48</v>
+        <v>81499.44</v>
       </c>
     </row>
     <row r="806">
@@ -6918,7 +6918,7 @@
         <v>45757.41666666666</v>
       </c>
       <c r="B810" t="n">
-        <v>82086.09</v>
+        <v>82030.87</v>
       </c>
     </row>
     <row r="811">
@@ -7030,7 +7030,7 @@
         <v>45757.5625</v>
       </c>
       <c r="B824" t="n">
-        <v>80881.00999999999</v>
+        <v>80770.36</v>
       </c>
     </row>
     <row r="825">
@@ -7094,7 +7094,7 @@
         <v>45757.64583333334</v>
       </c>
       <c r="B832" t="n">
-        <v>79405.77</v>
+        <v>79258.64999999999</v>
       </c>
     </row>
     <row r="833">
@@ -7182,7 +7182,7 @@
         <v>45757.76041666666</v>
       </c>
       <c r="B843" t="n">
-        <v>79704.34</v>
+        <v>79691.67</v>
       </c>
     </row>
     <row r="844">
@@ -7238,7 +7238,7 @@
         <v>45757.83333333334</v>
       </c>
       <c r="B850" t="n">
-        <v>79883.52</v>
+        <v>79783.08</v>
       </c>
     </row>
     <row r="851">
@@ -7294,7 +7294,7 @@
         <v>45757.90625</v>
       </c>
       <c r="B857" t="n">
-        <v>79675.05</v>
+        <v>79672.05</v>
       </c>
     </row>
     <row r="858">
@@ -7638,7 +7638,7 @@
         <v>45758.35416666666</v>
       </c>
       <c r="B900" t="n">
-        <v>81613.45</v>
+        <v>81533.12</v>
       </c>
     </row>
     <row r="901">
@@ -7750,7 +7750,7 @@
         <v>45758.5</v>
       </c>
       <c r="B914" t="n">
-        <v>81876.12</v>
+        <v>81880.44</v>
       </c>
     </row>
     <row r="915">
@@ -7774,7 +7774,7 @@
         <v>45758.53125</v>
       </c>
       <c r="B917" t="n">
-        <v>82000.7</v>
+        <v>82004.32000000001</v>
       </c>
     </row>
     <row r="918">
@@ -7950,7 +7950,7 @@
         <v>45758.76041666666</v>
       </c>
       <c r="B939" t="n">
-        <v>83862.38</v>
+        <v>83915.55</v>
       </c>
     </row>
     <row r="940">
@@ -7958,7 +7958,7 @@
         <v>45758.77083333334</v>
       </c>
       <c r="B940" t="n">
-        <v>83817.12</v>
+        <v>83805.66</v>
       </c>
     </row>
     <row r="941">
@@ -7990,7 +7990,7 @@
         <v>45758.8125</v>
       </c>
       <c r="B944" t="n">
-        <v>83793.24000000001</v>
+        <v>83800.81</v>
       </c>
     </row>
     <row r="945">
@@ -8070,7 +8070,7 @@
         <v>45758.91666666666</v>
       </c>
       <c r="B954" t="n">
-        <v>83556.97</v>
+        <v>83546.27</v>
       </c>
     </row>
     <row r="955">
@@ -8238,7 +8238,7 @@
         <v>45759.13541666666</v>
       </c>
       <c r="B975" t="n">
-        <v>83003.74000000001</v>
+        <v>82991.3</v>
       </c>
     </row>
     <row r="976">
@@ -8294,7 +8294,7 @@
         <v>45759.20833333334</v>
       </c>
       <c r="B982" t="n">
-        <v>83268.11</v>
+        <v>83267.48</v>
       </c>
     </row>
     <row r="983">
@@ -8358,7 +8358,7 @@
         <v>45759.29166666666</v>
       </c>
       <c r="B990" t="n">
-        <v>83499.09</v>
+        <v>83483.75999999999</v>
       </c>
     </row>
     <row r="991">
@@ -8430,7 +8430,7 @@
         <v>45759.38541666666</v>
       </c>
       <c r="B999" t="n">
-        <v>83438.34</v>
+        <v>83438.7</v>
       </c>
     </row>
     <row r="1000">
@@ -8454,7 +8454,7 @@
         <v>45759.41666666666</v>
       </c>
       <c r="B1002" t="n">
-        <v>83460.92999999999</v>
+        <v>83457.2</v>
       </c>
     </row>
     <row r="1003">
@@ -8590,7 +8590,7 @@
         <v>45759.59375</v>
       </c>
       <c r="B1019" t="n">
-        <v>84799.16</v>
+        <v>84798.24000000001</v>
       </c>
     </row>
     <row r="1020">
@@ -8734,7 +8734,7 @@
         <v>45759.78125</v>
       </c>
       <c r="B1037" t="n">
-        <v>85150.95</v>
+        <v>85144.72</v>
       </c>
     </row>
     <row r="1038">
@@ -8742,7 +8742,7 @@
         <v>45759.79166666666</v>
       </c>
       <c r="B1038" t="n">
-        <v>85047.85000000001</v>
+        <v>85073.38</v>
       </c>
     </row>
     <row r="1039">
@@ -8790,7 +8790,7 @@
         <v>45759.85416666666</v>
       </c>
       <c r="B1044" t="n">
-        <v>85787.16</v>
+        <v>85852.02</v>
       </c>
     </row>
     <row r="1045">
@@ -8878,7 +8878,7 @@
         <v>45759.96875</v>
       </c>
       <c r="B1055" t="n">
-        <v>85189.57000000001</v>
+        <v>85200.46000000001</v>
       </c>
     </row>
     <row r="1056">
@@ -9030,7 +9030,7 @@
         <v>45760.16666666666</v>
       </c>
       <c r="B1074" t="n">
-        <v>85077.24000000001</v>
+        <v>85111</v>
       </c>
     </row>
     <row r="1075">
@@ -9110,7 +9110,7 @@
         <v>45760.27083333334</v>
       </c>
       <c r="B1084" t="n">
-        <v>84720.48</v>
+        <v>84725.5</v>
       </c>
     </row>
     <row r="1085">
@@ -9246,7 +9246,7 @@
         <v>45760.44791666666</v>
       </c>
       <c r="B1101" t="n">
-        <v>84670.08</v>
+        <v>84667.48</v>
       </c>
     </row>
     <row r="1102">
@@ -9294,7 +9294,7 @@
         <v>45760.51041666666</v>
       </c>
       <c r="B1107" t="n">
-        <v>84287.56</v>
+        <v>84262.72</v>
       </c>
     </row>
     <row r="1108">
@@ -9382,7 +9382,7 @@
         <v>45760.625</v>
       </c>
       <c r="B1118" t="n">
-        <v>83773.09</v>
+        <v>83795.31</v>
       </c>
     </row>
     <row r="1119">
@@ -9494,7 +9494,7 @@
         <v>45760.77083333334</v>
       </c>
       <c r="B1132" t="n">
-        <v>84802.48</v>
+        <v>84813.3</v>
       </c>
     </row>
     <row r="1133">
@@ -9638,7 +9638,7 @@
         <v>45760.95833333334</v>
       </c>
       <c r="B1150" t="n">
-        <v>83516.66</v>
+        <v>83543.34</v>
       </c>
     </row>
     <row r="1151">
@@ -9846,7 +9846,7 @@
         <v>45761.22916666666</v>
       </c>
       <c r="B1176" t="n">
-        <v>84361.02</v>
+        <v>84377.89</v>
       </c>
     </row>
     <row r="1177">
@@ -9878,7 +9878,7 @@
         <v>45761.27083333334</v>
       </c>
       <c r="B1180" t="n">
-        <v>84540.28</v>
+        <v>84539.42999999999</v>
       </c>
     </row>
     <row r="1181">
@@ -9958,7 +9958,7 @@
         <v>45761.375</v>
       </c>
       <c r="B1190" t="n">
-        <v>84827.62</v>
+        <v>84855.09</v>
       </c>
     </row>
     <row r="1191">
@@ -9966,7 +9966,7 @@
         <v>45761.38541666666</v>
       </c>
       <c r="B1191" t="n">
-        <v>84485.25999999999</v>
+        <v>84516.36</v>
       </c>
     </row>
     <row r="1192">
@@ -10046,7 +10046,7 @@
         <v>45761.48958333334</v>
       </c>
       <c r="B1201" t="n">
-        <v>84869.34</v>
+        <v>84902.25</v>
       </c>
     </row>
     <row r="1202">
@@ -10086,7 +10086,7 @@
         <v>45761.54166666666</v>
       </c>
       <c r="B1206" t="n">
-        <v>85057.23</v>
+        <v>85068.67</v>
       </c>
     </row>
     <row r="1207">
@@ -10110,7 +10110,7 @@
         <v>45761.57291666666</v>
       </c>
       <c r="B1209" t="n">
-        <v>84463.19</v>
+        <v>84460.98</v>
       </c>
     </row>
     <row r="1210">
@@ -10134,7 +10134,7 @@
         <v>45761.60416666666</v>
       </c>
       <c r="B1212" t="n">
-        <v>85483.41</v>
+        <v>85476.3</v>
       </c>
     </row>
     <row r="1213">
@@ -10238,7 +10238,7 @@
         <v>45761.73958333334</v>
       </c>
       <c r="B1225" t="n">
-        <v>84820.33</v>
+        <v>84874.98</v>
       </c>
     </row>
     <row r="1226">
@@ -10262,7 +10262,7 @@
         <v>45761.77083333334</v>
       </c>
       <c r="B1228" t="n">
-        <v>84842.23</v>
+        <v>84885.86</v>
       </c>
     </row>
     <row r="1229">
@@ -10294,7 +10294,7 @@
         <v>45761.8125</v>
       </c>
       <c r="B1232" t="n">
-        <v>85065.87</v>
+        <v>85039.09</v>
       </c>
     </row>
     <row r="1233">
@@ -10326,7 +10326,7 @@
         <v>45761.85416666666</v>
       </c>
       <c r="B1236" t="n">
-        <v>84612.77</v>
+        <v>84611.21000000001</v>
       </c>
     </row>
     <row r="1237">
@@ -10550,7 +10550,7 @@
         <v>45762.14583333334</v>
       </c>
       <c r="B1264" t="n">
-        <v>85240.66</v>
+        <v>85261.36</v>
       </c>
     </row>
     <row r="1265">
@@ -13806,7 +13806,7 @@
         <v>45766.38541666666</v>
       </c>
       <c r="B1671" t="n">
-        <v>85382.31</v>
+        <v>85379.88</v>
       </c>
     </row>
     <row r="1672">
@@ -23806,7 +23806,7 @@
         <v>45779.40625</v>
       </c>
       <c r="B2921" t="n">
-        <v>96671.78</v>
+        <v>96660.8</v>
       </c>
     </row>
     <row r="2922">
@@ -24190,7 +24190,7 @@
         <v>45779.90625</v>
       </c>
       <c r="B2969" t="n">
-        <v>96628.38</v>
+        <v>96804.67</v>
       </c>
     </row>
     <row r="2970">
@@ -26534,7 +26534,7 @@
         <v>45782.95833333334</v>
       </c>
       <c r="B3262" t="n">
-        <v>95060.32000000001</v>
+        <v>95048.16</v>
       </c>
     </row>
     <row r="3263">
@@ -29878,7 +29878,7 @@
         <v>45787.3125</v>
       </c>
       <c r="B3680" t="n">
-        <v>103693.98</v>
+        <v>103697.75</v>
       </c>
     </row>
     <row r="3681">
@@ -31550,7 +31550,7 @@
         <v>45789.48958333334</v>
       </c>
       <c r="B3889" t="n">
-        <v>103752.06</v>
+        <v>103747.55</v>
       </c>
     </row>
     <row r="3890">
@@ -32318,7 +32318,7 @@
         <v>45790.48958333334</v>
       </c>
       <c r="B3985" t="n">
-        <v>103705.94</v>
+        <v>103687.08</v>
       </c>
     </row>
     <row r="3986">
@@ -35118,7 +35118,7 @@
         <v>45794.13541666666</v>
       </c>
       <c r="B4335" t="n">
-        <v>103235.99</v>
+        <v>103217.06</v>
       </c>
     </row>
     <row r="4336">
@@ -36638,7 +36638,7 @@
         <v>45796.11458333334</v>
       </c>
       <c r="B4525" t="n">
-        <v>104639.44</v>
+        <v>104627.81</v>
       </c>
     </row>
     <row r="4526">
@@ -37918,7 +37918,7 @@
         <v>45797.78125</v>
       </c>
       <c r="B4685" t="n">
-        <v>105362.58</v>
+        <v>105297.04</v>
       </c>
     </row>
     <row r="4686">
@@ -38046,7 +38046,7 @@
         <v>45797.94791666666</v>
       </c>
       <c r="B4701" t="n">
-        <v>106825.12</v>
+        <v>106836.06</v>
       </c>
     </row>
     <row r="4702">
@@ -38446,7 +38446,7 @@
         <v>45798.46875</v>
       </c>
       <c r="B4751" t="n">
-        <v>106673.23</v>
+        <v>106689.5</v>
       </c>
     </row>
     <row r="4752">
@@ -39374,7 +39374,7 @@
         <v>45799.67708333334</v>
       </c>
       <c r="B4867" t="n">
-        <v>111345.7</v>
+        <v>111280.35</v>
       </c>
     </row>
     <row r="4868">
@@ -39694,7 +39694,7 @@
         <v>45800.09375</v>
       </c>
       <c r="B4907" t="n">
-        <v>111508.18</v>
+        <v>111570.43</v>
       </c>
     </row>
     <row r="4908">
@@ -40126,7 +40126,7 @@
         <v>45800.65625</v>
       </c>
       <c r="B4961" t="n">
-        <v>109100.03</v>
+        <v>109137.84</v>
       </c>
     </row>
     <row r="4962">
@@ -40254,7 +40254,7 @@
         <v>45800.82291666666</v>
       </c>
       <c r="B4977" t="n">
-        <v>108867.41</v>
+        <v>108866.16</v>
       </c>
     </row>
     <row r="4978">
@@ -40878,7 +40878,7 @@
         <v>45801.63541666666</v>
       </c>
       <c r="B5055" t="n">
-        <v>109055.76</v>
+        <v>108965.1</v>
       </c>
     </row>
     <row r="5056">
@@ -41086,7 +41086,7 @@
         <v>45801.90625</v>
       </c>
       <c r="B5081" t="n">
-        <v>108860.9</v>
+        <v>108862.95</v>
       </c>
     </row>
     <row r="5082">
@@ -45950,7 +45950,23 @@
         <v>45808.23958333334</v>
       </c>
       <c r="B5689" t="n">
-        <v>103697.68</v>
+        <v>103587.92</v>
+      </c>
+    </row>
+    <row r="5690">
+      <c r="A5690" s="2" t="n">
+        <v>45808.25</v>
+      </c>
+      <c r="B5690" t="n">
+        <v>103608.63</v>
+      </c>
+    </row>
+    <row r="5691">
+      <c r="A5691" s="2" t="n">
+        <v>45808.26041666666</v>
+      </c>
+      <c r="B5691" t="n">
+        <v>103666.75</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/bitcoin_close_15min.xlsx
+++ b/Uploads/bitcoin_close_15min.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5657"/>
+  <dimension ref="A1:B5679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,7 +486,7 @@
         <v>45750.04166666666</v>
       </c>
       <c r="B6" t="n">
-        <v>83321.75999999999</v>
+        <v>83300.98</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         <v>45750.0625</v>
       </c>
       <c r="B8" t="n">
-        <v>83667.98</v>
+        <v>83629.95</v>
       </c>
     </row>
     <row r="9">
@@ -542,7 +542,7 @@
         <v>45750.11458333334</v>
       </c>
       <c r="B13" t="n">
-        <v>83729.32000000001</v>
+        <v>83737.62</v>
       </c>
     </row>
     <row r="14">
@@ -558,7 +558,7 @@
         <v>45750.13541666666</v>
       </c>
       <c r="B15" t="n">
-        <v>83599.56</v>
+        <v>83581.59</v>
       </c>
     </row>
     <row r="16">
@@ -638,7 +638,7 @@
         <v>45750.23958333334</v>
       </c>
       <c r="B25" t="n">
-        <v>83401.62</v>
+        <v>83386.55</v>
       </c>
     </row>
     <row r="26">
@@ -670,7 +670,7 @@
         <v>45750.28125</v>
       </c>
       <c r="B29" t="n">
-        <v>83014.34</v>
+        <v>83038.41</v>
       </c>
     </row>
     <row r="30">
@@ -758,7 +758,7 @@
         <v>45750.39583333334</v>
       </c>
       <c r="B40" t="n">
-        <v>83726.82000000001</v>
+        <v>83716.24000000001</v>
       </c>
     </row>
     <row r="41">
@@ -862,7 +862,7 @@
         <v>45750.53125</v>
       </c>
       <c r="B53" t="n">
-        <v>82035.78</v>
+        <v>81986.05</v>
       </c>
     </row>
     <row r="54">
@@ -886,7 +886,7 @@
         <v>45750.5625</v>
       </c>
       <c r="B56" t="n">
-        <v>82296.19</v>
+        <v>82501.62</v>
       </c>
     </row>
     <row r="57">
@@ -1014,7 +1014,7 @@
         <v>45750.72916666666</v>
       </c>
       <c r="B72" t="n">
-        <v>82067.69</v>
+        <v>82020.53999999999</v>
       </c>
     </row>
     <row r="73">
@@ -1182,7 +1182,7 @@
         <v>45750.94791666666</v>
       </c>
       <c r="B93" t="n">
-        <v>82674.91</v>
+        <v>82658.25</v>
       </c>
     </row>
     <row r="94">
@@ -1238,7 +1238,7 @@
         <v>45751.02083333334</v>
       </c>
       <c r="B100" t="n">
-        <v>83254.44</v>
+        <v>83293.25999999999</v>
       </c>
     </row>
     <row r="101">
@@ -1262,7 +1262,7 @@
         <v>45751.05208333334</v>
       </c>
       <c r="B103" t="n">
-        <v>83057.17</v>
+        <v>83069.75</v>
       </c>
     </row>
     <row r="104">
@@ -1278,7 +1278,7 @@
         <v>45751.07291666666</v>
       </c>
       <c r="B105" t="n">
-        <v>82590.45</v>
+        <v>82575.49000000001</v>
       </c>
     </row>
     <row r="106">
@@ -1342,7 +1342,7 @@
         <v>45751.15625</v>
       </c>
       <c r="B113" t="n">
-        <v>82782.63</v>
+        <v>82766.91</v>
       </c>
     </row>
     <row r="114">
@@ -1350,7 +1350,7 @@
         <v>45751.16666666666</v>
       </c>
       <c r="B114" t="n">
-        <v>82671.07000000001</v>
+        <v>82683.35000000001</v>
       </c>
     </row>
     <row r="115">
@@ -1406,7 +1406,7 @@
         <v>45751.23958333334</v>
       </c>
       <c r="B121" t="n">
-        <v>83173.12</v>
+        <v>83166.5</v>
       </c>
     </row>
     <row r="122">
@@ -1462,7 +1462,7 @@
         <v>45751.3125</v>
       </c>
       <c r="B128" t="n">
-        <v>83665.83</v>
+        <v>83676.62</v>
       </c>
     </row>
     <row r="129">
@@ -1510,7 +1510,7 @@
         <v>45751.375</v>
       </c>
       <c r="B134" t="n">
-        <v>84332.86</v>
+        <v>84319.98</v>
       </c>
     </row>
     <row r="135">
@@ -1558,7 +1558,7 @@
         <v>45751.4375</v>
       </c>
       <c r="B140" t="n">
-        <v>82886.05</v>
+        <v>83010.2</v>
       </c>
     </row>
     <row r="141">
@@ -1606,7 +1606,7 @@
         <v>45751.5</v>
       </c>
       <c r="B146" t="n">
-        <v>82350.82000000001</v>
+        <v>82294.46000000001</v>
       </c>
     </row>
     <row r="147">
@@ -1622,7 +1622,7 @@
         <v>45751.52083333334</v>
       </c>
       <c r="B148" t="n">
-        <v>82645.59</v>
+        <v>82660.05</v>
       </c>
     </row>
     <row r="149">
@@ -1630,7 +1630,7 @@
         <v>45751.53125</v>
       </c>
       <c r="B149" t="n">
-        <v>82783.46000000001</v>
+        <v>82819.55</v>
       </c>
     </row>
     <row r="150">
@@ -1694,7 +1694,7 @@
         <v>45751.61458333334</v>
       </c>
       <c r="B157" t="n">
-        <v>82693.91</v>
+        <v>82576.74000000001</v>
       </c>
     </row>
     <row r="158">
@@ -1710,7 +1710,7 @@
         <v>45751.63541666666</v>
       </c>
       <c r="B159" t="n">
-        <v>83237.77</v>
+        <v>83222.78999999999</v>
       </c>
     </row>
     <row r="160">
@@ -1894,7 +1894,7 @@
         <v>45751.875</v>
       </c>
       <c r="B182" t="n">
-        <v>84163.99000000001</v>
+        <v>84197.64</v>
       </c>
     </row>
     <row r="183">
@@ -1918,7 +1918,7 @@
         <v>45751.90625</v>
       </c>
       <c r="B185" t="n">
-        <v>84184.05</v>
+        <v>84215.49000000001</v>
       </c>
     </row>
     <row r="186">
@@ -1950,7 +1950,7 @@
         <v>45751.94791666666</v>
       </c>
       <c r="B189" t="n">
-        <v>84029.25</v>
+        <v>84027.66</v>
       </c>
     </row>
     <row r="190">
@@ -1990,7 +1990,7 @@
         <v>45752</v>
       </c>
       <c r="B194" t="n">
-        <v>83695.5</v>
+        <v>83674.03999999999</v>
       </c>
     </row>
     <row r="195">
@@ -2046,7 +2046,7 @@
         <v>45752.07291666666</v>
       </c>
       <c r="B201" t="n">
-        <v>83950.75</v>
+        <v>83954.17999999999</v>
       </c>
     </row>
     <row r="202">
@@ -2078,7 +2078,7 @@
         <v>45752.11458333334</v>
       </c>
       <c r="B205" t="n">
-        <v>83937.61</v>
+        <v>83923.27</v>
       </c>
     </row>
     <row r="206">
@@ -2158,7 +2158,7 @@
         <v>45752.21875</v>
       </c>
       <c r="B215" t="n">
-        <v>83813.21000000001</v>
+        <v>83808.34</v>
       </c>
     </row>
     <row r="216">
@@ -2206,7 +2206,7 @@
         <v>45752.28125</v>
       </c>
       <c r="B221" t="n">
-        <v>83446.75999999999</v>
+        <v>83412.44</v>
       </c>
     </row>
     <row r="222">
@@ -2214,7 +2214,7 @@
         <v>45752.29166666666</v>
       </c>
       <c r="B222" t="n">
-        <v>83385.02</v>
+        <v>83412.63</v>
       </c>
     </row>
     <row r="223">
@@ -2254,7 +2254,7 @@
         <v>45752.34375</v>
       </c>
       <c r="B227" t="n">
-        <v>83369.03999999999</v>
+        <v>83370.27</v>
       </c>
     </row>
     <row r="228">
@@ -2286,7 +2286,7 @@
         <v>45752.38541666666</v>
       </c>
       <c r="B231" t="n">
-        <v>83675.25</v>
+        <v>83688.32000000001</v>
       </c>
     </row>
     <row r="232">
@@ -2294,7 +2294,7 @@
         <v>45752.39583333334</v>
       </c>
       <c r="B232" t="n">
-        <v>83697.89</v>
+        <v>83677.2</v>
       </c>
     </row>
     <row r="233">
@@ -2406,7 +2406,7 @@
         <v>45752.54166666666</v>
       </c>
       <c r="B246" t="n">
-        <v>83153.98</v>
+        <v>83150.89999999999</v>
       </c>
     </row>
     <row r="247">
@@ -2446,7 +2446,7 @@
         <v>45752.59375</v>
       </c>
       <c r="B251" t="n">
-        <v>82853.05</v>
+        <v>82852.5</v>
       </c>
     </row>
     <row r="252">
@@ -2494,7 +2494,7 @@
         <v>45752.65625</v>
       </c>
       <c r="B257" t="n">
-        <v>82566.14</v>
+        <v>82565.72</v>
       </c>
     </row>
     <row r="258">
@@ -2622,7 +2622,7 @@
         <v>45752.82291666666</v>
       </c>
       <c r="B273" t="n">
-        <v>82787</v>
+        <v>82776.66</v>
       </c>
     </row>
     <row r="274">
@@ -2710,7 +2710,7 @@
         <v>45752.9375</v>
       </c>
       <c r="B284" t="n">
-        <v>83039.53999999999</v>
+        <v>83017.66</v>
       </c>
     </row>
     <row r="285">
@@ -2718,7 +2718,7 @@
         <v>45752.94791666666</v>
       </c>
       <c r="B285" t="n">
-        <v>83149.06</v>
+        <v>83135.7</v>
       </c>
     </row>
     <row r="286">
@@ -2766,7 +2766,7 @@
         <v>45753.01041666666</v>
       </c>
       <c r="B291" t="n">
-        <v>83506.89999999999</v>
+        <v>83511.62</v>
       </c>
     </row>
     <row r="292">
@@ -2798,7 +2798,7 @@
         <v>45753.05208333334</v>
       </c>
       <c r="B295" t="n">
-        <v>83565.52</v>
+        <v>83600.39999999999</v>
       </c>
     </row>
     <row r="296">
@@ -2814,7 +2814,7 @@
         <v>45753.07291666666</v>
       </c>
       <c r="B297" t="n">
-        <v>83411.13</v>
+        <v>83415.25</v>
       </c>
     </row>
     <row r="298">
@@ -2854,7 +2854,7 @@
         <v>45753.125</v>
       </c>
       <c r="B302" t="n">
-        <v>83320.47</v>
+        <v>83314.67</v>
       </c>
     </row>
     <row r="303">
@@ -2974,7 +2974,7 @@
         <v>45753.28125</v>
       </c>
       <c r="B317" t="n">
-        <v>83125.67</v>
+        <v>83155.45</v>
       </c>
     </row>
     <row r="318">
@@ -2982,7 +2982,7 @@
         <v>45753.29166666666</v>
       </c>
       <c r="B318" t="n">
-        <v>83142.38</v>
+        <v>83137.35000000001</v>
       </c>
     </row>
     <row r="319">
@@ -2998,7 +2998,7 @@
         <v>45753.3125</v>
       </c>
       <c r="B320" t="n">
-        <v>83045.7</v>
+        <v>83058.14</v>
       </c>
     </row>
     <row r="321">
@@ -3006,7 +3006,7 @@
         <v>45753.32291666666</v>
       </c>
       <c r="B321" t="n">
-        <v>82996.96000000001</v>
+        <v>83011.2</v>
       </c>
     </row>
     <row r="322">
@@ -3086,7 +3086,7 @@
         <v>45753.42708333334</v>
       </c>
       <c r="B331" t="n">
-        <v>82772.24000000001</v>
+        <v>82781.50999999999</v>
       </c>
     </row>
     <row r="332">
@@ -3230,7 +3230,7 @@
         <v>45753.61458333334</v>
       </c>
       <c r="B349" t="n">
-        <v>82555.71000000001</v>
+        <v>82512.78999999999</v>
       </c>
     </row>
     <row r="350">
@@ -3334,7 +3334,7 @@
         <v>45753.75</v>
       </c>
       <c r="B362" t="n">
-        <v>80379.10000000001</v>
+        <v>80348.36</v>
       </c>
     </row>
     <row r="363">
@@ -3358,7 +3358,7 @@
         <v>45753.78125</v>
       </c>
       <c r="B365" t="n">
-        <v>78934.62</v>
+        <v>78977.82000000001</v>
       </c>
     </row>
     <row r="366">
@@ -3366,7 +3366,7 @@
         <v>45753.79166666666</v>
       </c>
       <c r="B366" t="n">
-        <v>79206.06</v>
+        <v>79131.22</v>
       </c>
     </row>
     <row r="367">
@@ -3414,7 +3414,7 @@
         <v>45753.85416666666</v>
       </c>
       <c r="B372" t="n">
-        <v>79255.10000000001</v>
+        <v>79435.3</v>
       </c>
     </row>
     <row r="373">
@@ -3422,7 +3422,7 @@
         <v>45753.86458333334</v>
       </c>
       <c r="B373" t="n">
-        <v>78802.14999999999</v>
+        <v>78810</v>
       </c>
     </row>
     <row r="374">
@@ -3470,7 +3470,7 @@
         <v>45753.92708333334</v>
       </c>
       <c r="B379" t="n">
-        <v>78955.62</v>
+        <v>78843.72</v>
       </c>
     </row>
     <row r="380">
@@ -3494,7 +3494,7 @@
         <v>45753.95833333334</v>
       </c>
       <c r="B382" t="n">
-        <v>77530.27</v>
+        <v>77488.77</v>
       </c>
     </row>
     <row r="383">
@@ -3502,7 +3502,7 @@
         <v>45753.96875</v>
       </c>
       <c r="B383" t="n">
-        <v>77483.55</v>
+        <v>77450.86</v>
       </c>
     </row>
     <row r="384">
@@ -3558,7 +3558,7 @@
         <v>45754.04166666666</v>
       </c>
       <c r="B390" t="n">
-        <v>78717.69</v>
+        <v>78678.46000000001</v>
       </c>
     </row>
     <row r="391">
@@ -3582,7 +3582,7 @@
         <v>45754.07291666666</v>
       </c>
       <c r="B393" t="n">
-        <v>79159.7</v>
+        <v>79068.2</v>
       </c>
     </row>
     <row r="394">
@@ -3614,7 +3614,7 @@
         <v>45754.11458333334</v>
       </c>
       <c r="B397" t="n">
-        <v>78381.87</v>
+        <v>78382.2</v>
       </c>
     </row>
     <row r="398">
@@ -3646,7 +3646,7 @@
         <v>45754.15625</v>
       </c>
       <c r="B401" t="n">
-        <v>77584.98</v>
+        <v>77577.7</v>
       </c>
     </row>
     <row r="402">
@@ -3750,7 +3750,7 @@
         <v>45754.29166666666</v>
       </c>
       <c r="B414" t="n">
-        <v>75037.25999999999</v>
+        <v>75018.22</v>
       </c>
     </row>
     <row r="415">
@@ -3854,7 +3854,7 @@
         <v>45754.42708333334</v>
       </c>
       <c r="B427" t="n">
-        <v>77073.13</v>
+        <v>77082.8</v>
       </c>
     </row>
     <row r="428">
@@ -3998,7 +3998,7 @@
         <v>45754.61458333334</v>
       </c>
       <c r="B445" t="n">
-        <v>78982.77</v>
+        <v>78970.84</v>
       </c>
     </row>
     <row r="446">
@@ -4006,7 +4006,7 @@
         <v>45754.625</v>
       </c>
       <c r="B446" t="n">
-        <v>78721.23</v>
+        <v>78499.50999999999</v>
       </c>
     </row>
     <row r="447">
@@ -4030,7 +4030,7 @@
         <v>45754.65625</v>
       </c>
       <c r="B449" t="n">
-        <v>78540.28</v>
+        <v>78683.60000000001</v>
       </c>
     </row>
     <row r="450">
@@ -4054,7 +4054,7 @@
         <v>45754.6875</v>
       </c>
       <c r="B452" t="n">
-        <v>77844.7</v>
+        <v>77914.44</v>
       </c>
     </row>
     <row r="453">
@@ -4118,7 +4118,7 @@
         <v>45754.77083333334</v>
       </c>
       <c r="B460" t="n">
-        <v>78891.7</v>
+        <v>78933.71000000001</v>
       </c>
     </row>
     <row r="461">
@@ -4134,7 +4134,7 @@
         <v>45754.79166666666</v>
       </c>
       <c r="B462" t="n">
-        <v>78383.07000000001</v>
+        <v>78353.16</v>
       </c>
     </row>
     <row r="463">
@@ -4150,7 +4150,7 @@
         <v>45754.8125</v>
       </c>
       <c r="B464" t="n">
-        <v>78172.73</v>
+        <v>78228.16</v>
       </c>
     </row>
     <row r="465">
@@ -4190,7 +4190,7 @@
         <v>45754.86458333334</v>
       </c>
       <c r="B469" t="n">
-        <v>78801.33</v>
+        <v>78813.86</v>
       </c>
     </row>
     <row r="470">
@@ -4318,7 +4318,7 @@
         <v>45755.03125</v>
       </c>
       <c r="B485" t="n">
-        <v>78990.57000000001</v>
+        <v>79061.53</v>
       </c>
     </row>
     <row r="486">
@@ -4382,7 +4382,7 @@
         <v>45755.11458333334</v>
       </c>
       <c r="B493" t="n">
-        <v>79911.47</v>
+        <v>79891.25</v>
       </c>
     </row>
     <row r="494">
@@ -4462,7 +4462,7 @@
         <v>45755.21875</v>
       </c>
       <c r="B503" t="n">
-        <v>79598.23</v>
+        <v>79611.97</v>
       </c>
     </row>
     <row r="504">
@@ -4478,7 +4478,7 @@
         <v>45755.23958333334</v>
       </c>
       <c r="B505" t="n">
-        <v>79820.36</v>
+        <v>79817.75999999999</v>
       </c>
     </row>
     <row r="506">
@@ -4502,7 +4502,7 @@
         <v>45755.27083333334</v>
       </c>
       <c r="B508" t="n">
-        <v>79513.78999999999</v>
+        <v>79485.91</v>
       </c>
     </row>
     <row r="509">
@@ -4558,7 +4558,7 @@
         <v>45755.34375</v>
       </c>
       <c r="B515" t="n">
-        <v>78970.7</v>
+        <v>78971.87</v>
       </c>
     </row>
     <row r="516">
@@ -4638,7 +4638,7 @@
         <v>45755.44791666666</v>
       </c>
       <c r="B525" t="n">
-        <v>78966.89</v>
+        <v>78961.67999999999</v>
       </c>
     </row>
     <row r="526">
@@ -4670,7 +4670,7 @@
         <v>45755.48958333334</v>
       </c>
       <c r="B529" t="n">
-        <v>79980.86</v>
+        <v>79869.57000000001</v>
       </c>
     </row>
     <row r="530">
@@ -4678,7 +4678,7 @@
         <v>45755.5</v>
       </c>
       <c r="B530" t="n">
-        <v>80026.05</v>
+        <v>80051.63</v>
       </c>
     </row>
     <row r="531">
@@ -5014,7 +5014,7 @@
         <v>45755.9375</v>
       </c>
       <c r="B572" t="n">
-        <v>76378.95</v>
+        <v>76337.92</v>
       </c>
     </row>
     <row r="573">
@@ -5022,7 +5022,7 @@
         <v>45755.94791666666</v>
       </c>
       <c r="B573" t="n">
-        <v>76697.05</v>
+        <v>76719.98</v>
       </c>
     </row>
     <row r="574">
@@ -5174,7 +5174,7 @@
         <v>45756.14583333334</v>
       </c>
       <c r="B592" t="n">
-        <v>75259.03999999999</v>
+        <v>75210.91</v>
       </c>
     </row>
     <row r="593">
@@ -5318,7 +5318,7 @@
         <v>45756.33333333334</v>
       </c>
       <c r="B610" t="n">
-        <v>77366.64999999999</v>
+        <v>77399.89999999999</v>
       </c>
     </row>
     <row r="611">
@@ -5350,7 +5350,7 @@
         <v>45756.375</v>
       </c>
       <c r="B614" t="n">
-        <v>77298.36</v>
+        <v>77322.05</v>
       </c>
     </row>
     <row r="615">
@@ -5486,7 +5486,7 @@
         <v>45756.55208333334</v>
       </c>
       <c r="B631" t="n">
-        <v>76758.78999999999</v>
+        <v>76776.94</v>
       </c>
     </row>
     <row r="632">
@@ -5518,7 +5518,7 @@
         <v>45756.59375</v>
       </c>
       <c r="B635" t="n">
-        <v>77432.52</v>
+        <v>77421.38</v>
       </c>
     </row>
     <row r="636">
@@ -5558,7 +5558,7 @@
         <v>45756.64583333334</v>
       </c>
       <c r="B640" t="n">
-        <v>77051.38</v>
+        <v>77022.62</v>
       </c>
     </row>
     <row r="641">
@@ -5622,7 +5622,7 @@
         <v>45756.72916666666</v>
       </c>
       <c r="B648" t="n">
-        <v>81319.71000000001</v>
+        <v>81330.07000000001</v>
       </c>
     </row>
     <row r="649">
@@ -5670,7 +5670,7 @@
         <v>45756.79166666666</v>
       </c>
       <c r="B654" t="n">
-        <v>82096.85000000001</v>
+        <v>82052.72</v>
       </c>
     </row>
     <row r="655">
@@ -5750,7 +5750,7 @@
         <v>45756.89583333334</v>
       </c>
       <c r="B664" t="n">
-        <v>82986.66</v>
+        <v>83004.05</v>
       </c>
     </row>
     <row r="665">
@@ -5854,7 +5854,7 @@
         <v>45757.03125</v>
       </c>
       <c r="B677" t="n">
-        <v>82318.63</v>
+        <v>82276.57000000001</v>
       </c>
     </row>
     <row r="678">
@@ -6110,7 +6110,7 @@
         <v>45757.36458333334</v>
       </c>
       <c r="B709" t="n">
-        <v>81499.44</v>
+        <v>81478.48</v>
       </c>
     </row>
     <row r="710">
@@ -6150,7 +6150,7 @@
         <v>45757.41666666666</v>
       </c>
       <c r="B714" t="n">
-        <v>82030.87</v>
+        <v>82086.09</v>
       </c>
     </row>
     <row r="715">
@@ -6262,7 +6262,7 @@
         <v>45757.5625</v>
       </c>
       <c r="B728" t="n">
-        <v>80770.36</v>
+        <v>80881.00999999999</v>
       </c>
     </row>
     <row r="729">
@@ -6326,7 +6326,7 @@
         <v>45757.64583333334</v>
       </c>
       <c r="B736" t="n">
-        <v>79258.64999999999</v>
+        <v>79405.77</v>
       </c>
     </row>
     <row r="737">
@@ -6414,7 +6414,7 @@
         <v>45757.76041666666</v>
       </c>
       <c r="B747" t="n">
-        <v>79691.67</v>
+        <v>79704.34</v>
       </c>
     </row>
     <row r="748">
@@ -6470,7 +6470,7 @@
         <v>45757.83333333334</v>
       </c>
       <c r="B754" t="n">
-        <v>79783.08</v>
+        <v>79883.52</v>
       </c>
     </row>
     <row r="755">
@@ -6526,7 +6526,7 @@
         <v>45757.90625</v>
       </c>
       <c r="B761" t="n">
-        <v>79672.05</v>
+        <v>79675.05</v>
       </c>
     </row>
     <row r="762">
@@ -6870,7 +6870,7 @@
         <v>45758.35416666666</v>
       </c>
       <c r="B804" t="n">
-        <v>81533.12</v>
+        <v>81613.45</v>
       </c>
     </row>
     <row r="805">
@@ -6982,7 +6982,7 @@
         <v>45758.5</v>
       </c>
       <c r="B818" t="n">
-        <v>81880.44</v>
+        <v>81876.12</v>
       </c>
     </row>
     <row r="819">
@@ -7006,7 +7006,7 @@
         <v>45758.53125</v>
       </c>
       <c r="B821" t="n">
-        <v>82004.32000000001</v>
+        <v>82000.7</v>
       </c>
     </row>
     <row r="822">
@@ -7182,7 +7182,7 @@
         <v>45758.76041666666</v>
       </c>
       <c r="B843" t="n">
-        <v>83915.55</v>
+        <v>83862.38</v>
       </c>
     </row>
     <row r="844">
@@ -7190,7 +7190,7 @@
         <v>45758.77083333334</v>
       </c>
       <c r="B844" t="n">
-        <v>83805.66</v>
+        <v>83817.12</v>
       </c>
     </row>
     <row r="845">
@@ -7222,7 +7222,7 @@
         <v>45758.8125</v>
       </c>
       <c r="B848" t="n">
-        <v>83800.81</v>
+        <v>83793.24000000001</v>
       </c>
     </row>
     <row r="849">
@@ -7302,7 +7302,7 @@
         <v>45758.91666666666</v>
       </c>
       <c r="B858" t="n">
-        <v>83546.27</v>
+        <v>83556.97</v>
       </c>
     </row>
     <row r="859">
@@ -7470,7 +7470,7 @@
         <v>45759.13541666666</v>
       </c>
       <c r="B879" t="n">
-        <v>82991.3</v>
+        <v>83003.74000000001</v>
       </c>
     </row>
     <row r="880">
@@ -7526,7 +7526,7 @@
         <v>45759.20833333334</v>
       </c>
       <c r="B886" t="n">
-        <v>83267.48</v>
+        <v>83268.11</v>
       </c>
     </row>
     <row r="887">
@@ -7590,7 +7590,7 @@
         <v>45759.29166666666</v>
       </c>
       <c r="B894" t="n">
-        <v>83483.75999999999</v>
+        <v>83499.09</v>
       </c>
     </row>
     <row r="895">
@@ -7662,7 +7662,7 @@
         <v>45759.38541666666</v>
       </c>
       <c r="B903" t="n">
-        <v>83438.7</v>
+        <v>83438.34</v>
       </c>
     </row>
     <row r="904">
@@ -7686,7 +7686,7 @@
         <v>45759.41666666666</v>
       </c>
       <c r="B906" t="n">
-        <v>83457.2</v>
+        <v>83460.92999999999</v>
       </c>
     </row>
     <row r="907">
@@ -7822,7 +7822,7 @@
         <v>45759.59375</v>
       </c>
       <c r="B923" t="n">
-        <v>84798.24000000001</v>
+        <v>84799.16</v>
       </c>
     </row>
     <row r="924">
@@ -7966,7 +7966,7 @@
         <v>45759.78125</v>
       </c>
       <c r="B941" t="n">
-        <v>85144.72</v>
+        <v>85150.95</v>
       </c>
     </row>
     <row r="942">
@@ -7974,7 +7974,7 @@
         <v>45759.79166666666</v>
       </c>
       <c r="B942" t="n">
-        <v>85073.38</v>
+        <v>85047.85000000001</v>
       </c>
     </row>
     <row r="943">
@@ -8022,7 +8022,7 @@
         <v>45759.85416666666</v>
       </c>
       <c r="B948" t="n">
-        <v>85852.02</v>
+        <v>85787.16</v>
       </c>
     </row>
     <row r="949">
@@ -8110,7 +8110,7 @@
         <v>45759.96875</v>
       </c>
       <c r="B959" t="n">
-        <v>85200.46000000001</v>
+        <v>85189.57000000001</v>
       </c>
     </row>
     <row r="960">
@@ -8262,7 +8262,7 @@
         <v>45760.16666666666</v>
       </c>
       <c r="B978" t="n">
-        <v>85111</v>
+        <v>85077.24000000001</v>
       </c>
     </row>
     <row r="979">
@@ -8342,7 +8342,7 @@
         <v>45760.27083333334</v>
       </c>
       <c r="B988" t="n">
-        <v>84725.5</v>
+        <v>84720.48</v>
       </c>
     </row>
     <row r="989">
@@ -8478,7 +8478,7 @@
         <v>45760.44791666666</v>
       </c>
       <c r="B1005" t="n">
-        <v>84667.48</v>
+        <v>84670.08</v>
       </c>
     </row>
     <row r="1006">
@@ -8526,7 +8526,7 @@
         <v>45760.51041666666</v>
       </c>
       <c r="B1011" t="n">
-        <v>84262.72</v>
+        <v>84287.56</v>
       </c>
     </row>
     <row r="1012">
@@ -8614,7 +8614,7 @@
         <v>45760.625</v>
       </c>
       <c r="B1022" t="n">
-        <v>83795.31</v>
+        <v>83773.09</v>
       </c>
     </row>
     <row r="1023">
@@ -8726,7 +8726,7 @@
         <v>45760.77083333334</v>
       </c>
       <c r="B1036" t="n">
-        <v>84813.3</v>
+        <v>84802.48</v>
       </c>
     </row>
     <row r="1037">
@@ -8870,7 +8870,7 @@
         <v>45760.95833333334</v>
       </c>
       <c r="B1054" t="n">
-        <v>83543.34</v>
+        <v>83516.66</v>
       </c>
     </row>
     <row r="1055">
@@ -9078,7 +9078,7 @@
         <v>45761.22916666666</v>
       </c>
       <c r="B1080" t="n">
-        <v>84377.89</v>
+        <v>84361.02</v>
       </c>
     </row>
     <row r="1081">
@@ -9110,7 +9110,7 @@
         <v>45761.27083333334</v>
       </c>
       <c r="B1084" t="n">
-        <v>84539.42999999999</v>
+        <v>84540.28</v>
       </c>
     </row>
     <row r="1085">
@@ -9190,7 +9190,7 @@
         <v>45761.375</v>
       </c>
       <c r="B1094" t="n">
-        <v>84855.09</v>
+        <v>84827.62</v>
       </c>
     </row>
     <row r="1095">
@@ -9198,7 +9198,7 @@
         <v>45761.38541666666</v>
       </c>
       <c r="B1095" t="n">
-        <v>84516.36</v>
+        <v>84485.25999999999</v>
       </c>
     </row>
     <row r="1096">
@@ -9278,7 +9278,7 @@
         <v>45761.48958333334</v>
       </c>
       <c r="B1105" t="n">
-        <v>84902.25</v>
+        <v>84869.34</v>
       </c>
     </row>
     <row r="1106">
@@ -9318,7 +9318,7 @@
         <v>45761.54166666666</v>
       </c>
       <c r="B1110" t="n">
-        <v>85068.67</v>
+        <v>85057.23</v>
       </c>
     </row>
     <row r="1111">
@@ -9342,7 +9342,7 @@
         <v>45761.57291666666</v>
       </c>
       <c r="B1113" t="n">
-        <v>84460.98</v>
+        <v>84463.19</v>
       </c>
     </row>
     <row r="1114">
@@ -9366,7 +9366,7 @@
         <v>45761.60416666666</v>
       </c>
       <c r="B1116" t="n">
-        <v>85476.3</v>
+        <v>85483.41</v>
       </c>
     </row>
     <row r="1117">
@@ -9470,7 +9470,7 @@
         <v>45761.73958333334</v>
       </c>
       <c r="B1129" t="n">
-        <v>84874.98</v>
+        <v>84820.33</v>
       </c>
     </row>
     <row r="1130">
@@ -9494,7 +9494,7 @@
         <v>45761.77083333334</v>
       </c>
       <c r="B1132" t="n">
-        <v>84885.86</v>
+        <v>84842.23</v>
       </c>
     </row>
     <row r="1133">
@@ -9526,7 +9526,7 @@
         <v>45761.8125</v>
       </c>
       <c r="B1136" t="n">
-        <v>85039.09</v>
+        <v>85065.87</v>
       </c>
     </row>
     <row r="1137">
@@ -9558,7 +9558,7 @@
         <v>45761.85416666666</v>
       </c>
       <c r="B1140" t="n">
-        <v>84611.21000000001</v>
+        <v>84612.77</v>
       </c>
     </row>
     <row r="1141">
@@ -9782,7 +9782,7 @@
         <v>45762.14583333334</v>
       </c>
       <c r="B1168" t="n">
-        <v>85261.36</v>
+        <v>85240.66</v>
       </c>
     </row>
     <row r="1169">
@@ -13038,7 +13038,7 @@
         <v>45766.38541666666</v>
       </c>
       <c r="B1575" t="n">
-        <v>85379.88</v>
+        <v>85382.31</v>
       </c>
     </row>
     <row r="1576">
@@ -23038,7 +23038,7 @@
         <v>45779.40625</v>
       </c>
       <c r="B2825" t="n">
-        <v>96660.8</v>
+        <v>96671.78</v>
       </c>
     </row>
     <row r="2826">
@@ -23422,7 +23422,7 @@
         <v>45779.90625</v>
       </c>
       <c r="B2873" t="n">
-        <v>96804.67</v>
+        <v>96628.38</v>
       </c>
     </row>
     <row r="2874">
@@ -25766,7 +25766,7 @@
         <v>45782.95833333334</v>
       </c>
       <c r="B3166" t="n">
-        <v>95048.16</v>
+        <v>95060.32000000001</v>
       </c>
     </row>
     <row r="3167">
@@ -29110,7 +29110,7 @@
         <v>45787.3125</v>
       </c>
       <c r="B3584" t="n">
-        <v>103697.75</v>
+        <v>103693.98</v>
       </c>
     </row>
     <row r="3585">
@@ -30782,7 +30782,7 @@
         <v>45789.48958333334</v>
       </c>
       <c r="B3793" t="n">
-        <v>103747.55</v>
+        <v>103752.06</v>
       </c>
     </row>
     <row r="3794">
@@ -31550,7 +31550,7 @@
         <v>45790.48958333334</v>
       </c>
       <c r="B3889" t="n">
-        <v>103687.08</v>
+        <v>103705.94</v>
       </c>
     </row>
     <row r="3890">
@@ -34350,7 +34350,7 @@
         <v>45794.13541666666</v>
       </c>
       <c r="B4239" t="n">
-        <v>103217.06</v>
+        <v>103235.99</v>
       </c>
     </row>
     <row r="4240">
@@ -35870,7 +35870,7 @@
         <v>45796.11458333334</v>
       </c>
       <c r="B4429" t="n">
-        <v>104627.81</v>
+        <v>104639.44</v>
       </c>
     </row>
     <row r="4430">
@@ -37150,7 +37150,7 @@
         <v>45797.78125</v>
       </c>
       <c r="B4589" t="n">
-        <v>105297.04</v>
+        <v>105362.58</v>
       </c>
     </row>
     <row r="4590">
@@ -37278,7 +37278,7 @@
         <v>45797.94791666666</v>
       </c>
       <c r="B4605" t="n">
-        <v>106836.06</v>
+        <v>106825.12</v>
       </c>
     </row>
     <row r="4606">
@@ -37678,7 +37678,7 @@
         <v>45798.46875</v>
       </c>
       <c r="B4655" t="n">
-        <v>106689.5</v>
+        <v>106673.23</v>
       </c>
     </row>
     <row r="4656">
@@ -38606,7 +38606,7 @@
         <v>45799.67708333334</v>
       </c>
       <c r="B4771" t="n">
-        <v>111280.35</v>
+        <v>111345.7</v>
       </c>
     </row>
     <row r="4772">
@@ -38926,7 +38926,7 @@
         <v>45800.09375</v>
       </c>
       <c r="B4811" t="n">
-        <v>111570.43</v>
+        <v>111508.18</v>
       </c>
     </row>
     <row r="4812">
@@ -39358,7 +39358,7 @@
         <v>45800.65625</v>
       </c>
       <c r="B4865" t="n">
-        <v>109137.84</v>
+        <v>109100.03</v>
       </c>
     </row>
     <row r="4866">
@@ -39486,7 +39486,7 @@
         <v>45800.82291666666</v>
       </c>
       <c r="B4881" t="n">
-        <v>108866.16</v>
+        <v>108867.41</v>
       </c>
     </row>
     <row r="4882">
@@ -40110,7 +40110,7 @@
         <v>45801.63541666666</v>
       </c>
       <c r="B4959" t="n">
-        <v>108965.1</v>
+        <v>109055.76</v>
       </c>
     </row>
     <row r="4960">
@@ -40318,7 +40318,7 @@
         <v>45801.90625</v>
       </c>
       <c r="B4985" t="n">
-        <v>108862.95</v>
+        <v>108860.9</v>
       </c>
     </row>
     <row r="4986">
@@ -45646,55 +45646,231 @@
         <v>45808.84375</v>
       </c>
       <c r="B5651" t="n">
-        <v>104621.44</v>
+        <v>104716.92</v>
       </c>
     </row>
     <row r="5652">
       <c r="A5652" s="2" t="n">
-        <v>45809</v>
+        <v>45808.85416666666</v>
       </c>
       <c r="B5652" t="n">
-        <v>104521.44</v>
+        <v>104753.87</v>
       </c>
     </row>
     <row r="5653">
       <c r="A5653" s="2" t="n">
-        <v>45809.01041666666</v>
+        <v>45808.86458333334</v>
       </c>
       <c r="B5653" t="n">
-        <v>104450.77</v>
+        <v>104817.98</v>
       </c>
     </row>
     <row r="5654">
       <c r="A5654" s="2" t="n">
-        <v>45809.02083333334</v>
+        <v>45808.875</v>
       </c>
       <c r="B5654" t="n">
-        <v>104497.22</v>
+        <v>104719.04</v>
       </c>
     </row>
     <row r="5655">
       <c r="A5655" s="2" t="n">
-        <v>45809.03125</v>
+        <v>45808.88541666666</v>
       </c>
       <c r="B5655" t="n">
-        <v>104459.82</v>
+        <v>104828.94</v>
       </c>
     </row>
     <row r="5656">
       <c r="A5656" s="2" t="n">
-        <v>45809.04166666666</v>
+        <v>45808.89583333334</v>
       </c>
       <c r="B5656" t="n">
-        <v>104449.98</v>
+        <v>104895.07</v>
       </c>
     </row>
     <row r="5657">
       <c r="A5657" s="2" t="n">
+        <v>45808.90625</v>
+      </c>
+      <c r="B5657" t="n">
+        <v>104842.92</v>
+      </c>
+    </row>
+    <row r="5658">
+      <c r="A5658" s="2" t="n">
+        <v>45808.91666666666</v>
+      </c>
+      <c r="B5658" t="n">
+        <v>104863.88</v>
+      </c>
+    </row>
+    <row r="5659">
+      <c r="A5659" s="2" t="n">
+        <v>45808.92708333334</v>
+      </c>
+      <c r="B5659" t="n">
+        <v>104830.36</v>
+      </c>
+    </row>
+    <row r="5660">
+      <c r="A5660" s="2" t="n">
+        <v>45808.9375</v>
+      </c>
+      <c r="B5660" t="n">
+        <v>104769.16</v>
+      </c>
+    </row>
+    <row r="5661">
+      <c r="A5661" s="2" t="n">
+        <v>45808.94791666666</v>
+      </c>
+      <c r="B5661" t="n">
+        <v>104691.88</v>
+      </c>
+    </row>
+    <row r="5662">
+      <c r="A5662" s="2" t="n">
+        <v>45808.95833333334</v>
+      </c>
+      <c r="B5662" t="n">
+        <v>104773.13</v>
+      </c>
+    </row>
+    <row r="5663">
+      <c r="A5663" s="2" t="n">
+        <v>45808.96875</v>
+      </c>
+      <c r="B5663" t="n">
+        <v>104708.36</v>
+      </c>
+    </row>
+    <row r="5664">
+      <c r="A5664" s="2" t="n">
+        <v>45808.97916666666</v>
+      </c>
+      <c r="B5664" t="n">
+        <v>104706.06</v>
+      </c>
+    </row>
+    <row r="5665">
+      <c r="A5665" s="2" t="n">
+        <v>45808.98958333334</v>
+      </c>
+      <c r="B5665" t="n">
+        <v>104654.41</v>
+      </c>
+    </row>
+    <row r="5666">
+      <c r="A5666" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B5666" t="n">
+        <v>104521.44</v>
+      </c>
+    </row>
+    <row r="5667">
+      <c r="A5667" s="2" t="n">
+        <v>45809.01041666666</v>
+      </c>
+      <c r="B5667" t="n">
+        <v>104450.77</v>
+      </c>
+    </row>
+    <row r="5668">
+      <c r="A5668" s="2" t="n">
+        <v>45809.02083333334</v>
+      </c>
+      <c r="B5668" t="n">
+        <v>104497.22</v>
+      </c>
+    </row>
+    <row r="5669">
+      <c r="A5669" s="2" t="n">
+        <v>45809.03125</v>
+      </c>
+      <c r="B5669" t="n">
+        <v>104459.82</v>
+      </c>
+    </row>
+    <row r="5670">
+      <c r="A5670" s="2" t="n">
+        <v>45809.04166666666</v>
+      </c>
+      <c r="B5670" t="n">
+        <v>104449.98</v>
+      </c>
+    </row>
+    <row r="5671">
+      <c r="A5671" s="2" t="n">
         <v>45809.05208333334</v>
       </c>
-      <c r="B5657" t="n">
-        <v>104426.5</v>
+      <c r="B5671" t="n">
+        <v>104460.09</v>
+      </c>
+    </row>
+    <row r="5672">
+      <c r="A5672" s="2" t="n">
+        <v>45809.0625</v>
+      </c>
+      <c r="B5672" t="n">
+        <v>104270.82</v>
+      </c>
+    </row>
+    <row r="5673">
+      <c r="A5673" s="2" t="n">
+        <v>45809.07291666666</v>
+      </c>
+      <c r="B5673" t="n">
+        <v>104115.18</v>
+      </c>
+    </row>
+    <row r="5674">
+      <c r="A5674" s="2" t="n">
+        <v>45809.08333333334</v>
+      </c>
+      <c r="B5674" t="n">
+        <v>104037.88</v>
+      </c>
+    </row>
+    <row r="5675">
+      <c r="A5675" s="2" t="n">
+        <v>45809.09375</v>
+      </c>
+      <c r="B5675" t="n">
+        <v>104232.09</v>
+      </c>
+    </row>
+    <row r="5676">
+      <c r="A5676" s="2" t="n">
+        <v>45809.10416666666</v>
+      </c>
+      <c r="B5676" t="n">
+        <v>104297.75</v>
+      </c>
+    </row>
+    <row r="5677">
+      <c r="A5677" s="2" t="n">
+        <v>45809.11458333334</v>
+      </c>
+      <c r="B5677" t="n">
+        <v>104264.49</v>
+      </c>
+    </row>
+    <row r="5678">
+      <c r="A5678" s="2" t="n">
+        <v>45809.125</v>
+      </c>
+      <c r="B5678" t="n">
+        <v>104136.97</v>
+      </c>
+    </row>
+    <row r="5679">
+      <c r="A5679" s="2" t="n">
+        <v>45809.13541666666</v>
+      </c>
+      <c r="B5679" t="n">
+        <v>104112.17</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/bitcoin_close_15min.xlsx
+++ b/Uploads/bitcoin_close_15min.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5721"/>
+  <dimension ref="A1:B5723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46206,7 +46206,23 @@
         <v>45810.57291666666</v>
       </c>
       <c r="B5721" t="n">
-        <v>103822.74</v>
+        <v>103806.98</v>
+      </c>
+    </row>
+    <row r="5722">
+      <c r="A5722" s="2" t="n">
+        <v>45810.58333333334</v>
+      </c>
+      <c r="B5722" t="n">
+        <v>104118.02</v>
+      </c>
+    </row>
+    <row r="5723">
+      <c r="A5723" s="2" t="n">
+        <v>45810.59375</v>
+      </c>
+      <c r="B5723" t="n">
+        <v>104155.12</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/bitcoin_close_15min.xlsx
+++ b/Uploads/bitcoin_close_15min.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5715"/>
+  <dimension ref="A1:B5718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46158,7 +46158,31 @@
         <v>45812.51041666666</v>
       </c>
       <c r="B5715" t="n">
-        <v>105028.83</v>
+        <v>105019.24</v>
+      </c>
+    </row>
+    <row r="5716">
+      <c r="A5716" s="2" t="n">
+        <v>45812.52083333334</v>
+      </c>
+      <c r="B5716" t="n">
+        <v>105040.64</v>
+      </c>
+    </row>
+    <row r="5717">
+      <c r="A5717" s="2" t="n">
+        <v>45812.53125</v>
+      </c>
+      <c r="B5717" t="n">
+        <v>105099.11</v>
+      </c>
+    </row>
+    <row r="5718">
+      <c r="A5718" s="2" t="n">
+        <v>45812.54166666666</v>
+      </c>
+      <c r="B5718" t="n">
+        <v>105003.35</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/bitcoin_close_15min.xlsx
+++ b/Uploads/bitcoin_close_15min.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5686"/>
+  <dimension ref="A1:B5688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18494,7 +18494,7 @@
         <v>45778.48958333334</v>
       </c>
       <c r="B2257" t="n">
-        <v>96214</v>
+        <v>96231.66</v>
       </c>
     </row>
     <row r="2258">
@@ -26942,7 +26942,7 @@
         <v>45789.48958333334</v>
       </c>
       <c r="B3313" t="n">
-        <v>103752.06</v>
+        <v>103747.55</v>
       </c>
     </row>
     <row r="3314">
@@ -27710,7 +27710,7 @@
         <v>45790.48958333334</v>
       </c>
       <c r="B3409" t="n">
-        <v>103705.94</v>
+        <v>103687.08</v>
       </c>
     </row>
     <row r="3410">
@@ -44030,7 +44030,7 @@
         <v>45811.73958333334</v>
       </c>
       <c r="B5449" t="n">
-        <v>105976.78</v>
+        <v>105982.45</v>
       </c>
     </row>
     <row r="5450">
@@ -44614,7 +44614,7 @@
         <v>45812.5</v>
       </c>
       <c r="B5522" t="n">
-        <v>105173.12</v>
+        <v>105195.98</v>
       </c>
     </row>
     <row r="5523">
@@ -44774,7 +44774,7 @@
         <v>45812.70833333334</v>
       </c>
       <c r="B5542" t="n">
-        <v>105390.18</v>
+        <v>105444.48</v>
       </c>
     </row>
     <row r="5543">
@@ -45566,7 +45566,7 @@
         <v>45813.73958333334</v>
       </c>
       <c r="B5641" t="n">
-        <v>103234.3</v>
+        <v>103260.83</v>
       </c>
     </row>
     <row r="5642">
@@ -45927,6 +45927,22 @@
       </c>
       <c r="B5686" t="n">
         <v>102940.48</v>
+      </c>
+    </row>
+    <row r="5687">
+      <c r="A5687" s="2" t="n">
+        <v>45814.21875</v>
+      </c>
+      <c r="B5687" t="n">
+        <v>102767.23</v>
+      </c>
+    </row>
+    <row r="5688">
+      <c r="A5688" s="2" t="n">
+        <v>45814.22916666666</v>
+      </c>
+      <c r="B5688" t="n">
+        <v>102865.75</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/bitcoin_close_15min.xlsx
+++ b/Uploads/bitcoin_close_15min.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5756"/>
+  <dimension ref="A1:B5757"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
         <v>45755.03125</v>
       </c>
       <c r="B5" t="n">
-        <v>79061.53</v>
+        <v>78990.57000000001</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>45755.11458333334</v>
       </c>
       <c r="B13" t="n">
-        <v>79891.25</v>
+        <v>79911.47</v>
       </c>
     </row>
     <row r="14">
@@ -622,7 +622,7 @@
         <v>45755.21875</v>
       </c>
       <c r="B23" t="n">
-        <v>79611.97</v>
+        <v>79598.23</v>
       </c>
     </row>
     <row r="24">
@@ -638,7 +638,7 @@
         <v>45755.23958333334</v>
       </c>
       <c r="B25" t="n">
-        <v>79817.75999999999</v>
+        <v>79820.36</v>
       </c>
     </row>
     <row r="26">
@@ -662,7 +662,7 @@
         <v>45755.27083333334</v>
       </c>
       <c r="B28" t="n">
-        <v>79485.91</v>
+        <v>79513.78999999999</v>
       </c>
     </row>
     <row r="29">
@@ -718,7 +718,7 @@
         <v>45755.34375</v>
       </c>
       <c r="B35" t="n">
-        <v>78971.87</v>
+        <v>78970.7</v>
       </c>
     </row>
     <row r="36">
@@ -798,7 +798,7 @@
         <v>45755.44791666666</v>
       </c>
       <c r="B45" t="n">
-        <v>78961.67999999999</v>
+        <v>78966.89</v>
       </c>
     </row>
     <row r="46">
@@ -830,7 +830,7 @@
         <v>45755.48958333334</v>
       </c>
       <c r="B49" t="n">
-        <v>79869.57000000001</v>
+        <v>79980.86</v>
       </c>
     </row>
     <row r="50">
@@ -838,7 +838,7 @@
         <v>45755.5</v>
       </c>
       <c r="B50" t="n">
-        <v>80051.63</v>
+        <v>80026.05</v>
       </c>
     </row>
     <row r="51">
@@ -1174,7 +1174,7 @@
         <v>45755.9375</v>
       </c>
       <c r="B92" t="n">
-        <v>76337.92</v>
+        <v>76378.95</v>
       </c>
     </row>
     <row r="93">
@@ -1182,7 +1182,7 @@
         <v>45755.94791666666</v>
       </c>
       <c r="B93" t="n">
-        <v>76719.98</v>
+        <v>76697.05</v>
       </c>
     </row>
     <row r="94">
@@ -1334,7 +1334,7 @@
         <v>45756.14583333334</v>
       </c>
       <c r="B112" t="n">
-        <v>75210.91</v>
+        <v>75259.03999999999</v>
       </c>
     </row>
     <row r="113">
@@ -1478,7 +1478,7 @@
         <v>45756.33333333334</v>
       </c>
       <c r="B130" t="n">
-        <v>77399.89999999999</v>
+        <v>77366.64999999999</v>
       </c>
     </row>
     <row r="131">
@@ -1510,7 +1510,7 @@
         <v>45756.375</v>
       </c>
       <c r="B134" t="n">
-        <v>77322.05</v>
+        <v>77298.36</v>
       </c>
     </row>
     <row r="135">
@@ -1646,7 +1646,7 @@
         <v>45756.55208333334</v>
       </c>
       <c r="B151" t="n">
-        <v>76776.94</v>
+        <v>76758.78999999999</v>
       </c>
     </row>
     <row r="152">
@@ -1678,7 +1678,7 @@
         <v>45756.59375</v>
       </c>
       <c r="B155" t="n">
-        <v>77421.38</v>
+        <v>77432.52</v>
       </c>
     </row>
     <row r="156">
@@ -1718,7 +1718,7 @@
         <v>45756.64583333334</v>
       </c>
       <c r="B160" t="n">
-        <v>77022.62</v>
+        <v>77051.38</v>
       </c>
     </row>
     <row r="161">
@@ -1782,7 +1782,7 @@
         <v>45756.72916666666</v>
       </c>
       <c r="B168" t="n">
-        <v>81330.07000000001</v>
+        <v>81319.71000000001</v>
       </c>
     </row>
     <row r="169">
@@ -1830,7 +1830,7 @@
         <v>45756.79166666666</v>
       </c>
       <c r="B174" t="n">
-        <v>82052.72</v>
+        <v>82096.85000000001</v>
       </c>
     </row>
     <row r="175">
@@ -1910,7 +1910,7 @@
         <v>45756.89583333334</v>
       </c>
       <c r="B184" t="n">
-        <v>83004.05</v>
+        <v>82986.66</v>
       </c>
     </row>
     <row r="185">
@@ -2014,7 +2014,7 @@
         <v>45757.03125</v>
       </c>
       <c r="B197" t="n">
-        <v>82276.57000000001</v>
+        <v>82318.63</v>
       </c>
     </row>
     <row r="198">
@@ -2270,7 +2270,7 @@
         <v>45757.36458333334</v>
       </c>
       <c r="B229" t="n">
-        <v>81478.48</v>
+        <v>81499.44</v>
       </c>
     </row>
     <row r="230">
@@ -2310,7 +2310,7 @@
         <v>45757.41666666666</v>
       </c>
       <c r="B234" t="n">
-        <v>82086.09</v>
+        <v>82030.87</v>
       </c>
     </row>
     <row r="235">
@@ -2422,7 +2422,7 @@
         <v>45757.5625</v>
       </c>
       <c r="B248" t="n">
-        <v>80881.00999999999</v>
+        <v>80770.36</v>
       </c>
     </row>
     <row r="249">
@@ -2486,7 +2486,7 @@
         <v>45757.64583333334</v>
       </c>
       <c r="B256" t="n">
-        <v>79405.77</v>
+        <v>79258.64999999999</v>
       </c>
     </row>
     <row r="257">
@@ -2574,7 +2574,7 @@
         <v>45757.76041666666</v>
       </c>
       <c r="B267" t="n">
-        <v>79704.34</v>
+        <v>79691.67</v>
       </c>
     </row>
     <row r="268">
@@ -2630,7 +2630,7 @@
         <v>45757.83333333334</v>
       </c>
       <c r="B274" t="n">
-        <v>79883.52</v>
+        <v>79783.08</v>
       </c>
     </row>
     <row r="275">
@@ -2686,7 +2686,7 @@
         <v>45757.90625</v>
       </c>
       <c r="B281" t="n">
-        <v>79675.05</v>
+        <v>79672.05</v>
       </c>
     </row>
     <row r="282">
@@ -3030,7 +3030,7 @@
         <v>45758.35416666666</v>
       </c>
       <c r="B324" t="n">
-        <v>81613.45</v>
+        <v>81533.12</v>
       </c>
     </row>
     <row r="325">
@@ -3142,7 +3142,7 @@
         <v>45758.5</v>
       </c>
       <c r="B338" t="n">
-        <v>81876.12</v>
+        <v>81880.44</v>
       </c>
     </row>
     <row r="339">
@@ -3166,7 +3166,7 @@
         <v>45758.53125</v>
       </c>
       <c r="B341" t="n">
-        <v>82000.7</v>
+        <v>82004.32000000001</v>
       </c>
     </row>
     <row r="342">
@@ -3342,7 +3342,7 @@
         <v>45758.76041666666</v>
       </c>
       <c r="B363" t="n">
-        <v>83862.38</v>
+        <v>83915.55</v>
       </c>
     </row>
     <row r="364">
@@ -3350,7 +3350,7 @@
         <v>45758.77083333334</v>
       </c>
       <c r="B364" t="n">
-        <v>83817.12</v>
+        <v>83805.66</v>
       </c>
     </row>
     <row r="365">
@@ -3382,7 +3382,7 @@
         <v>45758.8125</v>
       </c>
       <c r="B368" t="n">
-        <v>83793.24000000001</v>
+        <v>83800.81</v>
       </c>
     </row>
     <row r="369">
@@ -3462,7 +3462,7 @@
         <v>45758.91666666666</v>
       </c>
       <c r="B378" t="n">
-        <v>83556.97</v>
+        <v>83546.27</v>
       </c>
     </row>
     <row r="379">
@@ -3630,7 +3630,7 @@
         <v>45759.13541666666</v>
       </c>
       <c r="B399" t="n">
-        <v>83003.74000000001</v>
+        <v>82991.3</v>
       </c>
     </row>
     <row r="400">
@@ -3686,7 +3686,7 @@
         <v>45759.20833333334</v>
       </c>
       <c r="B406" t="n">
-        <v>83268.11</v>
+        <v>83267.48</v>
       </c>
     </row>
     <row r="407">
@@ -3750,7 +3750,7 @@
         <v>45759.29166666666</v>
       </c>
       <c r="B414" t="n">
-        <v>83499.09</v>
+        <v>83483.75999999999</v>
       </c>
     </row>
     <row r="415">
@@ -3822,7 +3822,7 @@
         <v>45759.38541666666</v>
       </c>
       <c r="B423" t="n">
-        <v>83438.34</v>
+        <v>83438.7</v>
       </c>
     </row>
     <row r="424">
@@ -3846,7 +3846,7 @@
         <v>45759.41666666666</v>
       </c>
       <c r="B426" t="n">
-        <v>83460.92999999999</v>
+        <v>83457.2</v>
       </c>
     </row>
     <row r="427">
@@ -3982,7 +3982,7 @@
         <v>45759.59375</v>
       </c>
       <c r="B443" t="n">
-        <v>84799.16</v>
+        <v>84798.24000000001</v>
       </c>
     </row>
     <row r="444">
@@ -4126,7 +4126,7 @@
         <v>45759.78125</v>
       </c>
       <c r="B461" t="n">
-        <v>85150.95</v>
+        <v>85144.72</v>
       </c>
     </row>
     <row r="462">
@@ -4134,7 +4134,7 @@
         <v>45759.79166666666</v>
       </c>
       <c r="B462" t="n">
-        <v>85047.85000000001</v>
+        <v>85073.38</v>
       </c>
     </row>
     <row r="463">
@@ -4182,7 +4182,7 @@
         <v>45759.85416666666</v>
       </c>
       <c r="B468" t="n">
-        <v>85787.16</v>
+        <v>85852.02</v>
       </c>
     </row>
     <row r="469">
@@ -4270,7 +4270,7 @@
         <v>45759.96875</v>
       </c>
       <c r="B479" t="n">
-        <v>85189.57000000001</v>
+        <v>85200.46000000001</v>
       </c>
     </row>
     <row r="480">
@@ -4422,7 +4422,7 @@
         <v>45760.16666666666</v>
       </c>
       <c r="B498" t="n">
-        <v>85077.24000000001</v>
+        <v>85111</v>
       </c>
     </row>
     <row r="499">
@@ -4502,7 +4502,7 @@
         <v>45760.27083333334</v>
       </c>
       <c r="B508" t="n">
-        <v>84720.48</v>
+        <v>84725.5</v>
       </c>
     </row>
     <row r="509">
@@ -4638,7 +4638,7 @@
         <v>45760.44791666666</v>
       </c>
       <c r="B525" t="n">
-        <v>84670.08</v>
+        <v>84667.48</v>
       </c>
     </row>
     <row r="526">
@@ -4686,7 +4686,7 @@
         <v>45760.51041666666</v>
       </c>
       <c r="B531" t="n">
-        <v>84287.56</v>
+        <v>84262.72</v>
       </c>
     </row>
     <row r="532">
@@ -4774,7 +4774,7 @@
         <v>45760.625</v>
       </c>
       <c r="B542" t="n">
-        <v>83773.09</v>
+        <v>83795.31</v>
       </c>
     </row>
     <row r="543">
@@ -4886,7 +4886,7 @@
         <v>45760.77083333334</v>
       </c>
       <c r="B556" t="n">
-        <v>84802.48</v>
+        <v>84813.3</v>
       </c>
     </row>
     <row r="557">
@@ -5030,7 +5030,7 @@
         <v>45760.95833333334</v>
       </c>
       <c r="B574" t="n">
-        <v>83516.66</v>
+        <v>83543.34</v>
       </c>
     </row>
     <row r="575">
@@ -5238,7 +5238,7 @@
         <v>45761.22916666666</v>
       </c>
       <c r="B600" t="n">
-        <v>84361.02</v>
+        <v>84377.89</v>
       </c>
     </row>
     <row r="601">
@@ -5270,7 +5270,7 @@
         <v>45761.27083333334</v>
       </c>
       <c r="B604" t="n">
-        <v>84540.28</v>
+        <v>84539.42999999999</v>
       </c>
     </row>
     <row r="605">
@@ -5350,7 +5350,7 @@
         <v>45761.375</v>
       </c>
       <c r="B614" t="n">
-        <v>84827.62</v>
+        <v>84855.09</v>
       </c>
     </row>
     <row r="615">
@@ -5358,7 +5358,7 @@
         <v>45761.38541666666</v>
       </c>
       <c r="B615" t="n">
-        <v>84485.25999999999</v>
+        <v>84516.36</v>
       </c>
     </row>
     <row r="616">
@@ -5438,7 +5438,7 @@
         <v>45761.48958333334</v>
       </c>
       <c r="B625" t="n">
-        <v>84869.34</v>
+        <v>84902.25</v>
       </c>
     </row>
     <row r="626">
@@ -5478,7 +5478,7 @@
         <v>45761.54166666666</v>
       </c>
       <c r="B630" t="n">
-        <v>85057.23</v>
+        <v>85068.67</v>
       </c>
     </row>
     <row r="631">
@@ -5502,7 +5502,7 @@
         <v>45761.57291666666</v>
       </c>
       <c r="B633" t="n">
-        <v>84463.19</v>
+        <v>84460.98</v>
       </c>
     </row>
     <row r="634">
@@ -5526,7 +5526,7 @@
         <v>45761.60416666666</v>
       </c>
       <c r="B636" t="n">
-        <v>85483.41</v>
+        <v>85476.3</v>
       </c>
     </row>
     <row r="637">
@@ -5630,7 +5630,7 @@
         <v>45761.73958333334</v>
       </c>
       <c r="B649" t="n">
-        <v>84820.33</v>
+        <v>84874.98</v>
       </c>
     </row>
     <row r="650">
@@ -5654,7 +5654,7 @@
         <v>45761.77083333334</v>
       </c>
       <c r="B652" t="n">
-        <v>84842.23</v>
+        <v>84885.86</v>
       </c>
     </row>
     <row r="653">
@@ -5686,7 +5686,7 @@
         <v>45761.8125</v>
       </c>
       <c r="B656" t="n">
-        <v>85065.87</v>
+        <v>85039.09</v>
       </c>
     </row>
     <row r="657">
@@ -5718,7 +5718,7 @@
         <v>45761.85416666666</v>
       </c>
       <c r="B660" t="n">
-        <v>84612.77</v>
+        <v>84611.21000000001</v>
       </c>
     </row>
     <row r="661">
@@ -5942,7 +5942,7 @@
         <v>45762.14583333334</v>
       </c>
       <c r="B688" t="n">
-        <v>85240.66</v>
+        <v>85261.36</v>
       </c>
     </row>
     <row r="689">
@@ -9198,7 +9198,7 @@
         <v>45766.38541666666</v>
       </c>
       <c r="B1095" t="n">
-        <v>85382.31</v>
+        <v>85379.88</v>
       </c>
     </row>
     <row r="1096">
@@ -18494,7 +18494,7 @@
         <v>45778.48958333334</v>
       </c>
       <c r="B2257" t="n">
-        <v>96231.66</v>
+        <v>96214</v>
       </c>
     </row>
     <row r="2258">
@@ -19198,7 +19198,7 @@
         <v>45779.40625</v>
       </c>
       <c r="B2345" t="n">
-        <v>96671.78</v>
+        <v>96660.8</v>
       </c>
     </row>
     <row r="2346">
@@ -19582,7 +19582,7 @@
         <v>45779.90625</v>
       </c>
       <c r="B2393" t="n">
-        <v>96628.38</v>
+        <v>96804.67</v>
       </c>
     </row>
     <row r="2394">
@@ -21926,7 +21926,7 @@
         <v>45782.95833333334</v>
       </c>
       <c r="B2686" t="n">
-        <v>95060.32000000001</v>
+        <v>95048.16</v>
       </c>
     </row>
     <row r="2687">
@@ -25270,7 +25270,7 @@
         <v>45787.3125</v>
       </c>
       <c r="B3104" t="n">
-        <v>103693.98</v>
+        <v>103697.75</v>
       </c>
     </row>
     <row r="3105">
@@ -30510,7 +30510,7 @@
         <v>45794.13541666666</v>
       </c>
       <c r="B3759" t="n">
-        <v>103235.99</v>
+        <v>103217.06</v>
       </c>
     </row>
     <row r="3760">
@@ -32030,7 +32030,7 @@
         <v>45796.11458333334</v>
       </c>
       <c r="B3949" t="n">
-        <v>104639.44</v>
+        <v>104627.81</v>
       </c>
     </row>
     <row r="3950">
@@ -33310,7 +33310,7 @@
         <v>45797.78125</v>
       </c>
       <c r="B4109" t="n">
-        <v>105362.58</v>
+        <v>105297.04</v>
       </c>
     </row>
     <row r="4110">
@@ -33438,7 +33438,7 @@
         <v>45797.94791666666</v>
       </c>
       <c r="B4125" t="n">
-        <v>106825.12</v>
+        <v>106836.06</v>
       </c>
     </row>
     <row r="4126">
@@ -33838,7 +33838,7 @@
         <v>45798.46875</v>
       </c>
       <c r="B4175" t="n">
-        <v>106673.23</v>
+        <v>106689.5</v>
       </c>
     </row>
     <row r="4176">
@@ -34766,7 +34766,7 @@
         <v>45799.67708333334</v>
       </c>
       <c r="B4291" t="n">
-        <v>111345.7</v>
+        <v>111280.35</v>
       </c>
     </row>
     <row r="4292">
@@ -35086,7 +35086,7 @@
         <v>45800.09375</v>
       </c>
       <c r="B4331" t="n">
-        <v>111508.18</v>
+        <v>111570.43</v>
       </c>
     </row>
     <row r="4332">
@@ -35518,7 +35518,7 @@
         <v>45800.65625</v>
       </c>
       <c r="B4385" t="n">
-        <v>109100.03</v>
+        <v>109137.84</v>
       </c>
     </row>
     <row r="4386">
@@ -35646,7 +35646,7 @@
         <v>45800.82291666666</v>
       </c>
       <c r="B4401" t="n">
-        <v>108867.41</v>
+        <v>108866.16</v>
       </c>
     </row>
     <row r="4402">
@@ -36270,7 +36270,7 @@
         <v>45801.63541666666</v>
       </c>
       <c r="B4479" t="n">
-        <v>109055.76</v>
+        <v>108965.1</v>
       </c>
     </row>
     <row r="4480">
@@ -36478,7 +36478,7 @@
         <v>45801.90625</v>
       </c>
       <c r="B4505" t="n">
-        <v>108860.9</v>
+        <v>108862.95</v>
       </c>
     </row>
     <row r="4506">
@@ -44478,7 +44478,7 @@
         <v>45812.32291666666</v>
       </c>
       <c r="B5505" t="n">
-        <v>105394.53</v>
+        <v>105397.31</v>
       </c>
     </row>
     <row r="5506">
@@ -44982,7 +44982,7 @@
         <v>45812.97916666666</v>
       </c>
       <c r="B5568" t="n">
-        <v>104817.35</v>
+        <v>104814.61</v>
       </c>
     </row>
     <row r="5569">
@@ -45166,7 +45166,7 @@
         <v>45813.21875</v>
       </c>
       <c r="B5591" t="n">
-        <v>104975.17</v>
+        <v>104995.98</v>
       </c>
     </row>
     <row r="5592">
@@ -45950,7 +45950,7 @@
         <v>45814.23958333334</v>
       </c>
       <c r="B5689" t="n">
-        <v>102992.28</v>
+        <v>103012.98</v>
       </c>
     </row>
     <row r="5690">
@@ -46158,7 +46158,7 @@
         <v>45814.51041666666</v>
       </c>
       <c r="B5715" t="n">
-        <v>103918.54</v>
+        <v>103928.44</v>
       </c>
     </row>
     <row r="5716">
@@ -46206,7 +46206,7 @@
         <v>45814.57291666666</v>
       </c>
       <c r="B5721" t="n">
-        <v>104149.8</v>
+        <v>104158.91</v>
       </c>
     </row>
     <row r="5722">
@@ -46238,7 +46238,7 @@
         <v>45814.61458333334</v>
       </c>
       <c r="B5725" t="n">
-        <v>104843.23</v>
+        <v>104826.99</v>
       </c>
     </row>
     <row r="5726">
@@ -46246,7 +46246,7 @@
         <v>45814.625</v>
       </c>
       <c r="B5726" t="n">
-        <v>104994.91</v>
+        <v>104910.05</v>
       </c>
     </row>
     <row r="5727">
@@ -46486,7 +46486,15 @@
         <v>45814.9375</v>
       </c>
       <c r="B5756" t="n">
-        <v>104402</v>
+        <v>104397.14</v>
+      </c>
+    </row>
+    <row r="5757">
+      <c r="A5757" s="2" t="n">
+        <v>45814.94791666666</v>
+      </c>
+      <c r="B5757" t="n">
+        <v>104421.31</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/bitcoin_close_15min.xlsx
+++ b/Uploads/bitcoin_close_15min.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5688"/>
+  <dimension ref="A1:B5689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -726,7 +726,7 @@
         <v>45758.35416666666</v>
       </c>
       <c r="B36" t="n">
-        <v>81533.12</v>
+        <v>81613.45</v>
       </c>
     </row>
     <row r="37">
@@ -838,7 +838,7 @@
         <v>45758.5</v>
       </c>
       <c r="B50" t="n">
-        <v>81880.44</v>
+        <v>81876.12</v>
       </c>
     </row>
     <row r="51">
@@ -862,7 +862,7 @@
         <v>45758.53125</v>
       </c>
       <c r="B53" t="n">
-        <v>82004.32000000001</v>
+        <v>82000.7</v>
       </c>
     </row>
     <row r="54">
@@ -1038,7 +1038,7 @@
         <v>45758.76041666666</v>
       </c>
       <c r="B75" t="n">
-        <v>83915.55</v>
+        <v>83862.38</v>
       </c>
     </row>
     <row r="76">
@@ -1046,7 +1046,7 @@
         <v>45758.77083333334</v>
       </c>
       <c r="B76" t="n">
-        <v>83805.66</v>
+        <v>83817.12</v>
       </c>
     </row>
     <row r="77">
@@ -1078,7 +1078,7 @@
         <v>45758.8125</v>
       </c>
       <c r="B80" t="n">
-        <v>83800.81</v>
+        <v>83793.24000000001</v>
       </c>
     </row>
     <row r="81">
@@ -1158,7 +1158,7 @@
         <v>45758.91666666666</v>
       </c>
       <c r="B90" t="n">
-        <v>83546.27</v>
+        <v>83556.97</v>
       </c>
     </row>
     <row r="91">
@@ -1326,7 +1326,7 @@
         <v>45759.13541666666</v>
       </c>
       <c r="B111" t="n">
-        <v>82991.3</v>
+        <v>83003.74000000001</v>
       </c>
     </row>
     <row r="112">
@@ -1382,7 +1382,7 @@
         <v>45759.20833333334</v>
       </c>
       <c r="B118" t="n">
-        <v>83267.48</v>
+        <v>83268.11</v>
       </c>
     </row>
     <row r="119">
@@ -1446,7 +1446,7 @@
         <v>45759.29166666666</v>
       </c>
       <c r="B126" t="n">
-        <v>83483.75999999999</v>
+        <v>83499.09</v>
       </c>
     </row>
     <row r="127">
@@ -1518,7 +1518,7 @@
         <v>45759.38541666666</v>
       </c>
       <c r="B135" t="n">
-        <v>83438.7</v>
+        <v>83438.34</v>
       </c>
     </row>
     <row r="136">
@@ -1542,7 +1542,7 @@
         <v>45759.41666666666</v>
       </c>
       <c r="B138" t="n">
-        <v>83457.2</v>
+        <v>83460.92999999999</v>
       </c>
     </row>
     <row r="139">
@@ -1678,7 +1678,7 @@
         <v>45759.59375</v>
       </c>
       <c r="B155" t="n">
-        <v>84798.24000000001</v>
+        <v>84799.16</v>
       </c>
     </row>
     <row r="156">
@@ -1822,7 +1822,7 @@
         <v>45759.78125</v>
       </c>
       <c r="B173" t="n">
-        <v>85144.72</v>
+        <v>85150.95</v>
       </c>
     </row>
     <row r="174">
@@ -1830,7 +1830,7 @@
         <v>45759.79166666666</v>
       </c>
       <c r="B174" t="n">
-        <v>85073.38</v>
+        <v>85047.85000000001</v>
       </c>
     </row>
     <row r="175">
@@ -1878,7 +1878,7 @@
         <v>45759.85416666666</v>
       </c>
       <c r="B180" t="n">
-        <v>85852.02</v>
+        <v>85787.16</v>
       </c>
     </row>
     <row r="181">
@@ -1966,7 +1966,7 @@
         <v>45759.96875</v>
       </c>
       <c r="B191" t="n">
-        <v>85200.46000000001</v>
+        <v>85189.57000000001</v>
       </c>
     </row>
     <row r="192">
@@ -2118,7 +2118,7 @@
         <v>45760.16666666666</v>
       </c>
       <c r="B210" t="n">
-        <v>85111</v>
+        <v>85077.24000000001</v>
       </c>
     </row>
     <row r="211">
@@ -2198,7 +2198,7 @@
         <v>45760.27083333334</v>
       </c>
       <c r="B220" t="n">
-        <v>84725.5</v>
+        <v>84720.48</v>
       </c>
     </row>
     <row r="221">
@@ -2334,7 +2334,7 @@
         <v>45760.44791666666</v>
       </c>
       <c r="B237" t="n">
-        <v>84667.48</v>
+        <v>84670.08</v>
       </c>
     </row>
     <row r="238">
@@ -2382,7 +2382,7 @@
         <v>45760.51041666666</v>
       </c>
       <c r="B243" t="n">
-        <v>84262.72</v>
+        <v>84287.56</v>
       </c>
     </row>
     <row r="244">
@@ -2470,7 +2470,7 @@
         <v>45760.625</v>
       </c>
       <c r="B254" t="n">
-        <v>83795.31</v>
+        <v>83773.09</v>
       </c>
     </row>
     <row r="255">
@@ -2582,7 +2582,7 @@
         <v>45760.77083333334</v>
       </c>
       <c r="B268" t="n">
-        <v>84813.3</v>
+        <v>84802.48</v>
       </c>
     </row>
     <row r="269">
@@ -2726,7 +2726,7 @@
         <v>45760.95833333334</v>
       </c>
       <c r="B286" t="n">
-        <v>83543.34</v>
+        <v>83516.66</v>
       </c>
     </row>
     <row r="287">
@@ -2934,7 +2934,7 @@
         <v>45761.22916666666</v>
       </c>
       <c r="B312" t="n">
-        <v>84377.89</v>
+        <v>84361.02</v>
       </c>
     </row>
     <row r="313">
@@ -2966,7 +2966,7 @@
         <v>45761.27083333334</v>
       </c>
       <c r="B316" t="n">
-        <v>84539.42999999999</v>
+        <v>84540.28</v>
       </c>
     </row>
     <row r="317">
@@ -3046,7 +3046,7 @@
         <v>45761.375</v>
       </c>
       <c r="B326" t="n">
-        <v>84855.09</v>
+        <v>84827.62</v>
       </c>
     </row>
     <row r="327">
@@ -3054,7 +3054,7 @@
         <v>45761.38541666666</v>
       </c>
       <c r="B327" t="n">
-        <v>84516.36</v>
+        <v>84485.25999999999</v>
       </c>
     </row>
     <row r="328">
@@ -3134,7 +3134,7 @@
         <v>45761.48958333334</v>
       </c>
       <c r="B337" t="n">
-        <v>84902.25</v>
+        <v>84869.34</v>
       </c>
     </row>
     <row r="338">
@@ -3174,7 +3174,7 @@
         <v>45761.54166666666</v>
       </c>
       <c r="B342" t="n">
-        <v>85068.67</v>
+        <v>85057.23</v>
       </c>
     </row>
     <row r="343">
@@ -3198,7 +3198,7 @@
         <v>45761.57291666666</v>
       </c>
       <c r="B345" t="n">
-        <v>84460.98</v>
+        <v>84463.19</v>
       </c>
     </row>
     <row r="346">
@@ -3222,7 +3222,7 @@
         <v>45761.60416666666</v>
       </c>
       <c r="B348" t="n">
-        <v>85476.3</v>
+        <v>85483.41</v>
       </c>
     </row>
     <row r="349">
@@ -3326,7 +3326,7 @@
         <v>45761.73958333334</v>
       </c>
       <c r="B361" t="n">
-        <v>84874.98</v>
+        <v>84820.33</v>
       </c>
     </row>
     <row r="362">
@@ -3350,7 +3350,7 @@
         <v>45761.77083333334</v>
       </c>
       <c r="B364" t="n">
-        <v>84885.86</v>
+        <v>84842.23</v>
       </c>
     </row>
     <row r="365">
@@ -3382,7 +3382,7 @@
         <v>45761.8125</v>
       </c>
       <c r="B368" t="n">
-        <v>85039.09</v>
+        <v>85065.87</v>
       </c>
     </row>
     <row r="369">
@@ -3414,7 +3414,7 @@
         <v>45761.85416666666</v>
       </c>
       <c r="B372" t="n">
-        <v>84611.21000000001</v>
+        <v>84612.77</v>
       </c>
     </row>
     <row r="373">
@@ -3638,7 +3638,7 @@
         <v>45762.14583333334</v>
       </c>
       <c r="B400" t="n">
-        <v>85261.36</v>
+        <v>85240.66</v>
       </c>
     </row>
     <row r="401">
@@ -6894,7 +6894,7 @@
         <v>45766.38541666666</v>
       </c>
       <c r="B807" t="n">
-        <v>85379.88</v>
+        <v>85382.31</v>
       </c>
     </row>
     <row r="808">
@@ -16894,7 +16894,7 @@
         <v>45779.40625</v>
       </c>
       <c r="B2057" t="n">
-        <v>96660.8</v>
+        <v>96671.78</v>
       </c>
     </row>
     <row r="2058">
@@ -17278,7 +17278,7 @@
         <v>45779.90625</v>
       </c>
       <c r="B2105" t="n">
-        <v>96804.67</v>
+        <v>96628.38</v>
       </c>
     </row>
     <row r="2106">
@@ -19622,7 +19622,7 @@
         <v>45782.95833333334</v>
       </c>
       <c r="B2398" t="n">
-        <v>95048.16</v>
+        <v>95060.32000000001</v>
       </c>
     </row>
     <row r="2399">
@@ -22966,7 +22966,7 @@
         <v>45787.3125</v>
       </c>
       <c r="B2816" t="n">
-        <v>103697.75</v>
+        <v>103693.98</v>
       </c>
     </row>
     <row r="2817">
@@ -24638,7 +24638,7 @@
         <v>45789.48958333334</v>
       </c>
       <c r="B3025" t="n">
-        <v>103747.55</v>
+        <v>103752.06</v>
       </c>
     </row>
     <row r="3026">
@@ -25406,7 +25406,7 @@
         <v>45790.48958333334</v>
       </c>
       <c r="B3121" t="n">
-        <v>103687.08</v>
+        <v>103705.94</v>
       </c>
     </row>
     <row r="3122">
@@ -28206,7 +28206,7 @@
         <v>45794.13541666666</v>
       </c>
       <c r="B3471" t="n">
-        <v>103217.06</v>
+        <v>103235.99</v>
       </c>
     </row>
     <row r="3472">
@@ -29726,7 +29726,7 @@
         <v>45796.11458333334</v>
       </c>
       <c r="B3661" t="n">
-        <v>104627.81</v>
+        <v>104639.44</v>
       </c>
     </row>
     <row r="3662">
@@ -31006,7 +31006,7 @@
         <v>45797.78125</v>
       </c>
       <c r="B3821" t="n">
-        <v>105297.04</v>
+        <v>105362.58</v>
       </c>
     </row>
     <row r="3822">
@@ -31134,7 +31134,7 @@
         <v>45797.94791666666</v>
       </c>
       <c r="B3837" t="n">
-        <v>106836.06</v>
+        <v>106825.12</v>
       </c>
     </row>
     <row r="3838">
@@ -31534,7 +31534,7 @@
         <v>45798.46875</v>
       </c>
       <c r="B3887" t="n">
-        <v>106689.5</v>
+        <v>106673.23</v>
       </c>
     </row>
     <row r="3888">
@@ -32462,7 +32462,7 @@
         <v>45799.67708333334</v>
       </c>
       <c r="B4003" t="n">
-        <v>111280.35</v>
+        <v>111345.7</v>
       </c>
     </row>
     <row r="4004">
@@ -32782,7 +32782,7 @@
         <v>45800.09375</v>
       </c>
       <c r="B4043" t="n">
-        <v>111570.43</v>
+        <v>111508.18</v>
       </c>
     </row>
     <row r="4044">
@@ -33214,7 +33214,7 @@
         <v>45800.65625</v>
       </c>
       <c r="B4097" t="n">
-        <v>109137.84</v>
+        <v>109100.03</v>
       </c>
     </row>
     <row r="4098">
@@ -33342,7 +33342,7 @@
         <v>45800.82291666666</v>
       </c>
       <c r="B4113" t="n">
-        <v>108866.16</v>
+        <v>108867.41</v>
       </c>
     </row>
     <row r="4114">
@@ -33966,7 +33966,7 @@
         <v>45801.63541666666</v>
       </c>
       <c r="B4191" t="n">
-        <v>108965.1</v>
+        <v>109055.76</v>
       </c>
     </row>
     <row r="4192">
@@ -34174,7 +34174,7 @@
         <v>45801.90625</v>
       </c>
       <c r="B4217" t="n">
-        <v>108862.95</v>
+        <v>108860.9</v>
       </c>
     </row>
     <row r="4218">
@@ -41726,7 +41726,7 @@
         <v>45811.73958333334</v>
       </c>
       <c r="B5161" t="n">
-        <v>105982.45</v>
+        <v>105976.78</v>
       </c>
     </row>
     <row r="5162">
@@ -42174,7 +42174,7 @@
         <v>45812.32291666666</v>
       </c>
       <c r="B5217" t="n">
-        <v>105397.31</v>
+        <v>105394.53</v>
       </c>
     </row>
     <row r="5218">
@@ -42310,7 +42310,7 @@
         <v>45812.5</v>
       </c>
       <c r="B5234" t="n">
-        <v>105195.98</v>
+        <v>105173.12</v>
       </c>
     </row>
     <row r="5235">
@@ -42470,7 +42470,7 @@
         <v>45812.70833333334</v>
       </c>
       <c r="B5254" t="n">
-        <v>105444.48</v>
+        <v>105390.18</v>
       </c>
     </row>
     <row r="5255">
@@ -42678,7 +42678,7 @@
         <v>45812.97916666666</v>
       </c>
       <c r="B5280" t="n">
-        <v>104814.61</v>
+        <v>104817.35</v>
       </c>
     </row>
     <row r="5281">
@@ -42862,7 +42862,7 @@
         <v>45813.21875</v>
       </c>
       <c r="B5303" t="n">
-        <v>104995.98</v>
+        <v>104975.17</v>
       </c>
     </row>
     <row r="5304">
@@ -43262,7 +43262,7 @@
         <v>45813.73958333334</v>
       </c>
       <c r="B5353" t="n">
-        <v>103260.83</v>
+        <v>103234.3</v>
       </c>
     </row>
     <row r="5354">
@@ -43646,7 +43646,7 @@
         <v>45814.23958333334</v>
       </c>
       <c r="B5401" t="n">
-        <v>103012.98</v>
+        <v>102992.28</v>
       </c>
     </row>
     <row r="5402">
@@ -43854,7 +43854,7 @@
         <v>45814.51041666666</v>
       </c>
       <c r="B5427" t="n">
-        <v>103928.44</v>
+        <v>103918.54</v>
       </c>
     </row>
     <row r="5428">
@@ -43902,7 +43902,7 @@
         <v>45814.57291666666</v>
       </c>
       <c r="B5433" t="n">
-        <v>104158.91</v>
+        <v>104149.8</v>
       </c>
     </row>
     <row r="5434">
@@ -43934,7 +43934,7 @@
         <v>45814.61458333334</v>
       </c>
       <c r="B5437" t="n">
-        <v>104826.99</v>
+        <v>104843.23</v>
       </c>
     </row>
     <row r="5438">
@@ -43942,7 +43942,7 @@
         <v>45814.625</v>
       </c>
       <c r="B5438" t="n">
-        <v>104910.05</v>
+        <v>104994.91</v>
       </c>
     </row>
     <row r="5439">
@@ -44214,7 +44214,7 @@
         <v>45814.97916666666</v>
       </c>
       <c r="B5472" t="n">
-        <v>104424.28</v>
+        <v>104421.69</v>
       </c>
     </row>
     <row r="5473">
@@ -44958,7 +44958,7 @@
         <v>45815.94791666666</v>
       </c>
       <c r="B5565" t="n">
-        <v>105881.52</v>
+        <v>105878.49</v>
       </c>
     </row>
     <row r="5566">
@@ -45054,7 +45054,7 @@
         <v>45816.07291666666</v>
       </c>
       <c r="B5577" t="n">
-        <v>105768.54</v>
+        <v>105753.31</v>
       </c>
     </row>
     <row r="5578">
@@ -45158,7 +45158,7 @@
         <v>45816.20833333334</v>
       </c>
       <c r="B5590" t="n">
-        <v>105629.97</v>
+        <v>105601</v>
       </c>
     </row>
     <row r="5591">
@@ -45598,7 +45598,7 @@
         <v>45816.78125</v>
       </c>
       <c r="B5645" t="n">
-        <v>106365.07</v>
+        <v>106365.77</v>
       </c>
     </row>
     <row r="5646">
@@ -45710,7 +45710,7 @@
         <v>45816.92708333334</v>
       </c>
       <c r="B5659" t="n">
-        <v>105960.09</v>
+        <v>105963.84</v>
       </c>
     </row>
     <row r="5660">
@@ -45806,7 +45806,7 @@
         <v>45817.05208333334</v>
       </c>
       <c r="B5671" t="n">
-        <v>105696.92</v>
+        <v>105692.2</v>
       </c>
     </row>
     <row r="5672">
@@ -45942,7 +45942,15 @@
         <v>45817.22916666666</v>
       </c>
       <c r="B5688" t="n">
-        <v>105421.96</v>
+        <v>105430.16</v>
+      </c>
+    </row>
+    <row r="5689">
+      <c r="A5689" s="2" t="n">
+        <v>45817.23958333334</v>
+      </c>
+      <c r="B5689" t="n">
+        <v>105462.12</v>
       </c>
     </row>
   </sheetData>
